--- a/escenarios_montecarlo/escenario_005.xlsx
+++ b/escenarios_montecarlo/escenario_005.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.52896249863221</v>
+        <v>17.89197700683481</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1719861678182</v>
+        <v>39.01018911715853</v>
       </c>
       <c r="E2" t="n">
-        <v>21.84560612438369</v>
+        <v>35.80142851116183</v>
       </c>
       <c r="F2" t="n">
-        <v>27.3920105770839</v>
+        <v>8.446448214214115</v>
       </c>
       <c r="G2" t="n">
-        <v>10.2556681742101</v>
+        <v>8.946273705391706</v>
       </c>
       <c r="H2" t="n">
-        <v>19.68497479604437</v>
+        <v>37.34727393135613</v>
       </c>
       <c r="I2" t="n">
-        <v>7.461479753431075</v>
+        <v>11.22261193582653</v>
       </c>
       <c r="J2" t="n">
-        <v>21.11629254885083</v>
+        <v>9.430926999840453</v>
       </c>
       <c r="K2" t="n">
-        <v>105.7935000741623</v>
+        <v>34.40607680033444</v>
       </c>
       <c r="L2" t="n">
-        <v>23.60454267383604</v>
+        <v>99.69291679274831</v>
       </c>
       <c r="M2" t="n">
-        <v>30.58595848858382</v>
+        <v>125.6488322762916</v>
       </c>
       <c r="N2" t="n">
-        <v>22.06408655207596</v>
+        <v>95.97341358088153</v>
       </c>
       <c r="O2" t="n">
-        <v>29.53538765471</v>
+        <v>109.5311526254191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.75910737771449</v>
+        <v>60.61182127625931</v>
       </c>
       <c r="Q2" t="n">
-        <v>49.907062693737</v>
+        <v>37.18498904122456</v>
       </c>
       <c r="R2" t="n">
-        <v>86.35630923615531</v>
+        <v>51.32818815888506</v>
       </c>
       <c r="S2" t="n">
-        <v>27.59676442630259</v>
+        <v>56.835371625459</v>
       </c>
       <c r="T2" t="n">
-        <v>23.70781536689896</v>
+        <v>45.95208226091905</v>
       </c>
       <c r="U2" t="n">
-        <v>42.02222880802499</v>
+        <v>42.90526300894519</v>
       </c>
       <c r="V2" t="n">
-        <v>41.84832115498386</v>
+        <v>41.88223166352368</v>
       </c>
       <c r="W2" t="n">
-        <v>67.96093588163875</v>
+        <v>34.12640642263182</v>
       </c>
       <c r="X2" t="n">
-        <v>87.67152370542122</v>
+        <v>45.31805644844845</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.4923488166587</v>
+        <v>64.94577321180252</v>
       </c>
       <c r="Z2" t="n">
-        <v>107.9833221481955</v>
+        <v>134.0052605564067</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.49847479535657</v>
+        <v>93.48263727387649</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.0689644239536</v>
+        <v>105.517654719043</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.448775383208</v>
+        <v>91.80125446178123</v>
       </c>
       <c r="AD2" t="n">
-        <v>95.81658503225408</v>
+        <v>162.0541611539364</v>
       </c>
       <c r="AE2" t="n">
-        <v>157.8265597803841</v>
+        <v>141.5146271347596</v>
       </c>
       <c r="AF2" t="n">
-        <v>28.05175658481666</v>
+        <v>101.6653400690372</v>
       </c>
       <c r="AG2" t="n">
-        <v>164.3674939321645</v>
+        <v>78.32544822907009</v>
       </c>
       <c r="AH2" t="n">
-        <v>28.55024861364836</v>
+        <v>58.94374460509091</v>
       </c>
       <c r="AI2" t="n">
-        <v>113.7622015462458</v>
+        <v>144.3604583257532</v>
       </c>
       <c r="AJ2" t="n">
-        <v>133.8798431889718</v>
+        <v>111.6022088533283</v>
       </c>
       <c r="AK2" t="n">
-        <v>38.60046148136438</v>
+        <v>30.65957087791584</v>
       </c>
       <c r="AL2" t="n">
-        <v>36.53404477196508</v>
+        <v>47.49695097925279</v>
       </c>
       <c r="AM2" t="n">
-        <v>19.67805740440994</v>
+        <v>64.564453993181</v>
       </c>
       <c r="AN2" t="n">
-        <v>37.84404813032473</v>
+        <v>36.55173233730166</v>
       </c>
       <c r="AO2" t="n">
-        <v>34.87397922618154</v>
+        <v>21.02002052363684</v>
       </c>
       <c r="AP2" t="n">
-        <v>26.72784217625677</v>
+        <v>36.30937691441479</v>
       </c>
       <c r="AQ2" t="n">
-        <v>22.36205726482657</v>
+        <v>21.75104542893165</v>
       </c>
       <c r="AR2" t="n">
-        <v>25.29201908530942</v>
+        <v>12.30702991846829</v>
       </c>
       <c r="AS2" t="n">
-        <v>19.04835198915258</v>
+        <v>18.58510697493691</v>
       </c>
       <c r="AT2" t="n">
-        <v>22.04720042393198</v>
+        <v>21.58737350397779</v>
       </c>
       <c r="AU2" t="n">
-        <v>26.53620514144054</v>
+        <v>12.18984024263126</v>
       </c>
       <c r="AV2" t="n">
-        <v>25.39390644338883</v>
+        <v>35.65473799336907</v>
       </c>
       <c r="AW2" t="n">
-        <v>25.6444776769859</v>
+        <v>17.4013468252338</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.86138538449975</v>
+        <v>9.672859414062545</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5.77271451713558</v>
+        <v>2.235046920383982</v>
       </c>
       <c r="D3" t="n">
-        <v>2.519176832359004</v>
+        <v>0.4834385984497226</v>
       </c>
       <c r="E3" t="n">
-        <v>2.692579445428129</v>
+        <v>7.768413490034914</v>
       </c>
       <c r="F3" t="n">
-        <v>2.278223221697359</v>
+        <v>2.336421267942645</v>
       </c>
       <c r="G3" t="n">
-        <v>1.636519491732807</v>
+        <v>0.2301970598226821</v>
       </c>
       <c r="H3" t="n">
-        <v>2.017417193896539</v>
+        <v>3.239973946708357</v>
       </c>
       <c r="I3" t="n">
-        <v>7.466413309049428</v>
+        <v>8.321221134920199</v>
       </c>
       <c r="J3" t="n">
-        <v>2.315444733903982</v>
+        <v>2.271388994476538</v>
       </c>
       <c r="K3" t="n">
-        <v>2.339073249021733</v>
+        <v>0.771056990491683</v>
       </c>
       <c r="L3" t="n">
-        <v>9.967790006843018</v>
+        <v>0.6684636338512818</v>
       </c>
       <c r="M3" t="n">
-        <v>5.150009971408671</v>
+        <v>3.026009922199914</v>
       </c>
       <c r="N3" t="n">
-        <v>4.64278151975526</v>
+        <v>6.097156404527567</v>
       </c>
       <c r="O3" t="n">
-        <v>4.375383698405603</v>
+        <v>4.664032108464609</v>
       </c>
       <c r="P3" t="n">
-        <v>2.142455982793177</v>
+        <v>7.51819018795844</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.591182652948335</v>
+        <v>3.082353600081092</v>
       </c>
       <c r="R3" t="n">
-        <v>3.638981045299279</v>
+        <v>2.403913919544029</v>
       </c>
       <c r="S3" t="n">
-        <v>3.451174164597331</v>
+        <v>2.38072894901235</v>
       </c>
       <c r="T3" t="n">
-        <v>7.379042940148307</v>
+        <v>8.137486637634115</v>
       </c>
       <c r="U3" t="n">
-        <v>4.141220865914681</v>
+        <v>15.89673203150269</v>
       </c>
       <c r="V3" t="n">
-        <v>4.730603808443738</v>
+        <v>1.73624907632117</v>
       </c>
       <c r="W3" t="n">
-        <v>6.104051844225062</v>
+        <v>1.49361881180808</v>
       </c>
       <c r="X3" t="n">
-        <v>2.596395636914016</v>
+        <v>3.367707145913764</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.126463061362672</v>
+        <v>3.679414340982497</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.781125995708755</v>
+        <v>3.108702640752024</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.348028871368796</v>
+        <v>6.60321838582992</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.883982512787758</v>
+        <v>3.207397784865769</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.590484490336888</v>
+        <v>7.166136044449628</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.548554632696934</v>
+        <v>4.658612179058396</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.716271362300938</v>
+        <v>5.358279358635739</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.668413508043375</v>
+        <v>10.1991757812955</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.606073377540284</v>
+        <v>3.977139209153446</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.030468443007228</v>
+        <v>7.864154941648674</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.945804140657801</v>
+        <v>3.591265954654637</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.258060395089825</v>
+        <v>3.924688294290477</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.404929835613037</v>
+        <v>3.391384875274841</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.250377854812492</v>
+        <v>5.994962317217615</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.083284004632608</v>
+        <v>5.675402440025302</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.430247390800155</v>
+        <v>2.030021534415559</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.697502941927576</v>
+        <v>3.069094175738288</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.682248347663333</v>
+        <v>2.329594070539339</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.107126507231071</v>
+        <v>4.056250730377443</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.053993746621367</v>
+        <v>4.220788088120506</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.619321639854697</v>
+        <v>6.483184003280287</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.422414022042227</v>
+        <v>2.920538034303035</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.03693088770429429</v>
+        <v>1.041878434322836</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.83766866763952</v>
+        <v>1.536302438180964</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.982359087714822</v>
+        <v>3.027446540850105</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.945</v>
+        <v>13.95215713500719</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9.283932501834187</v>
+        <v>11.60253712203114</v>
       </c>
       <c r="D4" t="n">
-        <v>15.16540708422687</v>
+        <v>21.55464079696694</v>
       </c>
       <c r="E4" t="n">
-        <v>10.67448753788686</v>
+        <v>8.203319586809013</v>
       </c>
       <c r="F4" t="n">
-        <v>5.407241119725395</v>
+        <v>2.323206751588915</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82356422896127</v>
+        <v>5.004814428139088</v>
       </c>
       <c r="H4" t="n">
-        <v>29.29741232348775</v>
+        <v>5.28277802489428</v>
       </c>
       <c r="I4" t="n">
-        <v>76.74972762059153</v>
+        <v>107.7592746819737</v>
       </c>
       <c r="J4" t="n">
-        <v>169.7188272181434</v>
+        <v>40.8898732687428</v>
       </c>
       <c r="K4" t="n">
-        <v>103.7607615131816</v>
+        <v>127.5424136707144</v>
       </c>
       <c r="L4" t="n">
-        <v>70.78979807151852</v>
+        <v>51.15312631205357</v>
       </c>
       <c r="M4" t="n">
-        <v>43.10775336762831</v>
+        <v>55.48804889334245</v>
       </c>
       <c r="N4" t="n">
-        <v>78.32670325444819</v>
+        <v>184.1215319939828</v>
       </c>
       <c r="O4" t="n">
-        <v>65.94881176759446</v>
+        <v>104.7432856995074</v>
       </c>
       <c r="P4" t="n">
-        <v>54.92496659920047</v>
+        <v>107.6180593227976</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.77609243139815</v>
+        <v>49.70435626291938</v>
       </c>
       <c r="R4" t="n">
-        <v>106.5671543312313</v>
+        <v>55.1497302212427</v>
       </c>
       <c r="S4" t="n">
-        <v>90.75027476944905</v>
+        <v>53.2095534299286</v>
       </c>
       <c r="T4" t="n">
-        <v>59.3623800131647</v>
+        <v>125.1860354518706</v>
       </c>
       <c r="U4" t="n">
-        <v>53.35401160105594</v>
+        <v>72.38571088238066</v>
       </c>
       <c r="V4" t="n">
-        <v>124.5653049197013</v>
+        <v>75.03640810521026</v>
       </c>
       <c r="W4" t="n">
-        <v>105.6360086066457</v>
+        <v>65.13269051794789</v>
       </c>
       <c r="X4" t="n">
-        <v>48.68616420331844</v>
+        <v>47.55224123309434</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.20754229962394</v>
+        <v>67.74914287598881</v>
       </c>
       <c r="Z4" t="n">
-        <v>40.53064754932345</v>
+        <v>71.78109063225294</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.45129695696578</v>
+        <v>41.87631193474156</v>
       </c>
       <c r="AB4" t="n">
-        <v>51.50667639760618</v>
+        <v>70.51899455185716</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.3686079398096</v>
+        <v>72.76405892033975</v>
       </c>
       <c r="AD4" t="n">
-        <v>88.75064345915696</v>
+        <v>93.05343151261837</v>
       </c>
       <c r="AE4" t="n">
-        <v>47.27999356619065</v>
+        <v>51.0389359386096</v>
       </c>
       <c r="AF4" t="n">
-        <v>55.35658484385594</v>
+        <v>98.57119061432955</v>
       </c>
       <c r="AG4" t="n">
-        <v>38.34736306741647</v>
+        <v>61.90694911825324</v>
       </c>
       <c r="AH4" t="n">
-        <v>32.91135852612494</v>
+        <v>57.39242827452674</v>
       </c>
       <c r="AI4" t="n">
-        <v>37.76695623894612</v>
+        <v>40.56857076316818</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55.44350453959782</v>
+        <v>71.31019736530271</v>
       </c>
       <c r="AK4" t="n">
-        <v>36.59443515863691</v>
+        <v>27.95622413341133</v>
       </c>
       <c r="AL4" t="n">
-        <v>20.68201899529531</v>
+        <v>23.04911704949946</v>
       </c>
       <c r="AM4" t="n">
-        <v>25.06591774718699</v>
+        <v>27.5345967272178</v>
       </c>
       <c r="AN4" t="n">
-        <v>24.86346074842639</v>
+        <v>37.03829281385231</v>
       </c>
       <c r="AO4" t="n">
-        <v>47.58011697292384</v>
+        <v>30.60633239191793</v>
       </c>
       <c r="AP4" t="n">
-        <v>18.83700847502693</v>
+        <v>11.9556706932957</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28.63395029308322</v>
+        <v>11.01906895905283</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.038048018406673</v>
+        <v>13.22518307716473</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.692462493105824</v>
+        <v>7.828064653052049</v>
       </c>
       <c r="AT4" t="n">
-        <v>17.19499534327597</v>
+        <v>13.30750815588224</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.935495785241866</v>
+        <v>15.47903538408714</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.94405</v>
+        <v>15.71153221413197</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.827888202314462</v>
+        <v>14.3556172289715</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.011340540961548</v>
+        <v>12.47718782510276</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.71093653235864</v>
+        <v>13.06544370348992</v>
       </c>
       <c r="D5" t="n">
-        <v>14.19121846935174</v>
+        <v>23.50566753883412</v>
       </c>
       <c r="E5" t="n">
-        <v>30.83063403500807</v>
+        <v>27.0690509807652</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003452031706557612</v>
+        <v>89.89195153311823</v>
       </c>
       <c r="G5" t="n">
-        <v>28.14308495295175</v>
+        <v>8.589233426935307</v>
       </c>
       <c r="H5" t="n">
-        <v>22.38239983666493</v>
+        <v>4.175775561413137</v>
       </c>
       <c r="I5" t="n">
-        <v>29.11814441596209</v>
+        <v>83.50682334408593</v>
       </c>
       <c r="J5" t="n">
-        <v>44.70095920652794</v>
+        <v>29.08946833979394</v>
       </c>
       <c r="K5" t="n">
-        <v>26.0573205632851</v>
+        <v>92.55898435504463</v>
       </c>
       <c r="L5" t="n">
-        <v>59.04197424023734</v>
+        <v>21.476603806347</v>
       </c>
       <c r="M5" t="n">
-        <v>42.9968035827989</v>
+        <v>75.43458704088265</v>
       </c>
       <c r="N5" t="n">
-        <v>77.09366828129512</v>
+        <v>7.256473763852036</v>
       </c>
       <c r="O5" t="n">
-        <v>76.85633612570943</v>
+        <v>16.9978530468068</v>
       </c>
       <c r="P5" t="n">
-        <v>19.10124848813992</v>
+        <v>51.0318832340088</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.66956703549058</v>
+        <v>36.5203799255313</v>
       </c>
       <c r="R5" t="n">
-        <v>25.2462335621059</v>
+        <v>114.2682691299316</v>
       </c>
       <c r="S5" t="n">
-        <v>12.804004466933</v>
+        <v>66.10320408226269</v>
       </c>
       <c r="T5" t="n">
-        <v>54.24303745206528</v>
+        <v>82.19622753160957</v>
       </c>
       <c r="U5" t="n">
-        <v>22.2271469423378</v>
+        <v>135.2007884708894</v>
       </c>
       <c r="V5" t="n">
-        <v>43.2372079800719</v>
+        <v>57.94015557491151</v>
       </c>
       <c r="W5" t="n">
-        <v>39.38335829901108</v>
+        <v>30.41443586016167</v>
       </c>
       <c r="X5" t="n">
-        <v>108.5258803498454</v>
+        <v>32.8952802468466</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.34375219913309</v>
+        <v>36.14859872109626</v>
       </c>
       <c r="Z5" t="n">
-        <v>52.80810889765005</v>
+        <v>62.26564976904242</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.32930820757073</v>
+        <v>30.91503198357761</v>
       </c>
       <c r="AB5" t="n">
-        <v>33.81735750555394</v>
+        <v>64.16849729339297</v>
       </c>
       <c r="AC5" t="n">
-        <v>25.83105918534343</v>
+        <v>8.002524492861266</v>
       </c>
       <c r="AD5" t="n">
-        <v>28.40488360069805</v>
+        <v>18.20699963311726</v>
       </c>
       <c r="AE5" t="n">
-        <v>56.2342829628857</v>
+        <v>10.00776453940715</v>
       </c>
       <c r="AF5" t="n">
-        <v>32.15553472183807</v>
+        <v>31.39469849856926</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>31.07875008938414</v>
       </c>
       <c r="AH5" t="n">
-        <v>23.85273772590844</v>
+        <v>9.045883912413872</v>
       </c>
       <c r="AI5" t="n">
-        <v>22.08593904350622</v>
+        <v>12.81427118755238</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23.61995045860251</v>
+        <v>13.72322876881966</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.57076650882996</v>
+        <v>2.248391612813506</v>
       </c>
       <c r="AL5" t="n">
-        <v>31.33673040751156</v>
+        <v>25.99792558937945</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.752495142857141</v>
+        <v>29.27477914075525</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.507579404428725</v>
+        <v>51.73488744229583</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.06931234815834</v>
+        <v>17.37855049582911</v>
       </c>
       <c r="AP5" t="n">
-        <v>24.17576667672956</v>
+        <v>9.771542248706625</v>
       </c>
       <c r="AQ5" t="n">
-        <v>44.18123243335264</v>
+        <v>16.2022301747895</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.231153188958706</v>
+        <v>22.16309997216385</v>
       </c>
       <c r="AS5" t="n">
-        <v>13.06344795535026</v>
+        <v>25.55497955580197</v>
       </c>
       <c r="AT5" t="n">
-        <v>38.65886790081698</v>
+        <v>22.01207307126879</v>
       </c>
       <c r="AU5" t="n">
-        <v>28.76506086316268</v>
+        <v>4.614312772922386</v>
       </c>
       <c r="AV5" t="n">
-        <v>7.745055429972685</v>
+        <v>5.349995313799186</v>
       </c>
       <c r="AW5" t="n">
-        <v>24.05157836988653</v>
+        <v>13.885203471636</v>
       </c>
       <c r="AX5" t="n">
-        <v>19.48629493614937</v>
+        <v>25.64051899518035</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.614318574271985</v>
+        <v>1.471160905759548</v>
       </c>
       <c r="D6" t="n">
-        <v>1.185241012680291</v>
+        <v>9.221006335291479</v>
       </c>
       <c r="E6" t="n">
-        <v>1.191717099931441</v>
+        <v>2.121439758219211</v>
       </c>
       <c r="F6" t="n">
-        <v>5.647418691700723</v>
+        <v>3.665277943012179</v>
       </c>
       <c r="G6" t="n">
-        <v>15.36088428249599</v>
+        <v>11.39254429668055</v>
       </c>
       <c r="H6" t="n">
-        <v>19.2715551194675</v>
+        <v>8.046446974443523</v>
       </c>
       <c r="I6" t="n">
-        <v>8.546351035233254</v>
+        <v>2.842491349494839</v>
       </c>
       <c r="J6" t="n">
-        <v>9.991090079747289</v>
+        <v>113.5411345985219</v>
       </c>
       <c r="K6" t="n">
-        <v>16.05314436323822</v>
+        <v>25.09441911386675</v>
       </c>
       <c r="L6" t="n">
-        <v>20.139349443439</v>
+        <v>5.528200537584842</v>
       </c>
       <c r="M6" t="n">
-        <v>44.56801502905748</v>
+        <v>130.0976934485904</v>
       </c>
       <c r="N6" t="n">
-        <v>11.43638846532535</v>
+        <v>29.29044936083596</v>
       </c>
       <c r="O6" t="n">
-        <v>31.55353720443851</v>
+        <v>18.17732403035063</v>
       </c>
       <c r="P6" t="n">
-        <v>47.21720738199723</v>
+        <v>22.26239504515822</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.131406572441005</v>
+        <v>57.09945941629201</v>
       </c>
       <c r="R6" t="n">
-        <v>17.3777977134353</v>
+        <v>24.98891395775657</v>
       </c>
       <c r="S6" t="n">
-        <v>31.73714285714286</v>
+        <v>27.96548643675846</v>
       </c>
       <c r="T6" t="n">
-        <v>18.96342013422263</v>
+        <v>13.2865947774548</v>
       </c>
       <c r="U6" t="n">
-        <v>13.17291719396289</v>
+        <v>21.088036966108</v>
       </c>
       <c r="V6" t="n">
-        <v>30.88176178877798</v>
+        <v>30.19042851088034</v>
       </c>
       <c r="W6" t="n">
-        <v>8.179714285714285</v>
+        <v>19.18071988505229</v>
       </c>
       <c r="X6" t="n">
-        <v>14.65159427090048</v>
+        <v>8.757931202784537</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.64327478140243</v>
+        <v>31.22935657021202</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.232208514090219</v>
+        <v>43.23558018190183</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.30888301689879</v>
+        <v>11.09156099376279</v>
       </c>
       <c r="AB6" t="n">
-        <v>41.66336131050137</v>
+        <v>10.49136265962947</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.407398674151</v>
+        <v>13.32789799971791</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.47085457708814</v>
+        <v>18.87793039405323</v>
       </c>
       <c r="AE6" t="n">
-        <v>27.7119606277658</v>
+        <v>30.45233078161463</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.98888661760824</v>
+        <v>16.11898413005333</v>
       </c>
       <c r="AG6" t="n">
-        <v>31.02353069824231</v>
+        <v>18.15827594890308</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.1422806604814</v>
+        <v>9.361560338971152</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.414136322456334</v>
+        <v>7.93781318170434</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.07384259976392</v>
+        <v>9.86156421089966</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.79073217503021</v>
+        <v>3.764258371418717</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.839324211310766</v>
+        <v>5.016812910618847</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.197017320620321</v>
+        <v>4.121399833291181</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.480416005640754</v>
+        <v>4.021969802877145</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.084279221193371</v>
+        <v>12.58751338274669</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.008183646458544</v>
+        <v>2.534262592994261</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.403102933774844</v>
+        <v>1.565988091013815</v>
       </c>
       <c r="AR6" t="n">
-        <v>7.372412146799427</v>
+        <v>2.479892566617977</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.710927162893101</v>
+        <v>2.196565084768308</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.812724914233631</v>
+        <v>4.735685173713607</v>
       </c>
       <c r="AU6" t="n">
-        <v>12.60973042461757</v>
+        <v>20.76306831869736</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.128696176050547</v>
+        <v>0.2064809457565169</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.354980194980779</v>
+        <v>3.943459773126288</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.930539094111506</v>
+        <v>4.626746989456564</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9.460000000000001</v>
+        <v>12.53705147734423</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9</v>
+        <v>18.02544039958661</v>
       </c>
       <c r="E7" t="n">
-        <v>14.18</v>
+        <v>3.491926330626437</v>
       </c>
       <c r="F7" t="n">
-        <v>11.35</v>
+        <v>10.06156064061786</v>
       </c>
       <c r="G7" t="n">
-        <v>20.47</v>
+        <v>7.979894674427163</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>15.9295369927425</v>
       </c>
       <c r="I7" t="n">
-        <v>27.08</v>
+        <v>8.536533551661966</v>
       </c>
       <c r="J7" t="n">
-        <v>21.45</v>
+        <v>4.870162357657532</v>
       </c>
       <c r="K7" t="n">
-        <v>50.3</v>
+        <v>106.89800561084</v>
       </c>
       <c r="L7" t="n">
-        <v>28.7</v>
+        <v>13.42723091589098</v>
       </c>
       <c r="M7" t="n">
-        <v>32.47</v>
+        <v>71.3827383162244</v>
       </c>
       <c r="N7" t="n">
-        <v>38.6</v>
+        <v>87.51551333011724</v>
       </c>
       <c r="O7" t="n">
-        <v>30.39</v>
+        <v>54.31574121202043</v>
       </c>
       <c r="P7" t="n">
-        <v>67.03</v>
+        <v>6.056613906806502</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.1</v>
+        <v>64.68157138118099</v>
       </c>
       <c r="R7" t="n">
-        <v>33.81</v>
+        <v>1.35576128072273</v>
       </c>
       <c r="S7" t="n">
-        <v>25.16</v>
+        <v>23.53146935924982</v>
       </c>
       <c r="T7" t="n">
-        <v>10.68</v>
+        <v>12.20178331255443</v>
       </c>
       <c r="U7" t="n">
-        <v>83.54000000000001</v>
+        <v>24.99422798690265</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>44.3562039952064</v>
       </c>
       <c r="W7" t="n">
-        <v>2.42</v>
+        <v>4.905492444080649</v>
       </c>
       <c r="X7" t="n">
-        <v>126.96875</v>
+        <v>18.9438660684521</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.33903554973049</v>
+        <v>27.44207547077279</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.27</v>
+        <v>55.14827287945815</v>
       </c>
       <c r="AA7" t="n">
-        <v>32.36</v>
+        <v>2.439230819706249</v>
       </c>
       <c r="AB7" t="n">
-        <v>52.29</v>
+        <v>28.15272170546232</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.504221103961719</v>
+        <v>21.41002148834092</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.26</v>
+        <v>3.677881926853339</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.27</v>
+        <v>13.68804777737822</v>
       </c>
       <c r="AF7" t="n">
-        <v>20.67</v>
+        <v>0.9413613304343508</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.94</v>
+        <v>6.2742004793251</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.23</v>
+        <v>14.46980636234449</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.65</v>
+        <v>10.32831991989086</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.83</v>
+        <v>1.303732438380175</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.21</v>
+        <v>0.6849578362563019</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.92</v>
+        <v>2.583886711807661</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.85</v>
+        <v>1.739283765405375</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.85</v>
+        <v>9.467344942999246</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.64</v>
+        <v>1.896847208373448</v>
       </c>
       <c r="AP7" t="n">
-        <v>14.85</v>
+        <v>1.043061701899576</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.427733995616265</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.854359925788498</v>
+        <v>3.285369526983773</v>
       </c>
       <c r="AS7" t="n">
-        <v>11.02</v>
+        <v>39.49005785161675</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.59</v>
+        <v>3.83020259777972</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.84</v>
+        <v>4.949548152805034</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.97</v>
+        <v>9.050494086339684</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>1.169391540640808</v>
       </c>
       <c r="AX7" t="n">
-        <v>12.94</v>
+        <v>6.268932671210798</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>20.06925278378606</v>
+        <v>14.44778346461674</v>
       </c>
       <c r="D8" t="n">
-        <v>19.54575779076989</v>
+        <v>21.58862206992626</v>
       </c>
       <c r="E8" t="n">
-        <v>20.9137444510737</v>
+        <v>27.48065530403124</v>
       </c>
       <c r="F8" t="n">
-        <v>32.48084539460153</v>
+        <v>27.27434303154805</v>
       </c>
       <c r="G8" t="n">
-        <v>18.38081036307453</v>
+        <v>14.46443027661964</v>
       </c>
       <c r="H8" t="n">
-        <v>17.36577953538166</v>
+        <v>52.48993394840461</v>
       </c>
       <c r="I8" t="n">
-        <v>344.8507385517119</v>
+        <v>81.06845477671118</v>
       </c>
       <c r="J8" t="n">
-        <v>38.89873096315214</v>
+        <v>40.64607464484082</v>
       </c>
       <c r="K8" t="n">
-        <v>112.0329370977575</v>
+        <v>175.2976327106974</v>
       </c>
       <c r="L8" t="n">
-        <v>16.74194863974772</v>
+        <v>82.05206639372328</v>
       </c>
       <c r="M8" t="n">
-        <v>16.16058981326202</v>
+        <v>76.18032352468295</v>
       </c>
       <c r="N8" t="n">
-        <v>110.5520300519574</v>
+        <v>40.21686389439309</v>
       </c>
       <c r="O8" t="n">
-        <v>144.7803011867098</v>
+        <v>79.15253672083138</v>
       </c>
       <c r="P8" t="n">
-        <v>194.3362136993567</v>
+        <v>72.04986774205207</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.13558137219615</v>
+        <v>41.42369103018557</v>
       </c>
       <c r="R8" t="n">
-        <v>77.73013832985794</v>
+        <v>102.5683073972598</v>
       </c>
       <c r="S8" t="n">
-        <v>92.19783234983574</v>
+        <v>40.50952642374179</v>
       </c>
       <c r="T8" t="n">
-        <v>40.07791328081171</v>
+        <v>79.70662066014275</v>
       </c>
       <c r="U8" t="n">
-        <v>53.19100182087713</v>
+        <v>34.11389298385022</v>
       </c>
       <c r="V8" t="n">
-        <v>174.7819444936817</v>
+        <v>82.39608611585855</v>
       </c>
       <c r="W8" t="n">
-        <v>38.311288498449</v>
+        <v>99.61732297596728</v>
       </c>
       <c r="X8" t="n">
-        <v>190.4824048214074</v>
+        <v>59.05205560063833</v>
       </c>
       <c r="Y8" t="n">
-        <v>86.93610190304207</v>
+        <v>62.71274095596267</v>
       </c>
       <c r="Z8" t="n">
-        <v>49.58615751214796</v>
+        <v>64.72667620995117</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.47843436237184</v>
+        <v>114.2098698834064</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.1782586981354</v>
+        <v>110.5274355749331</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.27269318259494</v>
+        <v>91.4991950430471</v>
       </c>
       <c r="AD8" t="n">
-        <v>98.80893633734684</v>
+        <v>121.6597989630969</v>
       </c>
       <c r="AE8" t="n">
-        <v>55.03494428090943</v>
+        <v>181.2548580837207</v>
       </c>
       <c r="AF8" t="n">
-        <v>117.8364220936629</v>
+        <v>63.98488634232744</v>
       </c>
       <c r="AG8" t="n">
-        <v>141.3743983904823</v>
+        <v>98.08955941561253</v>
       </c>
       <c r="AH8" t="n">
-        <v>114.2887890577091</v>
+        <v>89.89151563039466</v>
       </c>
       <c r="AI8" t="n">
-        <v>39.50835320565558</v>
+        <v>76.97362787974271</v>
       </c>
       <c r="AJ8" t="n">
-        <v>74.49115717949603</v>
+        <v>65.19207069300401</v>
       </c>
       <c r="AK8" t="n">
-        <v>36.52670391475018</v>
+        <v>83.99843798499373</v>
       </c>
       <c r="AL8" t="n">
-        <v>37.94210207307724</v>
+        <v>42.5593756624483</v>
       </c>
       <c r="AM8" t="n">
-        <v>26.52609968723878</v>
+        <v>30.13953116678075</v>
       </c>
       <c r="AN8" t="n">
-        <v>36.86199999999999</v>
+        <v>35.51752517010488</v>
       </c>
       <c r="AO8" t="n">
-        <v>56.5045443153544</v>
+        <v>24.1350593012236</v>
       </c>
       <c r="AP8" t="n">
-        <v>22.36330512450368</v>
+        <v>15.63641397453405</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20.20445816834264</v>
+        <v>33.66669783472302</v>
       </c>
       <c r="AR8" t="n">
-        <v>25.34691920038222</v>
+        <v>13.62520842762718</v>
       </c>
       <c r="AS8" t="n">
-        <v>20.90350967130698</v>
+        <v>17.48989871323429</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.50738664515814</v>
+        <v>19.69472923358946</v>
       </c>
       <c r="AU8" t="n">
-        <v>16.73518576205965</v>
+        <v>13.74988441864795</v>
       </c>
       <c r="AV8" t="n">
-        <v>21.75201662723719</v>
+        <v>26.38502148227725</v>
       </c>
       <c r="AW8" t="n">
-        <v>21.48064124047156</v>
+        <v>15.66071198209887</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.44224958393027</v>
+        <v>17.40458000674364</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7806730926310559</v>
+        <v>9.99470747206782</v>
       </c>
       <c r="D9" t="n">
-        <v>1.733047911158937</v>
+        <v>16.36716234826755</v>
       </c>
       <c r="E9" t="n">
-        <v>1.18212452319725</v>
+        <v>5.475914603147829</v>
       </c>
       <c r="F9" t="n">
-        <v>3.157789506680109</v>
+        <v>0.779587524068078</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4083506670807235</v>
+        <v>1.162319467034058</v>
       </c>
       <c r="H9" t="n">
-        <v>4.121996009941364</v>
+        <v>9.369926485571806</v>
       </c>
       <c r="I9" t="n">
-        <v>2.475921101600298</v>
+        <v>7.519274517941166</v>
       </c>
       <c r="J9" t="n">
-        <v>5.262592489669444</v>
+        <v>0.06214973567452037</v>
       </c>
       <c r="K9" t="n">
-        <v>3.220144765752592</v>
+        <v>0.4001844483884522</v>
       </c>
       <c r="L9" t="n">
-        <v>3.090797944982766</v>
+        <v>6.465856978511686</v>
       </c>
       <c r="M9" t="n">
-        <v>2.217338090473975</v>
+        <v>3.316394651160443</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2172976247561</v>
+        <v>11.95412172922909</v>
       </c>
       <c r="O9" t="n">
-        <v>5.694326860633698</v>
+        <v>6.16462499912536</v>
       </c>
       <c r="P9" t="n">
-        <v>4.82032864267278</v>
+        <v>2.879245637529207</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.07920028569094</v>
+        <v>2.220880739516677</v>
       </c>
       <c r="R9" t="n">
-        <v>3.035649766493429</v>
+        <v>2.696343346441178</v>
       </c>
       <c r="S9" t="n">
-        <v>2.264920794304953</v>
+        <v>4.747498217841454</v>
       </c>
       <c r="T9" t="n">
-        <v>1.252474698522575</v>
+        <v>3.053725593048219</v>
       </c>
       <c r="U9" t="n">
-        <v>5.123510997317479</v>
+        <v>1.137753396343242</v>
       </c>
       <c r="V9" t="n">
-        <v>2.586338145983162</v>
+        <v>2.730489558103242</v>
       </c>
       <c r="W9" t="n">
-        <v>7.804885006032088</v>
+        <v>3.097855506553437</v>
       </c>
       <c r="X9" t="n">
-        <v>1.147385639070449</v>
+        <v>1.968049310486685</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.396460972831342</v>
+        <v>3.979324269996587</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.445506557977633</v>
+        <v>4.374496362870295</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.281121533062955</v>
+        <v>2.763950576457502</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.948784034099253</v>
+        <v>1.921558448967315</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.237842447957147</v>
+        <v>3.1725697709748</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.460397540327052</v>
+        <v>3.965653364049122</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.91425623047599</v>
+        <v>4.064338784046448</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.299286143869466</v>
+        <v>4.314069756334013</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.680056869374023</v>
+        <v>5.993655881967477</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.103560853390023</v>
+        <v>6.843322489400715</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.638977080012064</v>
+        <v>3.093443012215952</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.671269731490906</v>
+        <v>6.193351616122259</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.702809221215204</v>
+        <v>5.830613395770773</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.718148144509182</v>
+        <v>3.925601459676538</v>
       </c>
       <c r="AM9" t="n">
-        <v>10.71712924733791</v>
+        <v>21.25285739457983</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.299010283767132</v>
+        <v>7.223986217523224</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.866181818181818</v>
+        <v>7.172268697038277</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.098854825348214</v>
+        <v>5.437706647735743</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.338850253976279</v>
+        <v>7.07622490641778</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.892318132013503</v>
+        <v>1.649862628369667</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.849218199726427</v>
+        <v>2.724863175719068</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.417491744540367</v>
+        <v>9.21779398400256</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.831650135644518</v>
+        <v>2.545955351974764</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.900309098837158</v>
+        <v>1.768739962424826</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.210630149822202</v>
+        <v>3.11114874885089</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.740584953396156</v>
+        <v>2.101127247870952</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>20.64905164682586</v>
+        <v>14.19414697508676</v>
       </c>
       <c r="D10" t="n">
-        <v>8.691988742635022</v>
+        <v>23.67702156830281</v>
       </c>
       <c r="E10" t="n">
-        <v>11.62432937106754</v>
+        <v>14.31990565645776</v>
       </c>
       <c r="F10" t="n">
-        <v>9.56096770684208</v>
+        <v>31.07661690548008</v>
       </c>
       <c r="G10" t="n">
-        <v>33.07038472356247</v>
+        <v>8.778962682914241</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9992778540684</v>
+        <v>24.73209510175148</v>
       </c>
       <c r="I10" t="n">
-        <v>39.98310906657591</v>
+        <v>14.96000702161142</v>
       </c>
       <c r="J10" t="n">
-        <v>127.1498756686104</v>
+        <v>31.85054479561934</v>
       </c>
       <c r="K10" t="n">
-        <v>15.21367149340291</v>
+        <v>70.29011325272977</v>
       </c>
       <c r="L10" t="n">
-        <v>32.08682162474356</v>
+        <v>36.86836583216876</v>
       </c>
       <c r="M10" t="n">
-        <v>101.8643723348289</v>
+        <v>84.74725715333889</v>
       </c>
       <c r="N10" t="n">
-        <v>19.08402352520015</v>
+        <v>95.28847344370207</v>
       </c>
       <c r="O10" t="n">
-        <v>60.20528060349451</v>
+        <v>64.85149469965327</v>
       </c>
       <c r="P10" t="n">
-        <v>45.63259204094938</v>
+        <v>146.52514894374</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.32990665287259</v>
+        <v>102.9426927713912</v>
       </c>
       <c r="R10" t="n">
-        <v>79.04898434599896</v>
+        <v>24.29058990933926</v>
       </c>
       <c r="S10" t="n">
-        <v>39.61006865188904</v>
+        <v>19.75827916727981</v>
       </c>
       <c r="T10" t="n">
-        <v>70.00731090000001</v>
+        <v>136.9922621704397</v>
       </c>
       <c r="U10" t="n">
-        <v>47.99565550520106</v>
+        <v>54.58049157603538</v>
       </c>
       <c r="V10" t="n">
-        <v>57.51734690464966</v>
+        <v>65.34685619438396</v>
       </c>
       <c r="W10" t="n">
-        <v>43.98226946533521</v>
+        <v>84.85410717218979</v>
       </c>
       <c r="X10" t="n">
-        <v>47.68244398567112</v>
+        <v>60.52104349792928</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.55267119827517</v>
+        <v>36.87375684101708</v>
       </c>
       <c r="Z10" t="n">
-        <v>54.94766600666165</v>
+        <v>63.80702437295744</v>
       </c>
       <c r="AA10" t="n">
-        <v>57.52422237637498</v>
+        <v>78.68890670032376</v>
       </c>
       <c r="AB10" t="n">
-        <v>67.0982440829663</v>
+        <v>47.50575647851689</v>
       </c>
       <c r="AC10" t="n">
-        <v>122.6422263371373</v>
+        <v>38.44023632205406</v>
       </c>
       <c r="AD10" t="n">
-        <v>85.29636046152321</v>
+        <v>51.57153139645312</v>
       </c>
       <c r="AE10" t="n">
-        <v>54.67006037177788</v>
+        <v>147.7940742250456</v>
       </c>
       <c r="AF10" t="n">
-        <v>97.4631592709777</v>
+        <v>81.5055721659858</v>
       </c>
       <c r="AG10" t="n">
-        <v>82.31994723011337</v>
+        <v>82.48799807896906</v>
       </c>
       <c r="AH10" t="n">
-        <v>41.39188494148718</v>
+        <v>39.88101508398807</v>
       </c>
       <c r="AI10" t="n">
-        <v>44.70734455263351</v>
+        <v>65.34208850409576</v>
       </c>
       <c r="AJ10" t="n">
-        <v>31.62388541381859</v>
+        <v>36.94280970982046</v>
       </c>
       <c r="AK10" t="n">
-        <v>75.50940348583472</v>
+        <v>18.98354298400744</v>
       </c>
       <c r="AL10" t="n">
-        <v>33.42018368574917</v>
+        <v>17.50166193528957</v>
       </c>
       <c r="AM10" t="n">
-        <v>34.80860838893734</v>
+        <v>20.02728407887347</v>
       </c>
       <c r="AN10" t="n">
-        <v>38.28261723109263</v>
+        <v>47.23190214494958</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.70064217574019</v>
+        <v>15.24917458997187</v>
       </c>
       <c r="AP10" t="n">
-        <v>8.219643518207087</v>
+        <v>18.23881724446819</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9.523420926085704</v>
+        <v>24.61680104758732</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.10091799896854</v>
+        <v>20.79883921099858</v>
       </c>
       <c r="AS10" t="n">
-        <v>13.1249082815735</v>
+        <v>9.337056092969371</v>
       </c>
       <c r="AT10" t="n">
-        <v>10.8140748730672</v>
+        <v>19.07299471046123</v>
       </c>
       <c r="AU10" t="n">
-        <v>14.60390051103989</v>
+        <v>12.08255271837237</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.87545082636502</v>
+        <v>8.781727436604875</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.447001143294781</v>
+        <v>17.96550869812031</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.34558242428865</v>
+        <v>12.81487648464982</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>14.99237939626155</v>
+        <v>34.68067749318053</v>
       </c>
       <c r="D11" t="n">
-        <v>15.85766421024038</v>
+        <v>37.81230541524661</v>
       </c>
       <c r="E11" t="n">
-        <v>10.38425388559824</v>
+        <v>12.62509057570979</v>
       </c>
       <c r="F11" t="n">
-        <v>22.68922032511036</v>
+        <v>16.24436986030577</v>
       </c>
       <c r="G11" t="n">
-        <v>15.91703871921058</v>
+        <v>19.40952765650889</v>
       </c>
       <c r="H11" t="n">
-        <v>15.5362693330775</v>
+        <v>10.83938463714343</v>
       </c>
       <c r="I11" t="n">
-        <v>34.65469839160359</v>
+        <v>32.41416790386796</v>
       </c>
       <c r="J11" t="n">
-        <v>26.50874217826016</v>
+        <v>89.46113475776573</v>
       </c>
       <c r="K11" t="n">
-        <v>15.56646966008948</v>
+        <v>14.80164887160027</v>
       </c>
       <c r="L11" t="n">
-        <v>86.24584048049969</v>
+        <v>19.0468702408202</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.608043284121677</v>
       </c>
       <c r="N11" t="n">
-        <v>3.405511761228489</v>
+        <v>59.01768363794773</v>
       </c>
       <c r="O11" t="n">
-        <v>160.3638598555828</v>
+        <v>11.0936622247006</v>
       </c>
       <c r="P11" t="n">
-        <v>36.18456057496433</v>
+        <v>46.64969467515851</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.05315317836596</v>
+        <v>80.79177038910652</v>
       </c>
       <c r="R11" t="n">
-        <v>17.26720541097422</v>
+        <v>257.225124656064</v>
       </c>
       <c r="S11" t="n">
-        <v>32.12449017636673</v>
+        <v>57.15643927159125</v>
       </c>
       <c r="T11" t="n">
-        <v>52.35293320151482</v>
+        <v>42.42554755596108</v>
       </c>
       <c r="U11" t="n">
-        <v>92.94823001991787</v>
+        <v>23.54625878873015</v>
       </c>
       <c r="V11" t="n">
-        <v>28.81018491319159</v>
+        <v>114.3259791729683</v>
       </c>
       <c r="W11" t="n">
-        <v>60.50550085456418</v>
+        <v>24.5753105049655</v>
       </c>
       <c r="X11" t="n">
-        <v>42.92063024360945</v>
+        <v>176.0758772613281</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.51194896618198</v>
+        <v>28.87162791106203</v>
       </c>
       <c r="Z11" t="n">
-        <v>36.61854338780558</v>
+        <v>16.39546596420239</v>
       </c>
       <c r="AA11" t="n">
-        <v>45.05575338891903</v>
+        <v>57.66613457501027</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.17648612475866</v>
+        <v>24.99710173529482</v>
       </c>
       <c r="AC11" t="n">
-        <v>33.11119963316996</v>
+        <v>25.55883916121162</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.84028428816124</v>
+        <v>16.71866880399953</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.16784489254639</v>
+        <v>18.82431722232695</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.929473897655377</v>
+        <v>10.37347643089272</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>7.472637814713777</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.8853901946651</v>
+        <v>21.93494123185143</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.96670608502888</v>
+        <v>24.8111343648951</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24.59550763111941</v>
+        <v>39.27651425941816</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>13.92908549260444</v>
       </c>
       <c r="AL11" t="n">
-        <v>38.3205801567693</v>
+        <v>50.06232692429484</v>
       </c>
       <c r="AM11" t="n">
-        <v>7.124886490578378</v>
+        <v>5.893278832775689</v>
       </c>
       <c r="AN11" t="n">
-        <v>26.73162799490159</v>
+        <v>20.98796312785891</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.90896615243436</v>
+        <v>30.39509266594672</v>
       </c>
       <c r="AP11" t="n">
-        <v>46.06256971000364</v>
+        <v>39.97289572762481</v>
       </c>
       <c r="AQ11" t="n">
-        <v>30.98935323414176</v>
+        <v>8.792200208024946</v>
       </c>
       <c r="AR11" t="n">
-        <v>31.83249482693018</v>
+        <v>60.25153058171638</v>
       </c>
       <c r="AS11" t="n">
-        <v>5.941135263926229</v>
+        <v>8.818724467752958</v>
       </c>
       <c r="AT11" t="n">
-        <v>29.93033880511908</v>
+        <v>75.87634425571366</v>
       </c>
       <c r="AU11" t="n">
-        <v>34.26220657508238</v>
+        <v>8.419744015160695</v>
       </c>
       <c r="AV11" t="n">
-        <v>19.60942080468404</v>
+        <v>3.288348343457876</v>
       </c>
       <c r="AW11" t="n">
-        <v>35.3657148531569</v>
+        <v>47.15964203307917</v>
       </c>
       <c r="AX11" t="n">
-        <v>26.29870191924638</v>
+        <v>3.819103286777136</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9913763310104181</v>
+        <v>2.418721167890279</v>
       </c>
       <c r="D12" t="n">
-        <v>2.315135263165778</v>
+        <v>4.513428410100364</v>
       </c>
       <c r="E12" t="n">
-        <v>3.953571428571428</v>
+        <v>3.343652095821213</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207154949882882</v>
+        <v>3.758991594770786</v>
       </c>
       <c r="G12" t="n">
-        <v>5.987907638068124</v>
+        <v>2.494680589858036</v>
       </c>
       <c r="H12" t="n">
-        <v>3.82059944458059</v>
+        <v>10.24135214604851</v>
       </c>
       <c r="I12" t="n">
-        <v>48.08331068827936</v>
+        <v>2.405257555078179</v>
       </c>
       <c r="J12" t="n">
-        <v>19.5199789828312</v>
+        <v>83.85602199560076</v>
       </c>
       <c r="K12" t="n">
-        <v>61.73830583832513</v>
+        <v>14.89488779263604</v>
       </c>
       <c r="L12" t="n">
-        <v>16.6515426</v>
+        <v>100.9557838681083</v>
       </c>
       <c r="M12" t="n">
-        <v>20.88827665600845</v>
+        <v>53.14979605216947</v>
       </c>
       <c r="N12" t="n">
-        <v>9.11408913843246</v>
+        <v>44.35687402128013</v>
       </c>
       <c r="O12" t="n">
-        <v>65.21785557575431</v>
+        <v>21.29847121965991</v>
       </c>
       <c r="P12" t="n">
-        <v>12.79452084619357</v>
+        <v>8.622835356398596</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.5268902186955</v>
+        <v>13.05294491034928</v>
       </c>
       <c r="R12" t="n">
-        <v>26.07839610318297</v>
+        <v>31.89241602791405</v>
       </c>
       <c r="S12" t="n">
-        <v>28.3301436366003</v>
+        <v>9.415622350480591</v>
       </c>
       <c r="T12" t="n">
-        <v>42.25508041176957</v>
+        <v>19.51790038603568</v>
       </c>
       <c r="U12" t="n">
-        <v>10.441125</v>
+        <v>21.13235282630675</v>
       </c>
       <c r="V12" t="n">
-        <v>9.399288814010019</v>
+        <v>66.79440955249363</v>
       </c>
       <c r="W12" t="n">
-        <v>24.12353290219088</v>
+        <v>16.00527118150207</v>
       </c>
       <c r="X12" t="n">
-        <v>9.613331254449777</v>
+        <v>21.48322235236004</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.74826566762033</v>
+        <v>49.01064169322215</v>
       </c>
       <c r="Z12" t="n">
-        <v>37.86199858273573</v>
+        <v>8.990812524901798</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.08581278843451</v>
+        <v>16.11253735694839</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.61753009481441</v>
+        <v>20.04038598297358</v>
       </c>
       <c r="AC12" t="n">
-        <v>23.66388484748139</v>
+        <v>7.721643117866387</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.75164087332853</v>
+        <v>32.80071471867381</v>
       </c>
       <c r="AE12" t="n">
-        <v>38.37872274301418</v>
+        <v>11.95726809676203</v>
       </c>
       <c r="AF12" t="n">
-        <v>31.42037901185239</v>
+        <v>14.25932072004377</v>
       </c>
       <c r="AG12" t="n">
-        <v>30.32316455623264</v>
+        <v>10.37157995356408</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.383953778398125</v>
+        <v>4.563134639742088</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.832781279305113</v>
+        <v>9.732425312695677</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.89521946822154</v>
+        <v>6.158372125102574</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.636226268074812</v>
+        <v>8.529050500791209</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.624178428137537</v>
+        <v>7.849788320722567</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.278537142857143</v>
+        <v>3.54278617520393</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.052164748508582</v>
+        <v>2.866383677519939</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.393545627905665</v>
+        <v>1.820290939753255</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.734622725</v>
+        <v>2.129156726291532</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.630025798947289</v>
+        <v>2.234278862734653</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.716900710686439</v>
+        <v>14.02027438678932</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.548556521410173</v>
+        <v>2.214207790834117</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.431513079156453</v>
+        <v>7.108114746824814</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.11091270785083</v>
+        <v>11.03982874473185</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.169544429205383</v>
+        <v>5.190612039421439</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.327646703531906</v>
+        <v>0.5071588747357313</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.046118111198306</v>
+        <v>3.725146742020396</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9</v>
+        <v>79.77322494454035</v>
       </c>
       <c r="D13" t="n">
-        <v>11.32</v>
+        <v>4.494678207260701</v>
       </c>
       <c r="E13" t="n">
-        <v>12.07</v>
+        <v>26.34418720335216</v>
       </c>
       <c r="F13" t="n">
-        <v>14.18</v>
+        <v>11.38542642002088</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>25.9742450318869</v>
       </c>
       <c r="H13" t="n">
-        <v>29.95</v>
+        <v>6.977925350629461</v>
       </c>
       <c r="I13" t="n">
-        <v>29.95</v>
+        <v>16.10663779182807</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>38.94373286612871</v>
       </c>
       <c r="K13" t="n">
-        <v>60.82890737323049</v>
+        <v>83.185054574517</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2</v>
+        <v>25.40448879278348</v>
       </c>
       <c r="M13" t="n">
-        <v>5.2</v>
+        <v>25.83263659781384</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>33.02112287492847</v>
       </c>
       <c r="O13" t="n">
-        <v>3.121187208249147</v>
+        <v>96.56387374312354</v>
       </c>
       <c r="P13" t="n">
-        <v>24.35</v>
+        <v>19.14971178129626</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.94</v>
+        <v>55.808206521301</v>
       </c>
       <c r="R13" t="n">
-        <v>51.06</v>
+        <v>3.981712586603326</v>
       </c>
       <c r="S13" t="n">
-        <v>7.738136715274744</v>
+        <v>73.45705652806926</v>
       </c>
       <c r="T13" t="n">
-        <v>53.45</v>
+        <v>41.13747938969249</v>
       </c>
       <c r="U13" t="n">
-        <v>58.87</v>
+        <v>102.4514447783326</v>
       </c>
       <c r="V13" t="n">
-        <v>17.35</v>
+        <v>11.94273708622313</v>
       </c>
       <c r="W13" t="n">
-        <v>67.40000000000001</v>
+        <v>34.30436973543197</v>
       </c>
       <c r="X13" t="n">
-        <v>35.2</v>
+        <v>6.05049608955312</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.63</v>
+        <v>30.17818549538013</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.714151450000006</v>
+        <v>13.17026750854049</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>12.34062110080065</v>
       </c>
       <c r="AB13" t="n">
-        <v>38.64375</v>
+        <v>18.28720850472991</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>3.502311042502319</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.04</v>
+        <v>12.63922110966505</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.051488228571429</v>
+        <v>2.99752755900065</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.62</v>
+        <v>4.859460613551084</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.21</v>
+        <v>5.468340153857562</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.369999999999999</v>
+        <v>4.060358369359458</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>6.4618019912115</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.27</v>
+        <v>5.399523178540877</v>
       </c>
       <c r="AK13" t="n">
-        <v>13.05</v>
+        <v>10.56027770984166</v>
       </c>
       <c r="AL13" t="n">
-        <v>15.74</v>
+        <v>2.380767616731515</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.85</v>
+        <v>4.353905132457465</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.62</v>
+        <v>3.910298630596055</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.58</v>
+        <v>4.179275624842404</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.43</v>
+        <v>1.521235859305285</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>5.223677685978349</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.13</v>
+        <v>8.253070470382193</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.53</v>
+        <v>16.0806113119634</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.796865257142858</v>
+        <v>5.346481630596251</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.65</v>
+        <v>1.995812338550985</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.820123212942061</v>
+        <v>1.084486710312251</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.52</v>
+        <v>8.952781998868987</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.52</v>
+        <v>7.162883323754349</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>14.99899264995137</v>
+        <v>19.21099434543341</v>
       </c>
       <c r="D14" t="n">
-        <v>16.93620242028238</v>
+        <v>15.98044590144253</v>
       </c>
       <c r="E14" t="n">
-        <v>15.26992833883938</v>
+        <v>20.45961306073787</v>
       </c>
       <c r="F14" t="n">
-        <v>43.01852736641651</v>
+        <v>11.25578519001666</v>
       </c>
       <c r="G14" t="n">
-        <v>112.4862875255553</v>
+        <v>43.31520537447228</v>
       </c>
       <c r="H14" t="n">
-        <v>20.72782085480565</v>
+        <v>17.34819481596769</v>
       </c>
       <c r="I14" t="n">
-        <v>81.35100511467041</v>
+        <v>37.46782395702468</v>
       </c>
       <c r="J14" t="n">
-        <v>22.52186144174598</v>
+        <v>75.11693507116361</v>
       </c>
       <c r="K14" t="n">
-        <v>105.7935000741623</v>
+        <v>105.4989449576913</v>
       </c>
       <c r="L14" t="n">
-        <v>48.02246850912512</v>
+        <v>84.37307851519785</v>
       </c>
       <c r="M14" t="n">
-        <v>81.23687853423823</v>
+        <v>76.09850944477967</v>
       </c>
       <c r="N14" t="n">
-        <v>237.5474013449129</v>
+        <v>74.6667799778337</v>
       </c>
       <c r="O14" t="n">
-        <v>42.39787304688231</v>
+        <v>94.31489076200801</v>
       </c>
       <c r="P14" t="n">
-        <v>38.70509575589104</v>
+        <v>42.62580772634597</v>
       </c>
       <c r="Q14" t="n">
-        <v>142.2721265863246</v>
+        <v>101.857294820756</v>
       </c>
       <c r="R14" t="n">
-        <v>38.64921067717739</v>
+        <v>75.76918720011113</v>
       </c>
       <c r="S14" t="n">
-        <v>43.84619498499794</v>
+        <v>18.32145298075437</v>
       </c>
       <c r="T14" t="n">
-        <v>43.47082399293194</v>
+        <v>18.6545602934576</v>
       </c>
       <c r="U14" t="n">
-        <v>41.31453830488172</v>
+        <v>42.67000460718349</v>
       </c>
       <c r="V14" t="n">
-        <v>54.33764925132299</v>
+        <v>77.60151985859461</v>
       </c>
       <c r="W14" t="n">
-        <v>87.5675199177789</v>
+        <v>102.2931652815269</v>
       </c>
       <c r="X14" t="n">
-        <v>63.8589671021864</v>
+        <v>48.78059068122324</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.68519657193191</v>
+        <v>68.40889430390057</v>
       </c>
       <c r="Z14" t="n">
-        <v>73.4861186801617</v>
+        <v>70.63913203137011</v>
       </c>
       <c r="AA14" t="n">
-        <v>63.15134015511184</v>
+        <v>76.7510749106831</v>
       </c>
       <c r="AB14" t="n">
-        <v>77.55211751484816</v>
+        <v>133.3632148120289</v>
       </c>
       <c r="AC14" t="n">
-        <v>107.4351257569969</v>
+        <v>91.72867583116444</v>
       </c>
       <c r="AD14" t="n">
-        <v>101.8910674558143</v>
+        <v>150.9794116984191</v>
       </c>
       <c r="AE14" t="n">
-        <v>149.3908833014175</v>
+        <v>84.63740837481718</v>
       </c>
       <c r="AF14" t="n">
-        <v>164.7725292557918</v>
+        <v>98.54372398325312</v>
       </c>
       <c r="AG14" t="n">
-        <v>24.85414076513671</v>
+        <v>132.8444177782919</v>
       </c>
       <c r="AH14" t="n">
-        <v>116.2862530257087</v>
+        <v>86.54481943819904</v>
       </c>
       <c r="AI14" t="n">
-        <v>128.6710213983123</v>
+        <v>57.08058797934618</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22.26320135033827</v>
+        <v>34.49768890471286</v>
       </c>
       <c r="AK14" t="n">
-        <v>92.059350390406</v>
+        <v>34.42377034195913</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.1131875</v>
+        <v>112.7252016384551</v>
       </c>
       <c r="AM14" t="n">
-        <v>45.72811824296239</v>
+        <v>39.67957725180951</v>
       </c>
       <c r="AN14" t="n">
-        <v>68.47329454955106</v>
+        <v>38.27225419725731</v>
       </c>
       <c r="AO14" t="n">
-        <v>26.97459326685404</v>
+        <v>44.23295954767273</v>
       </c>
       <c r="AP14" t="n">
-        <v>34.55071645601984</v>
+        <v>23.78471122242746</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24.23812199027173</v>
+        <v>37.07633202038015</v>
       </c>
       <c r="AR14" t="n">
-        <v>33.31457870332755</v>
+        <v>20.05503634157542</v>
       </c>
       <c r="AS14" t="n">
-        <v>23.27692866308923</v>
+        <v>20.53677209554341</v>
       </c>
       <c r="AT14" t="n">
-        <v>28.92167253773035</v>
+        <v>20.79408548533409</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.65725714285714</v>
+        <v>18.61260885158577</v>
       </c>
       <c r="AV14" t="n">
-        <v>26.3237587476936</v>
+        <v>15.4220340275773</v>
       </c>
       <c r="AW14" t="n">
-        <v>29.25463712884692</v>
+        <v>8.48245910638286</v>
       </c>
       <c r="AX14" t="n">
-        <v>13.58828168659173</v>
+        <v>32.25178297064972</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.642687747035573</v>
+        <v>1.610890814914403</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8828675302601182</v>
+        <v>0.6298489497394593</v>
       </c>
       <c r="E15" t="n">
-        <v>5.143777497036566</v>
+        <v>2.077110232378613</v>
       </c>
       <c r="F15" t="n">
-        <v>2.824873096446701</v>
+        <v>1.031262869731558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001</v>
+        <v>1.558389651588157</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4738716462860859</v>
+        <v>0.6975889451048366</v>
       </c>
       <c r="I15" t="n">
-        <v>2.379562193928106</v>
+        <v>2.590749004117399</v>
       </c>
       <c r="J15" t="n">
-        <v>2.164552892597813</v>
+        <v>9.705436642967518</v>
       </c>
       <c r="K15" t="n">
-        <v>3.888283164499752</v>
+        <v>1.874532085209079</v>
       </c>
       <c r="L15" t="n">
-        <v>1.239930370595498</v>
+        <v>2.266296143282843</v>
       </c>
       <c r="M15" t="n">
-        <v>1.339888977002379</v>
+        <v>2.545687655643774</v>
       </c>
       <c r="N15" t="n">
-        <v>4.657914641854297</v>
+        <v>2.562706349799203</v>
       </c>
       <c r="O15" t="n">
-        <v>5.953029833277117</v>
+        <v>7.720065882049114</v>
       </c>
       <c r="P15" t="n">
-        <v>1.216272186271896</v>
+        <v>3.728712424623843</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.884298481435734</v>
+        <v>3.651720739749822</v>
       </c>
       <c r="R15" t="n">
-        <v>1.232596147845855</v>
+        <v>6.168440899523402</v>
       </c>
       <c r="S15" t="n">
-        <v>3.752959999999999</v>
+        <v>5.996235556067442</v>
       </c>
       <c r="T15" t="n">
-        <v>8.111353294280191</v>
+        <v>4.545589465212188</v>
       </c>
       <c r="U15" t="n">
-        <v>10.9055151939359</v>
+        <v>2.972130117954423</v>
       </c>
       <c r="V15" t="n">
-        <v>4.572243225547553</v>
+        <v>2.828334163530705</v>
       </c>
       <c r="W15" t="n">
-        <v>2.421452887485725</v>
+        <v>2.02834041159375</v>
       </c>
       <c r="X15" t="n">
-        <v>2.399055895155994</v>
+        <v>6.745897206124984</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.470154347255064</v>
+        <v>3.969070183864506</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.769441627929996</v>
+        <v>3.261385974163181</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.604870595567194</v>
+        <v>7.090455229240163</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.359916634155473</v>
+        <v>2.201128383509055</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.090475011128595</v>
+        <v>5.244295823360495</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.331005891819218</v>
+        <v>6.125718172227346</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.165779389408102</v>
+        <v>6.651658090626694</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.668413508043375</v>
+        <v>4.472220132219345</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.866547676784469</v>
+        <v>8.41734029928906</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.341364172695628</v>
+        <v>6.522821401309905</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.935671556519542</v>
+        <v>6.868315320409526</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.741646223308291</v>
+        <v>4.145779998685347</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.364686749810931</v>
+        <v>5.156865438438296</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.756778580535487</v>
+        <v>2.16754884016602</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.219333143390298</v>
+        <v>5.500286765687354</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.744254473769151</v>
+        <v>2.751872425173413</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.684638116897418</v>
+        <v>4.561930000955412</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.314390304425201</v>
+        <v>6.503723102561413</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.489255384404967</v>
+        <v>31.78572353784797</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.097420838072301</v>
+        <v>6.002409088770006</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.135071707953064</v>
+        <v>2.33979197130144</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.358044961650402</v>
+        <v>2.003460564998135</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.599020615091508</v>
+        <v>40.69822447638088</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.797516891978597</v>
+        <v>0.5851726150270122</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.02217479197028</v>
+        <v>32.59692274596758</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.694607179066692</v>
+        <v>0.4535632239935568</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.28511124300349</v>
+        <v>7.324628789851474</v>
       </c>
       <c r="D16" t="n">
-        <v>8.726403840755767</v>
+        <v>34.49203880033946</v>
       </c>
       <c r="E16" t="n">
-        <v>12.36281890113141</v>
+        <v>6.547020229229526</v>
       </c>
       <c r="F16" t="n">
-        <v>9.094691317643733</v>
+        <v>25.82661578215936</v>
       </c>
       <c r="G16" t="n">
-        <v>13.15177399241581</v>
+        <v>58.37916520453867</v>
       </c>
       <c r="H16" t="n">
-        <v>25.13296968966107</v>
+        <v>30.21047990527045</v>
       </c>
       <c r="I16" t="n">
-        <v>9.893327263863668</v>
+        <v>9.049859658559292</v>
       </c>
       <c r="J16" t="n">
-        <v>72.73113462834925</v>
+        <v>64.52281335387445</v>
       </c>
       <c r="K16" t="n">
-        <v>11.19488537766006</v>
+        <v>7.122656536697283</v>
       </c>
       <c r="L16" t="n">
-        <v>15.83443394950532</v>
+        <v>215.1860828837221</v>
       </c>
       <c r="M16" t="n">
-        <v>27.42877717305158</v>
+        <v>48.18329777226998</v>
       </c>
       <c r="N16" t="n">
-        <v>89.04300329164101</v>
+        <v>58.62300754993284</v>
       </c>
       <c r="O16" t="n">
-        <v>37.00012856903768</v>
+        <v>52.4963963118831</v>
       </c>
       <c r="P16" t="n">
-        <v>31.16986827213991</v>
+        <v>83.63036970981082</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.8437237762238</v>
+        <v>25.45527242927663</v>
       </c>
       <c r="R16" t="n">
-        <v>99.7101087588353</v>
+        <v>115.8489976656782</v>
       </c>
       <c r="S16" t="n">
-        <v>36.4850684208032</v>
+        <v>42.32390238537754</v>
       </c>
       <c r="T16" t="n">
-        <v>42.14743067142586</v>
+        <v>48.57669510115808</v>
       </c>
       <c r="U16" t="n">
-        <v>70.2357352440922</v>
+        <v>26.97929745903562</v>
       </c>
       <c r="V16" t="n">
-        <v>68.02454565851468</v>
+        <v>51.08913558844566</v>
       </c>
       <c r="W16" t="n">
-        <v>118.7557736373997</v>
+        <v>77.21356837705649</v>
       </c>
       <c r="X16" t="n">
-        <v>51.02844772050742</v>
+        <v>111.988243674495</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.12355014216806</v>
+        <v>68.06025064531158</v>
       </c>
       <c r="Z16" t="n">
-        <v>81.6918508896879</v>
+        <v>63.14859146111122</v>
       </c>
       <c r="AA16" t="n">
-        <v>50.71386489269258</v>
+        <v>63.23069345998089</v>
       </c>
       <c r="AB16" t="n">
-        <v>67.97116393995763</v>
+        <v>71.84987263598227</v>
       </c>
       <c r="AC16" t="n">
-        <v>56.37011177458788</v>
+        <v>46.85256572740651</v>
       </c>
       <c r="AD16" t="n">
-        <v>82.97059967727189</v>
+        <v>50.30675643082127</v>
       </c>
       <c r="AE16" t="n">
-        <v>76.18367163435353</v>
+        <v>74.03271219997383</v>
       </c>
       <c r="AF16" t="n">
-        <v>69.4269703323518</v>
+        <v>31.97619369089067</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.91974610498153</v>
+        <v>38.48941057984845</v>
       </c>
       <c r="AH16" t="n">
-        <v>44.23154311225176</v>
+        <v>28.90103429070012</v>
       </c>
       <c r="AI16" t="n">
-        <v>48.18061365997735</v>
+        <v>50.53035374395625</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48.01449552845146</v>
+        <v>47.70524836454728</v>
       </c>
       <c r="AK16" t="n">
-        <v>80.79447421437089</v>
+        <v>23.62335743476899</v>
       </c>
       <c r="AL16" t="n">
-        <v>21.71763213889712</v>
+        <v>27.42469100656056</v>
       </c>
       <c r="AM16" t="n">
-        <v>29.46978159571433</v>
+        <v>46.66127203625611</v>
       </c>
       <c r="AN16" t="n">
-        <v>21.8797537105981</v>
+        <v>12.40554638976836</v>
       </c>
       <c r="AO16" t="n">
-        <v>15.30141106326599</v>
+        <v>4.936512052996854</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.13409832947665</v>
+        <v>19.29481687043507</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12.31413650912616</v>
+        <v>19.57226415761118</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.725591205973407</v>
+        <v>31.69914574260995</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.83725264169068</v>
+        <v>17.53893179648959</v>
       </c>
       <c r="AT16" t="n">
-        <v>12.04528766045549</v>
+        <v>7.287578986725215</v>
       </c>
       <c r="AU16" t="n">
-        <v>13.98484049146921</v>
+        <v>25.04248861783265</v>
       </c>
       <c r="AV16" t="n">
-        <v>12.62224458414525</v>
+        <v>10.47956542794403</v>
       </c>
       <c r="AW16" t="n">
-        <v>11.12818672302902</v>
+        <v>13.65522718356226</v>
       </c>
       <c r="AX16" t="n">
-        <v>11.37734692511125</v>
+        <v>10.48478555422878</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>17.24601731908698</v>
       </c>
       <c r="D17" t="n">
-        <v>10.16943040143417</v>
+        <v>27.30668566509729</v>
       </c>
       <c r="E17" t="n">
-        <v>16.17589191401854</v>
+        <v>14.42019915779938</v>
       </c>
       <c r="F17" t="n">
-        <v>38.00048157771893</v>
+        <v>4.956278169899594</v>
       </c>
       <c r="G17" t="n">
-        <v>2.378992763516445</v>
+        <v>7.740414924147772</v>
       </c>
       <c r="H17" t="n">
-        <v>23.83511820193634</v>
+        <v>72.04280965844997</v>
       </c>
       <c r="I17" t="n">
-        <v>17.50596507210155</v>
+        <v>5.63656289875666</v>
       </c>
       <c r="J17" t="n">
-        <v>146.7966612230682</v>
+        <v>36.84791881702935</v>
       </c>
       <c r="K17" t="n">
-        <v>81.10464948649158</v>
+        <v>3.381143703122686</v>
       </c>
       <c r="L17" t="n">
-        <v>55.03401450962363</v>
+        <v>22.74566698168224</v>
       </c>
       <c r="M17" t="n">
-        <v>38.7335857283722</v>
+        <v>66.71264464119415</v>
       </c>
       <c r="N17" t="n">
-        <v>49.49599112515518</v>
+        <v>26.83298981009313</v>
       </c>
       <c r="O17" t="n">
-        <v>179.1372182556523</v>
+        <v>27.10763002372844</v>
       </c>
       <c r="P17" t="n">
-        <v>36.18456057496433</v>
+        <v>32.38433036013046</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.06316039845766</v>
+        <v>31.63620711404716</v>
       </c>
       <c r="R17" t="n">
-        <v>10.44391207770066</v>
+        <v>4.804359982794872</v>
       </c>
       <c r="S17" t="n">
-        <v>48.12969992989484</v>
+        <v>57.12798160500473</v>
       </c>
       <c r="T17" t="n">
-        <v>33.77211873000567</v>
+        <v>37.3931268720419</v>
       </c>
       <c r="U17" t="n">
-        <v>20.16807487163968</v>
+        <v>74.92298514452871</v>
       </c>
       <c r="V17" t="n">
-        <v>95.89491874999993</v>
+        <v>37.31291824703262</v>
       </c>
       <c r="W17" t="n">
-        <v>48.13624475155261</v>
+        <v>48.59406332462916</v>
       </c>
       <c r="X17" t="n">
-        <v>144.8042472855522</v>
+        <v>33.78247299237619</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.6932174003815</v>
+        <v>95.9372296430699</v>
       </c>
       <c r="Z17" t="n">
-        <v>125.8509354395503</v>
+        <v>13.82432556812947</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.10483971428569</v>
+        <v>35.38761767358248</v>
       </c>
       <c r="AB17" t="n">
-        <v>50.61824238978009</v>
+        <v>81.24148688708276</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>22.67183947605032</v>
       </c>
       <c r="AD17" t="n">
-        <v>111.1021680485949</v>
+        <v>90.54758393530683</v>
       </c>
       <c r="AE17" t="n">
-        <v>69.41741275496764</v>
+        <v>141.317193540322</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.18705234500246</v>
+        <v>90.64625198180742</v>
       </c>
       <c r="AG17" t="n">
-        <v>46.63471870669922</v>
+        <v>17.8632383605767</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.66739505602644</v>
+        <v>12.85884142491054</v>
       </c>
       <c r="AI17" t="n">
-        <v>59.5987313788586</v>
+        <v>31.62421960898484</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24.59550763111941</v>
+        <v>6.56293866474163</v>
       </c>
       <c r="AK17" t="n">
-        <v>11.59420651889152</v>
+        <v>28.59236187388851</v>
       </c>
       <c r="AL17" t="n">
-        <v>32.0148105730553</v>
+        <v>35.09803475684421</v>
       </c>
       <c r="AM17" t="n">
-        <v>21.63680353296658</v>
+        <v>10.8853858107509</v>
       </c>
       <c r="AN17" t="n">
-        <v>22.23437392958552</v>
+        <v>13.79175567458694</v>
       </c>
       <c r="AO17" t="n">
-        <v>30.28306764996595</v>
+        <v>23.02041842228548</v>
       </c>
       <c r="AP17" t="n">
-        <v>30.26810904328883</v>
+        <v>19.87293459598783</v>
       </c>
       <c r="AQ17" t="n">
-        <v>38.82116596136864</v>
+        <v>16.04387668366259</v>
       </c>
       <c r="AR17" t="n">
-        <v>27.72970992845519</v>
+        <v>7.050615838762736</v>
       </c>
       <c r="AS17" t="n">
-        <v>25.4817182808437</v>
+        <v>23.09924261826348</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.200047212860041</v>
+        <v>4.117820701790549</v>
       </c>
       <c r="AU17" t="n">
-        <v>18.34399184753836</v>
+        <v>13.8387969855188</v>
       </c>
       <c r="AV17" t="n">
-        <v>2.193156953975894</v>
+        <v>26.8872241907936</v>
       </c>
       <c r="AW17" t="n">
-        <v>31.17564467136161</v>
+        <v>28.89219150357383</v>
       </c>
       <c r="AX17" t="n">
-        <v>28.71957295453763</v>
+        <v>15.87709271333494</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.558571428571428</v>
+        <v>5.095553244254289</v>
       </c>
       <c r="D18" t="n">
-        <v>4.726792092920956</v>
+        <v>2.292703108804808</v>
       </c>
       <c r="E18" t="n">
-        <v>3.70072017834663</v>
+        <v>10.40176534795089</v>
       </c>
       <c r="F18" t="n">
-        <v>46.36511175025648</v>
+        <v>1.883758028607689</v>
       </c>
       <c r="G18" t="n">
-        <v>5.489493940037812</v>
+        <v>9.347433101581171</v>
       </c>
       <c r="H18" t="n">
-        <v>2.871972448428071</v>
+        <v>5.382166429498332</v>
       </c>
       <c r="I18" t="n">
-        <v>30.20173809823867</v>
+        <v>11.87092711387832</v>
       </c>
       <c r="J18" t="n">
-        <v>8.76598143965429</v>
+        <v>6.805301921520793</v>
       </c>
       <c r="K18" t="n">
-        <v>28.74567460954635</v>
+        <v>29.0780539555197</v>
       </c>
       <c r="L18" t="n">
-        <v>38.80041724692353</v>
+        <v>136.3071820720145</v>
       </c>
       <c r="M18" t="n">
-        <v>50.23824681756828</v>
+        <v>53.63767925907341</v>
       </c>
       <c r="N18" t="n">
-        <v>79.70559441894619</v>
+        <v>11.00979417856313</v>
       </c>
       <c r="O18" t="n">
-        <v>8.000438493363776</v>
+        <v>16.91954173353337</v>
       </c>
       <c r="P18" t="n">
-        <v>25.3003128</v>
+        <v>32.81062589676998</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.06993273805335</v>
+        <v>51.96743702904964</v>
       </c>
       <c r="R18" t="n">
-        <v>13.24885998078943</v>
+        <v>41.5276590816382</v>
       </c>
       <c r="S18" t="n">
-        <v>12.67469843826668</v>
+        <v>4.931813441731818</v>
       </c>
       <c r="T18" t="n">
-        <v>17.348625</v>
+        <v>31.58777389679531</v>
       </c>
       <c r="U18" t="n">
-        <v>37.02756268248473</v>
+        <v>53.90603588896957</v>
       </c>
       <c r="V18" t="n">
-        <v>17.48259874558246</v>
+        <v>21.14969165115282</v>
       </c>
       <c r="W18" t="n">
-        <v>46.49677125886982</v>
+        <v>15.48992423762204</v>
       </c>
       <c r="X18" t="n">
-        <v>14.27614357395386</v>
+        <v>34.74075360746468</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.9957248</v>
+        <v>13.26948359654742</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.13098958373392</v>
+        <v>15.01434490238657</v>
       </c>
       <c r="AA18" t="n">
-        <v>14.28414397758183</v>
+        <v>42.65186919090404</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.95073859972895</v>
+        <v>24.84846670436296</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.6107067031053</v>
+        <v>20.79772045815553</v>
       </c>
       <c r="AD18" t="n">
-        <v>17.1513</v>
+        <v>16.45253543237523</v>
       </c>
       <c r="AE18" t="n">
-        <v>17.44229142857143</v>
+        <v>16.89790145908899</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.287317943937408</v>
+        <v>10.97337323100992</v>
       </c>
       <c r="AG18" t="n">
-        <v>22.67249197268325</v>
+        <v>8.674797644692724</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.77308209647393</v>
+        <v>6.289594249162975</v>
       </c>
       <c r="AI18" t="n">
-        <v>14.15823105947055</v>
+        <v>4.395599858305456</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.357799878786603</v>
+        <v>7.017719602740375</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.429477708623769</v>
+        <v>6.487373085137667</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.423487745477446</v>
+        <v>4.605260626222242</v>
       </c>
       <c r="AM18" t="n">
-        <v>8.017693539907869</v>
+        <v>3.050180443339222</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.703769302920551</v>
+        <v>7.70666926088871</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.488644734478833</v>
+        <v>4.548945650375831</v>
       </c>
       <c r="AP18" t="n">
-        <v>5.288270349391934</v>
+        <v>3.386210785703553</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.481993332684649</v>
+        <v>1.31150797426308</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.558380058733309</v>
+        <v>6.708994246108524</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.548556521410173</v>
+        <v>1.014362577183461</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7574824590518755</v>
+        <v>0.2688634009967075</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.7627459149789666</v>
+        <v>4.182854149832409</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.830415764588147</v>
+        <v>0.09929952977581964</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.873952499733101</v>
+        <v>0.6028170080423474</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.408912722784631</v>
+        <v>0.9920419122026292</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.55</v>
+        <v>15.64035741936521</v>
       </c>
       <c r="D19" t="n">
-        <v>8.77</v>
+        <v>26.60045868874736</v>
       </c>
       <c r="E19" t="n">
-        <v>5.91</v>
+        <v>14.74671136421316</v>
       </c>
       <c r="F19" t="n">
-        <v>30.39</v>
+        <v>14.78573567964368</v>
       </c>
       <c r="G19" t="n">
-        <v>22.86825543297943</v>
+        <v>6.621613978268877</v>
       </c>
       <c r="H19" t="n">
-        <v>26.17</v>
+        <v>39.39689309973249</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>24.43605767677579</v>
       </c>
       <c r="J19" t="n">
-        <v>29.74</v>
+        <v>21.78195964804685</v>
       </c>
       <c r="K19" t="n">
-        <v>9.170328443314762</v>
+        <v>13.28067748873573</v>
       </c>
       <c r="L19" t="n">
-        <v>45.63</v>
+        <v>9.690570291277838</v>
       </c>
       <c r="M19" t="n">
-        <v>12.53</v>
+        <v>10.91720425800797</v>
       </c>
       <c r="N19" t="n">
-        <v>39.56</v>
+        <v>6.222442463915014</v>
       </c>
       <c r="O19" t="n">
-        <v>11.7</v>
+        <v>5.311549465131564</v>
       </c>
       <c r="P19" t="n">
-        <v>30.52</v>
+        <v>29.89037157560445</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.71</v>
+        <v>20.90112034334219</v>
       </c>
       <c r="R19" t="n">
-        <v>44.9</v>
+        <v>25.44809508941103</v>
       </c>
       <c r="S19" t="n">
-        <v>58.87</v>
+        <v>32.70933426482612</v>
       </c>
       <c r="T19" t="n">
-        <v>16.23</v>
+        <v>22.79965368746196</v>
       </c>
       <c r="U19" t="n">
-        <v>25.42</v>
+        <v>12.47054210286353</v>
       </c>
       <c r="V19" t="n">
-        <v>37.39</v>
+        <v>74.22445712678073</v>
       </c>
       <c r="W19" t="n">
-        <v>20.63</v>
+        <v>13.65553501128223</v>
       </c>
       <c r="X19" t="n">
-        <v>9.33</v>
+        <v>24.60371376579512</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.13</v>
+        <v>9.614729477504486</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>28.21653823668038</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.74</v>
+        <v>12.49435663157782</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.32</v>
+        <v>120.313688402299</v>
       </c>
       <c r="AC19" t="n">
-        <v>35.87</v>
+        <v>12.13020691265269</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.52</v>
+        <v>3.07526021939405</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.91</v>
+        <v>3.793348102874559</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.82625</v>
+        <v>7.087825158447073</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.87</v>
+        <v>5.728896443680383</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.69</v>
+        <v>2.880788564435876</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.879125033756412</v>
+        <v>6.705482723009059</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.81</v>
+        <v>2.885084678501276</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.66</v>
+        <v>11.46172602471044</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.48</v>
+        <v>1.104600730029708</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.797861379773617</v>
+        <v>4.590409877849238</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.45</v>
+        <v>2.821413747444574</v>
       </c>
       <c r="AO19" t="n">
-        <v>22.74</v>
+        <v>1.514182395990134</v>
       </c>
       <c r="AP19" t="n">
-        <v>8.720000000000001</v>
+        <v>19.83604453831225</v>
       </c>
       <c r="AQ19" t="n">
-        <v>17.01</v>
+        <v>10.83436464187444</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.02</v>
+        <v>2.446953632897901</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.77</v>
+        <v>11.50683071189802</v>
       </c>
       <c r="AT19" t="n">
-        <v>13.7</v>
+        <v>6.017112901483784</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.91</v>
+        <v>12.06866156933885</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.5085520552548197</v>
+        <v>2.533939385955322</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.03</v>
+        <v>2.521869507387145</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.97</v>
+        <v>1.789605954997242</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.00839506235691</v>
+        <v>18.04270892279966</v>
       </c>
       <c r="D20" t="n">
-        <v>25.89045906962602</v>
+        <v>12.33677229237571</v>
       </c>
       <c r="E20" t="n">
-        <v>18.69429185994582</v>
+        <v>51.71115001947873</v>
       </c>
       <c r="F20" t="n">
-        <v>15.43304137373142</v>
+        <v>27.3347940312148</v>
       </c>
       <c r="G20" t="n">
-        <v>17.85130984493525</v>
+        <v>18.54969347107419</v>
       </c>
       <c r="H20" t="n">
-        <v>20.87759811722354</v>
+        <v>4.394515939416814</v>
       </c>
       <c r="I20" t="n">
-        <v>24.20511669141777</v>
+        <v>30.66437261961997</v>
       </c>
       <c r="J20" t="n">
-        <v>23.57487300035998</v>
+        <v>62.44140040382489</v>
       </c>
       <c r="K20" t="n">
-        <v>72.72420771318419</v>
+        <v>29.63342277788929</v>
       </c>
       <c r="L20" t="n">
-        <v>28.34512801893633</v>
+        <v>24.8738839077785</v>
       </c>
       <c r="M20" t="n">
-        <v>66.50841312934293</v>
+        <v>60.01916730477454</v>
       </c>
       <c r="N20" t="n">
-        <v>38.60490892508807</v>
+        <v>72.10730173847969</v>
       </c>
       <c r="O20" t="n">
-        <v>71.24885224461588</v>
+        <v>19.22725011952475</v>
       </c>
       <c r="P20" t="n">
-        <v>66.51101705645263</v>
+        <v>113.4540949665579</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.68774472844143</v>
+        <v>55.66057666644076</v>
       </c>
       <c r="R20" t="n">
-        <v>43.39164998434924</v>
+        <v>29.12542116842424</v>
       </c>
       <c r="S20" t="n">
-        <v>27.08584092547852</v>
+        <v>38.40591598535297</v>
       </c>
       <c r="T20" t="n">
-        <v>22.89149348468512</v>
+        <v>38.26808303160066</v>
       </c>
       <c r="U20" t="n">
-        <v>43.5213152773387</v>
+        <v>68.62873108907124</v>
       </c>
       <c r="V20" t="n">
-        <v>54.45653881546649</v>
+        <v>30.96560399298633</v>
       </c>
       <c r="W20" t="n">
-        <v>49.40707353185734</v>
+        <v>52.93051021019556</v>
       </c>
       <c r="X20" t="n">
-        <v>75.18575490777181</v>
+        <v>62.04724444446804</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.71345570199709</v>
+        <v>107.3917448516117</v>
       </c>
       <c r="Z20" t="n">
-        <v>89.7131647530299</v>
+        <v>110.8704319971249</v>
       </c>
       <c r="AA20" t="n">
-        <v>64.87766804028217</v>
+        <v>104.1666701795153</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.84995036005198</v>
+        <v>115.8392126059798</v>
       </c>
       <c r="AC20" t="n">
-        <v>121.2789773901935</v>
+        <v>68.67672413311851</v>
       </c>
       <c r="AD20" t="n">
-        <v>185.7772521924817</v>
+        <v>147.4223637704876</v>
       </c>
       <c r="AE20" t="n">
-        <v>142.2233042106196</v>
+        <v>60.56735844681875</v>
       </c>
       <c r="AF20" t="n">
-        <v>152.7978345349406</v>
+        <v>80.76471735625601</v>
       </c>
       <c r="AG20" t="n">
-        <v>85.42807572824213</v>
+        <v>63.29938971527621</v>
       </c>
       <c r="AH20" t="n">
-        <v>83.79418712711312</v>
+        <v>107.6348403265167</v>
       </c>
       <c r="AI20" t="n">
-        <v>177.5622043654968</v>
+        <v>123.7942351068829</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23.03140091076305</v>
+        <v>231.1247868489772</v>
       </c>
       <c r="AK20" t="n">
-        <v>31.39350436218596</v>
+        <v>46.31195992640722</v>
       </c>
       <c r="AL20" t="n">
-        <v>56.27439145144649</v>
+        <v>48.2575518720886</v>
       </c>
       <c r="AM20" t="n">
-        <v>46.671746477082</v>
+        <v>27.77712973049159</v>
       </c>
       <c r="AN20" t="n">
-        <v>57.90526886611089</v>
+        <v>50.56991814818211</v>
       </c>
       <c r="AO20" t="n">
-        <v>29.75316515618815</v>
+        <v>23.1659089749273</v>
       </c>
       <c r="AP20" t="n">
-        <v>26.72784217625677</v>
+        <v>36.00919331771803</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16.61804550290326</v>
+        <v>19.7406837545408</v>
       </c>
       <c r="AR20" t="n">
-        <v>14.30034267845765</v>
+        <v>20.95733456451815</v>
       </c>
       <c r="AS20" t="n">
-        <v>23.31943588241873</v>
+        <v>18.26108058805088</v>
       </c>
       <c r="AT20" t="n">
-        <v>29.2633378470583</v>
+        <v>32.04033856635901</v>
       </c>
       <c r="AU20" t="n">
-        <v>13.06634568327597</v>
+        <v>24.89127269913755</v>
       </c>
       <c r="AV20" t="n">
-        <v>15.93783235868813</v>
+        <v>19.31380460070058</v>
       </c>
       <c r="AW20" t="n">
-        <v>11.8143693284839</v>
+        <v>41.47176733187915</v>
       </c>
       <c r="AX20" t="n">
-        <v>13.20386186816122</v>
+        <v>35.0128178415514</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.187817258883249</v>
+        <v>3.621715820446274</v>
       </c>
       <c r="D21" t="n">
-        <v>3.188552061758614</v>
+        <v>0.8774028751955522</v>
       </c>
       <c r="E21" t="n">
-        <v>5.169330717264734</v>
+        <v>3.240989417802089</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0585630589405667</v>
+        <v>7.797810806361743</v>
       </c>
       <c r="G21" t="n">
-        <v>1.713082334148223</v>
+        <v>5.169819791742699</v>
       </c>
       <c r="H21" t="n">
-        <v>3.644596430285131</v>
+        <v>2.284430507063316</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25288390952287</v>
+        <v>0.4695385931947811</v>
       </c>
       <c r="J21" t="n">
-        <v>1.141540099850116</v>
+        <v>16.77196570278553</v>
       </c>
       <c r="K21" t="n">
-        <v>2.677947618857553</v>
+        <v>4.854415802540436</v>
       </c>
       <c r="L21" t="n">
-        <v>4.333756296475006</v>
+        <v>5.850891654760393</v>
       </c>
       <c r="M21" t="n">
-        <v>5.48735541377313</v>
+        <v>2.3266974461867</v>
       </c>
       <c r="N21" t="n">
-        <v>7.492409532215357</v>
+        <v>20.61529207329014</v>
       </c>
       <c r="O21" t="n">
-        <v>15.1759992</v>
+        <v>2.826048212305525</v>
       </c>
       <c r="P21" t="n">
-        <v>2.142455982793177</v>
+        <v>2.217676253433932</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.648112285595019</v>
+        <v>4.608833340253779</v>
       </c>
       <c r="R21" t="n">
-        <v>4.865674446412602</v>
+        <v>2.692662964661381</v>
       </c>
       <c r="S21" t="n">
-        <v>2.251596177358937</v>
+        <v>0.7222931280490875</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178160790897221</v>
+        <v>2.212637693946528</v>
       </c>
       <c r="U21" t="n">
-        <v>5.386964226661363</v>
+        <v>6.195690009662357</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7335999290765783</v>
+        <v>2.706007351421001</v>
       </c>
       <c r="W21" t="n">
-        <v>2.350331740193361</v>
+        <v>3.476642542261817</v>
       </c>
       <c r="X21" t="n">
-        <v>5.227424141481437</v>
+        <v>3.056508165927145</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.114049708066386</v>
+        <v>5.987171196024402</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.566495755011996</v>
+        <v>4.151525315914413</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.624136058393977</v>
+        <v>3.89217266917565</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.242062005573995</v>
+        <v>12.96399787543277</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.708331249432795</v>
+        <v>5.555853905687919</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.617439360918755</v>
+        <v>3.633782062864236</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.793793164925567</v>
+        <v>5.711620332302698</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.916114318843475</v>
+        <v>3.079463529272106</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.82801836892298</v>
+        <v>3.912366483383015</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.739525642050451</v>
+        <v>4.161031140533919</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.417028569202905</v>
+        <v>5.918071004756756</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.024262241960747</v>
+        <v>3.63242468276774</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.572556336512575</v>
+        <v>2.199361066760031</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.05981151263214</v>
+        <v>4.961893546273936</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.211580979119145</v>
+        <v>6.293393952102649</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.763459640141178</v>
+        <v>3.439524814770525</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.141315621817991</v>
+        <v>2.728251355430888</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.726800184527022</v>
+        <v>3.476133026168023</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8.913141935592254</v>
+        <v>22.37301580740694</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.328248696659586</v>
+        <v>4.512013755120615</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.860053943234414</v>
+        <v>4.052516742910131</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.375038679731821</v>
+        <v>4.612986343906656</v>
       </c>
       <c r="AU21" t="n">
-        <v>5.186265735668497</v>
+        <v>6.046384010949586</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.686018989045849</v>
+        <v>15.86650072350434</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.451734211225928</v>
+        <v>3.504751211678416</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.1609774932586978</v>
+        <v>0.5330813792225846</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>13.30857789149974</v>
+        <v>9.532583154681275</v>
       </c>
       <c r="D22" t="n">
-        <v>7.234421012991902</v>
+        <v>14.10185552227648</v>
       </c>
       <c r="E22" t="n">
-        <v>21.40600659115362</v>
+        <v>17.82724893812417</v>
       </c>
       <c r="F22" t="n">
-        <v>29.92213276655001</v>
+        <v>9.248632710375107</v>
       </c>
       <c r="G22" t="n">
-        <v>8.695089369708372</v>
+        <v>6.514354652850452</v>
       </c>
       <c r="H22" t="n">
-        <v>11.52585598330351</v>
+        <v>34.8771724977743</v>
       </c>
       <c r="I22" t="n">
-        <v>26.84247582434069</v>
+        <v>14.47382938382306</v>
       </c>
       <c r="J22" t="n">
-        <v>9.747946352275189</v>
+        <v>5.882360670797555</v>
       </c>
       <c r="K22" t="n">
-        <v>9.286477290837878</v>
+        <v>40.89101809093234</v>
       </c>
       <c r="L22" t="n">
-        <v>66.32764655699734</v>
+        <v>54.35018186503626</v>
       </c>
       <c r="M22" t="n">
-        <v>24.72317268919078</v>
+        <v>108.1957229129593</v>
       </c>
       <c r="N22" t="n">
-        <v>219.766967920006</v>
+        <v>123.4239175747561</v>
       </c>
       <c r="O22" t="n">
-        <v>72.57364339841843</v>
+        <v>66.96175953084806</v>
       </c>
       <c r="P22" t="n">
-        <v>53.46717796158409</v>
+        <v>141.8895435558416</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.47931465286455</v>
+        <v>67.06763679848036</v>
       </c>
       <c r="R22" t="n">
-        <v>52.67577323959254</v>
+        <v>46.25686893205296</v>
       </c>
       <c r="S22" t="n">
-        <v>124.2493422494738</v>
+        <v>41.23465028918635</v>
       </c>
       <c r="T22" t="n">
-        <v>56.83319763628317</v>
+        <v>27.74482552301836</v>
       </c>
       <c r="U22" t="n">
-        <v>71.61616568355386</v>
+        <v>45.1413386656395</v>
       </c>
       <c r="V22" t="n">
-        <v>63.74932576809319</v>
+        <v>49.07772620603888</v>
       </c>
       <c r="W22" t="n">
-        <v>168.4535078397076</v>
+        <v>61.86634483670702</v>
       </c>
       <c r="X22" t="n">
-        <v>51.78783727102319</v>
+        <v>62.12045686407882</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.49206010605074</v>
+        <v>130.6513397930221</v>
       </c>
       <c r="Z22" t="n">
-        <v>118.1270760262807</v>
+        <v>62.68855558688728</v>
       </c>
       <c r="AA22" t="n">
-        <v>81.36711132533796</v>
+        <v>33.11876342816796</v>
       </c>
       <c r="AB22" t="n">
-        <v>30.61220347387765</v>
+        <v>39.7537018141614</v>
       </c>
       <c r="AC22" t="n">
-        <v>91.64299994585987</v>
+        <v>49.52055603483441</v>
       </c>
       <c r="AD22" t="n">
-        <v>182.0095345380677</v>
+        <v>81.37196707350331</v>
       </c>
       <c r="AE22" t="n">
-        <v>47.27999356619065</v>
+        <v>63.78025436277913</v>
       </c>
       <c r="AF22" t="n">
-        <v>34.46008781399014</v>
+        <v>49.01084909270964</v>
       </c>
       <c r="AG22" t="n">
-        <v>108.4497003942498</v>
+        <v>60.0595806344615</v>
       </c>
       <c r="AH22" t="n">
-        <v>37.16143153873701</v>
+        <v>44.26818516709972</v>
       </c>
       <c r="AI22" t="n">
-        <v>12.0688780075091</v>
+        <v>38.84322816805774</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28.05413892839893</v>
+        <v>27.08151504497508</v>
       </c>
       <c r="AK22" t="n">
-        <v>70.80429257271958</v>
+        <v>37.36704746880858</v>
       </c>
       <c r="AL22" t="n">
-        <v>19.76086821111168</v>
+        <v>50.11921363496359</v>
       </c>
       <c r="AM22" t="n">
-        <v>66.77799649373416</v>
+        <v>21.5382060410126</v>
       </c>
       <c r="AN22" t="n">
-        <v>27.37115989323776</v>
+        <v>12.15151861857657</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.62965728778974</v>
+        <v>20.59226121791121</v>
       </c>
       <c r="AP22" t="n">
-        <v>24.48387878787879</v>
+        <v>32.77535996015259</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11.90497444213758</v>
+        <v>14.29498616860627</v>
       </c>
       <c r="AR22" t="n">
-        <v>18.38818896949616</v>
+        <v>11.41701713429039</v>
       </c>
       <c r="AS22" t="n">
-        <v>12.19622302725224</v>
+        <v>13.74095935296589</v>
       </c>
       <c r="AT22" t="n">
-        <v>10.98457113507961</v>
+        <v>27.30781064454246</v>
       </c>
       <c r="AU22" t="n">
-        <v>16.51334180432021</v>
+        <v>18.05541541229309</v>
       </c>
       <c r="AV22" t="n">
-        <v>9.211246504957529</v>
+        <v>20.72203573887952</v>
       </c>
       <c r="AW22" t="n">
-        <v>8.462189743170448</v>
+        <v>7.493118264716708</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.06546478268944</v>
+        <v>15.62165760759871</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>14.99237939626155</v>
+        <v>4.351138128810767</v>
       </c>
       <c r="D23" t="n">
-        <v>15.05699858301803</v>
+        <v>31.09156037944421</v>
       </c>
       <c r="E23" t="n">
-        <v>15.72125190716943</v>
+        <v>78.43912014804886</v>
       </c>
       <c r="F23" t="n">
-        <v>43.70580609070261</v>
+        <v>2.084394831648276</v>
       </c>
       <c r="G23" t="n">
-        <v>28.14308495295175</v>
+        <v>104.9042154980622</v>
       </c>
       <c r="H23" t="n">
-        <v>6.213178270458754</v>
+        <v>6.131727650608536</v>
       </c>
       <c r="I23" t="n">
-        <v>12.6593837155174</v>
+        <v>28.37112618738609</v>
       </c>
       <c r="J23" t="n">
-        <v>70.41293157253097</v>
+        <v>24.23858726263138</v>
       </c>
       <c r="K23" t="n">
-        <v>41.59462456574006</v>
+        <v>24.52503565360765</v>
       </c>
       <c r="L23" t="n">
-        <v>29.14826177519171</v>
+        <v>33.06876278173115</v>
       </c>
       <c r="M23" t="n">
-        <v>13.47866890279074</v>
+        <v>53.03194872063516</v>
       </c>
       <c r="N23" t="n">
-        <v>31.10697634884485</v>
+        <v>203.0250697655352</v>
       </c>
       <c r="O23" t="n">
-        <v>19.0221309405204</v>
+        <v>88.62741805789716</v>
       </c>
       <c r="P23" t="n">
-        <v>97.90551906878605</v>
+        <v>42.64306640407087</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.97646395094672</v>
+        <v>106.8910891367274</v>
       </c>
       <c r="R23" t="n">
-        <v>48.7198929454276</v>
+        <v>94.0529246100197</v>
       </c>
       <c r="S23" t="n">
-        <v>48.12969992989484</v>
+        <v>61.13645143173714</v>
       </c>
       <c r="T23" t="n">
-        <v>22.89134053637403</v>
+        <v>43.93886973523193</v>
       </c>
       <c r="U23" t="n">
-        <v>163.902278954034</v>
+        <v>74.66806558875493</v>
       </c>
       <c r="V23" t="n">
-        <v>34.78798724215383</v>
+        <v>118.3301720949636</v>
       </c>
       <c r="W23" t="n">
-        <v>49.12076427213356</v>
+        <v>22.89570938993152</v>
       </c>
       <c r="X23" t="n">
-        <v>37.96322630377439</v>
+        <v>56.85904843660666</v>
       </c>
       <c r="Y23" t="n">
-        <v>71.8875309816833</v>
+        <v>38.47338442046515</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.5074301951164</v>
+        <v>10.61418260611912</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.97986652679449</v>
+        <v>14.45434300602608</v>
       </c>
       <c r="AB23" t="n">
-        <v>75.65531711484627</v>
+        <v>21.39307562686955</v>
       </c>
       <c r="AC23" t="n">
-        <v>27.80889807351681</v>
+        <v>10.66367293447158</v>
       </c>
       <c r="AD23" t="n">
-        <v>42.65273106826459</v>
+        <v>35.30642878637708</v>
       </c>
       <c r="AE23" t="n">
-        <v>21.48626709882363</v>
+        <v>59.73410289973678</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.836665020761867</v>
+        <v>3.265479697133581</v>
       </c>
       <c r="AG23" t="n">
-        <v>27.22905025304686</v>
+        <v>35.02921753259147</v>
       </c>
       <c r="AH23" t="n">
-        <v>12.45044182421926</v>
+        <v>17.20912337356554</v>
       </c>
       <c r="AI23" t="n">
-        <v>42.75479488862374</v>
+        <v>45.30377288036927</v>
       </c>
       <c r="AJ23" t="n">
-        <v>70.33903265897027</v>
+        <v>25.88948167490679</v>
       </c>
       <c r="AK23" t="n">
-        <v>26.81725983346794</v>
+        <v>17.81773367641187</v>
       </c>
       <c r="AL23" t="n">
-        <v>52.66251469850337</v>
+        <v>12.68426281566978</v>
       </c>
       <c r="AM23" t="n">
-        <v>22.66016904242741</v>
+        <v>21.66938287515314</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.507579404428725</v>
+        <v>8.290487880347088</v>
       </c>
       <c r="AO23" t="n">
-        <v>21.44021436363214</v>
+        <v>15.43126006663282</v>
       </c>
       <c r="AP23" t="n">
-        <v>22.77383599999998</v>
+        <v>47.5077738489326</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20.77436843009319</v>
+        <v>8.130819892242656</v>
       </c>
       <c r="AR23" t="n">
-        <v>31.83249482693018</v>
+        <v>49.85628525633529</v>
       </c>
       <c r="AS23" t="n">
-        <v>21.30488739154395</v>
+        <v>3.326270801360118</v>
       </c>
       <c r="AT23" t="n">
-        <v>38.65886790081698</v>
+        <v>20.29298610852087</v>
       </c>
       <c r="AU23" t="n">
-        <v>18.34399184753836</v>
+        <v>28.23607714944562</v>
       </c>
       <c r="AV23" t="n">
-        <v>24.93455963110543</v>
+        <v>15.17545636270987</v>
       </c>
       <c r="AW23" t="n">
-        <v>27.94619177684429</v>
+        <v>36.25693261686981</v>
       </c>
       <c r="AX23" t="n">
-        <v>11.21995962732372</v>
+        <v>11.81071679048426</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>2.2177584</v>
+        <v>3.610460693960766</v>
       </c>
       <c r="D24" t="n">
-        <v>7.299027239242291</v>
+        <v>1.218442321422867</v>
       </c>
       <c r="E24" t="n">
-        <v>1.191717099931441</v>
+        <v>3.401273105854184</v>
       </c>
       <c r="F24" t="n">
-        <v>0.583349504283377</v>
+        <v>22.86280474909188</v>
       </c>
       <c r="G24" t="n">
-        <v>6.082311466523849</v>
+        <v>6.785777913739194</v>
       </c>
       <c r="H24" t="n">
-        <v>10.75617172717107</v>
+        <v>5.657629035271371</v>
       </c>
       <c r="I24" t="n">
-        <v>13.45147338451332</v>
+        <v>1.111342714932987</v>
       </c>
       <c r="J24" t="n">
-        <v>7.769163687038245</v>
+        <v>43.70012545867739</v>
       </c>
       <c r="K24" t="n">
-        <v>16.92420540976795</v>
+        <v>34.21519663366826</v>
       </c>
       <c r="L24" t="n">
-        <v>27.92631574803504</v>
+        <v>4.12912997619254</v>
       </c>
       <c r="M24" t="n">
-        <v>37.42458550362162</v>
+        <v>6.547891366484052</v>
       </c>
       <c r="N24" t="n">
-        <v>27.31137674271486</v>
+        <v>10.71001511193515</v>
       </c>
       <c r="O24" t="n">
-        <v>78.52708665561889</v>
+        <v>20.64542035645075</v>
       </c>
       <c r="P24" t="n">
-        <v>10.47762166379077</v>
+        <v>27.5466314291407</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.79011209280999</v>
+        <v>28.83266405406488</v>
       </c>
       <c r="R24" t="n">
-        <v>15.45655270694541</v>
+        <v>73.6508392581303</v>
       </c>
       <c r="S24" t="n">
-        <v>24.45630086480566</v>
+        <v>19.69545704165301</v>
       </c>
       <c r="T24" t="n">
-        <v>29.78413279177637</v>
+        <v>13.78344522098668</v>
       </c>
       <c r="U24" t="n">
-        <v>30.38196694217735</v>
+        <v>22.70103949562844</v>
       </c>
       <c r="V24" t="n">
-        <v>13.0786862069303</v>
+        <v>28.64692560399394</v>
       </c>
       <c r="W24" t="n">
-        <v>10.35091672409951</v>
+        <v>44.48594893055008</v>
       </c>
       <c r="X24" t="n">
-        <v>16.97729251826405</v>
+        <v>39.21006396349208</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.04875984763351</v>
+        <v>16.91885634406684</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.85101268584648</v>
+        <v>26.17831620611237</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.93754398296894</v>
+        <v>14.85571393425651</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.24255688904783</v>
+        <v>13.06820465843989</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.90705756352656</v>
+        <v>41.11208322157056</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.01461510854725</v>
+        <v>8.610450205003398</v>
       </c>
       <c r="AE24" t="n">
-        <v>17.89961567992946</v>
+        <v>9.255988276548521</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.53078741234988</v>
+        <v>16.55118491496026</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.87667567828844</v>
+        <v>35.42931014700825</v>
       </c>
       <c r="AH24" t="n">
-        <v>22.262076442088</v>
+        <v>7.462304368917087</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.418322285714286</v>
+        <v>20.85985893248043</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.981033899037209</v>
+        <v>5.237217257055042</v>
       </c>
       <c r="AK24" t="n">
-        <v>3.943212437346951</v>
+        <v>10.4122046367455</v>
       </c>
       <c r="AL24" t="n">
-        <v>12.21364867631147</v>
+        <v>14.62400187521122</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.130129028021569</v>
+        <v>14.62359326441647</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.759104240047374</v>
+        <v>2.745193621279327</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.56126220540675</v>
+        <v>3.901231481375796</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.737107199412937</v>
+        <v>2.300037989720372</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.852056962090531</v>
+        <v>3.099444778774917</v>
       </c>
       <c r="AR24" t="n">
-        <v>5.289208502948188</v>
+        <v>4.077993369401111</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.607346262127613</v>
+        <v>6.350675579166085</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.53966939344292</v>
+        <v>14.62071329493467</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.06137480847437</v>
+        <v>1.35310700749511</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.788252745226132</v>
+        <v>1.285766333766806</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.140502745755815</v>
+        <v>1.186288587015868</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.505314583371795</v>
+        <v>3.768657212042901</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>1.83</v>
+        <v>19.57918196880228</v>
       </c>
       <c r="D25" t="n">
-        <v>21.38</v>
+        <v>5.213459288013611</v>
       </c>
       <c r="E25" t="n">
-        <v>2.53</v>
+        <v>22.40647153667284</v>
       </c>
       <c r="F25" t="n">
-        <v>5.91</v>
+        <v>4.718080144407198</v>
       </c>
       <c r="G25" t="n">
-        <v>13.16</v>
+        <v>159.9910010137329</v>
       </c>
       <c r="H25" t="n">
-        <v>4.083714168</v>
+        <v>3.504489477555896</v>
       </c>
       <c r="I25" t="n">
-        <v>6.282781396285666</v>
+        <v>3.796764874195639</v>
       </c>
       <c r="J25" t="n">
-        <v>19.62</v>
+        <v>8.936628369413038</v>
       </c>
       <c r="K25" t="n">
-        <v>32.07</v>
+        <v>82.23092921034547</v>
       </c>
       <c r="L25" t="n">
-        <v>86.43000000000001</v>
+        <v>13.54939287380638</v>
       </c>
       <c r="M25" t="n">
-        <v>2.585714285714285</v>
+        <v>46.22888354233565</v>
       </c>
       <c r="N25" t="n">
-        <v>38.91</v>
+        <v>16.9042587025594</v>
       </c>
       <c r="O25" t="n">
-        <v>32.23</v>
+        <v>25.43679041201058</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4714234332661</v>
+        <v>89.20186919337152</v>
       </c>
       <c r="Q25" t="n">
-        <v>112.61</v>
+        <v>159.1475892665494</v>
       </c>
       <c r="R25" t="n">
-        <v>55.58</v>
+        <v>20.08855389992127</v>
       </c>
       <c r="S25" t="n">
-        <v>40.97</v>
+        <v>40.38698394151628</v>
       </c>
       <c r="T25" t="n">
-        <v>33.65</v>
+        <v>32.93196635439929</v>
       </c>
       <c r="U25" t="n">
-        <v>83.54000000000001</v>
+        <v>9.363541521621903</v>
       </c>
       <c r="V25" t="n">
-        <v>17.35</v>
+        <v>26.95261478040814</v>
       </c>
       <c r="W25" t="n">
-        <v>6.17</v>
+        <v>18.97724195743399</v>
       </c>
       <c r="X25" t="n">
-        <v>39.69</v>
+        <v>33.40598748917819</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.869999999999999</v>
+        <v>9.254030151314542</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.33</v>
+        <v>5.211519806797597</v>
       </c>
       <c r="AA25" t="n">
-        <v>11</v>
+        <v>28.70944667136155</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.464862695297827</v>
+        <v>52.66574437994343</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.74</v>
+        <v>93.82722551239304</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.9</v>
+        <v>3.545363842873331</v>
       </c>
       <c r="AE25" t="n">
-        <v>10.65571428571429</v>
+        <v>1.611220263104987</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.73</v>
+        <v>1.137885030385542</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.816303733599114</v>
+        <v>8.909022031628403</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.03</v>
+        <v>0.5997990298616157</v>
       </c>
       <c r="AI25" t="n">
-        <v>10.68</v>
+        <v>3.516523023397892</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.1</v>
+        <v>1.274925026691645</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.97</v>
+        <v>2.682901811146641</v>
       </c>
       <c r="AL25" t="n">
-        <v>15.68</v>
+        <v>5.222492414481954</v>
       </c>
       <c r="AM25" t="n">
-        <v>11.35</v>
+        <v>23.11458648298684</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.720000000000001</v>
+        <v>4.552500479669418</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.529999999999999</v>
+        <v>1.637074429748153</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.790752481463907</v>
+        <v>3.122203618896011</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.4720833565745357</v>
+        <v>1.876238393925372</v>
       </c>
       <c r="AR25" t="n">
-        <v>3.32</v>
+        <v>22.57350894391866</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.131927339901477</v>
+        <v>1.992487999644694</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.99</v>
+        <v>2.170330009823259</v>
       </c>
       <c r="AU25" t="n">
-        <v>11.99</v>
+        <v>6.795211796935871</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.62</v>
+        <v>27.85155468160479</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.6436819436477933</v>
+        <v>0.7366701931157525</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.58</v>
+        <v>1.972936524808979</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>20.22171076881259</v>
+        <v>23.01931549131288</v>
       </c>
       <c r="D26" t="n">
-        <v>13.35370647754858</v>
+        <v>54.34102672834889</v>
       </c>
       <c r="E26" t="n">
-        <v>11.22406699874905</v>
+        <v>20.52755268327997</v>
       </c>
       <c r="F26" t="n">
-        <v>74.79999390569169</v>
+        <v>51.71372636735919</v>
       </c>
       <c r="G26" t="n">
-        <v>25.98113193298497</v>
+        <v>32.75429088158192</v>
       </c>
       <c r="H26" t="n">
-        <v>60.9525918192908</v>
+        <v>36.80088450255356</v>
       </c>
       <c r="I26" t="n">
-        <v>23.04173023797359</v>
+        <v>66.82886630416148</v>
       </c>
       <c r="J26" t="n">
-        <v>26.23742262748798</v>
+        <v>30.91967570107063</v>
       </c>
       <c r="K26" t="n">
-        <v>20.8890554446378</v>
+        <v>149.849636106439</v>
       </c>
       <c r="L26" t="n">
-        <v>100.6817101156058</v>
+        <v>172.41175223</v>
       </c>
       <c r="M26" t="n">
-        <v>75.73072426284932</v>
+        <v>42.8027160938992</v>
       </c>
       <c r="N26" t="n">
-        <v>28.17929364979274</v>
+        <v>87.04159043627978</v>
       </c>
       <c r="O26" t="n">
-        <v>141.2772506233024</v>
+        <v>81.92824220453325</v>
       </c>
       <c r="P26" t="n">
-        <v>43.02014786813595</v>
+        <v>67.13330229396067</v>
       </c>
       <c r="Q26" t="n">
-        <v>28.88618745187415</v>
+        <v>58.47214658962121</v>
       </c>
       <c r="R26" t="n">
-        <v>48.81932225119522</v>
+        <v>32.8731420573113</v>
       </c>
       <c r="S26" t="n">
-        <v>80.34476243842261</v>
+        <v>49.01551117947012</v>
       </c>
       <c r="T26" t="n">
-        <v>42.17711069202292</v>
+        <v>82.69502263264008</v>
       </c>
       <c r="U26" t="n">
-        <v>32.92841324466569</v>
+        <v>51.09499141552707</v>
       </c>
       <c r="V26" t="n">
-        <v>40.33370421387338</v>
+        <v>66.32267610208361</v>
       </c>
       <c r="W26" t="n">
-        <v>44.98449213316717</v>
+        <v>95.17643764768154</v>
       </c>
       <c r="X26" t="n">
-        <v>61.98509177284738</v>
+        <v>64.51846843008069</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.43204013224678</v>
+        <v>29.09981175611879</v>
       </c>
       <c r="Z26" t="n">
-        <v>58.84780042146426</v>
+        <v>87.96015057279664</v>
       </c>
       <c r="AA26" t="n">
-        <v>113.1985938711357</v>
+        <v>56.36076673287425</v>
       </c>
       <c r="AB26" t="n">
-        <v>130.2669306104192</v>
+        <v>98.53312464622934</v>
       </c>
       <c r="AC26" t="n">
-        <v>168.853690848586</v>
+        <v>168.985219261245</v>
       </c>
       <c r="AD26" t="n">
-        <v>136.202109612281</v>
+        <v>75.23550191925531</v>
       </c>
       <c r="AE26" t="n">
-        <v>124.7808974943988</v>
+        <v>70.0405598606158</v>
       </c>
       <c r="AF26" t="n">
-        <v>121.153750028868</v>
+        <v>105.7488479683435</v>
       </c>
       <c r="AG26" t="n">
-        <v>42.72974404175727</v>
+        <v>114.0473108028197</v>
       </c>
       <c r="AH26" t="n">
-        <v>186.5972231360792</v>
+        <v>98.84140864947975</v>
       </c>
       <c r="AI26" t="n">
-        <v>177.5622043654968</v>
+        <v>91.92416671233728</v>
       </c>
       <c r="AJ26" t="n">
-        <v>73.41453298192926</v>
+        <v>50.34572218172366</v>
       </c>
       <c r="AK26" t="n">
-        <v>85.77410414976518</v>
+        <v>61.12101480633507</v>
       </c>
       <c r="AL26" t="n">
-        <v>73.68198345162544</v>
+        <v>32.57611563090664</v>
       </c>
       <c r="AM26" t="n">
-        <v>48.73544843590224</v>
+        <v>45.81019029297434</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.99318801505901</v>
+        <v>48.20657734974181</v>
       </c>
       <c r="AO26" t="n">
-        <v>20.96457950179374</v>
+        <v>37.54811628488005</v>
       </c>
       <c r="AP26" t="n">
-        <v>30.75895236148288</v>
+        <v>25.97444908978228</v>
       </c>
       <c r="AQ26" t="n">
-        <v>24.14529912525638</v>
+        <v>46.87672924870709</v>
       </c>
       <c r="AR26" t="n">
-        <v>26.92310148966179</v>
+        <v>21.31249082412374</v>
       </c>
       <c r="AS26" t="n">
-        <v>21.6737577691333</v>
+        <v>27.35683095437754</v>
       </c>
       <c r="AT26" t="n">
-        <v>23.47082562065345</v>
+        <v>17.89961355697706</v>
       </c>
       <c r="AU26" t="n">
-        <v>17.28673561010132</v>
+        <v>29.26969649075278</v>
       </c>
       <c r="AV26" t="n">
-        <v>26.30945061906687</v>
+        <v>10.09273525326266</v>
       </c>
       <c r="AW26" t="n">
-        <v>36.61643193559961</v>
+        <v>16.99117281197595</v>
       </c>
       <c r="AX26" t="n">
-        <v>21.37954097304186</v>
+        <v>19.36150693078415</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.791015368448706</v>
+        <v>5.989814000687397</v>
       </c>
       <c r="D27" t="n">
-        <v>2.579764631100608</v>
+        <v>2.358849818361064</v>
       </c>
       <c r="E27" t="n">
-        <v>4.212538001074274</v>
+        <v>9.284756018469382</v>
       </c>
       <c r="F27" t="n">
-        <v>3.10259940887258</v>
+        <v>0.780441651836028</v>
       </c>
       <c r="G27" t="n">
-        <v>1.944874100719425</v>
+        <v>0.2650649948744842</v>
       </c>
       <c r="H27" t="n">
-        <v>1.686578560939794</v>
+        <v>0.1201057616052199</v>
       </c>
       <c r="I27" t="n">
-        <v>2.247067673362495</v>
+        <v>6.355432309642261</v>
       </c>
       <c r="J27" t="n">
-        <v>6.87455433712999</v>
+        <v>21.52197521015846</v>
       </c>
       <c r="K27" t="n">
-        <v>9.179916478239415</v>
+        <v>1.086108400313193</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9433029491939365</v>
+        <v>3.22822660131934</v>
       </c>
       <c r="M27" t="n">
-        <v>5.344180476771057</v>
+        <v>1.305858671787308</v>
       </c>
       <c r="N27" t="n">
-        <v>5.777554486319987</v>
+        <v>5.549768626147673</v>
       </c>
       <c r="O27" t="n">
-        <v>5.188755545237359</v>
+        <v>5.745397209796027</v>
       </c>
       <c r="P27" t="n">
-        <v>5.558205103998763</v>
+        <v>2.667176658753214</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.17391435054287</v>
+        <v>4.881179340114703</v>
       </c>
       <c r="R27" t="n">
-        <v>6.478587517256412</v>
+        <v>6.075527701909165</v>
       </c>
       <c r="S27" t="n">
-        <v>1.831300130572654</v>
+        <v>6.445413771097904</v>
       </c>
       <c r="T27" t="n">
-        <v>7.128796224739793</v>
+        <v>4.594860050424233</v>
       </c>
       <c r="U27" t="n">
-        <v>5.731039144213063</v>
+        <v>8.060874453661159</v>
       </c>
       <c r="V27" t="n">
-        <v>3.166307680801735</v>
+        <v>3.751102524903771</v>
       </c>
       <c r="W27" t="n">
-        <v>4.00763293163025</v>
+        <v>2.341401801411905</v>
       </c>
       <c r="X27" t="n">
-        <v>9.100616645793357</v>
+        <v>3.771533968665002</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.033863333355149</v>
+        <v>3.424483186157815</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.02124191078397</v>
+        <v>2.678286393115441</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.908501248725113</v>
+        <v>6.022033239721679</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.319271264249571</v>
+        <v>3.448015970563427</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.263685099507968</v>
+        <v>12.95786191289533</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.896279346769896</v>
+        <v>6.274553666573238</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.789470347984595</v>
+        <v>7.387730844947087</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.30069507510132</v>
+        <v>6.490729929408425</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.7053709011254</v>
+        <v>4.26808350094533</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.040198476394726</v>
+        <v>2.59285513971041</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.179011911629791</v>
+        <v>3.800999889161867</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.075928147185971</v>
+        <v>13.22767035876255</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.502366106366258</v>
+        <v>3.201740952448265</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.573581166626911</v>
+        <v>3.211452082759616</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.083284004632608</v>
+        <v>3.78724595741136</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.471450933655119</v>
+        <v>11.39443250451385</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.637007723017381</v>
+        <v>4.4484910871726</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.098854825348214</v>
+        <v>6.836311633470639</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.193952779888726</v>
+        <v>3.150417630304387</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.475775891341256</v>
+        <v>2.005391428801982</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.580811462500137</v>
+        <v>2.419070165062663</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.255885784322247</v>
+        <v>2.044260951675848</v>
       </c>
       <c r="AU27" t="n">
-        <v>13.24231648463297</v>
+        <v>4.389557626395991</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.918578097906563</v>
+        <v>3.414584292004339</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.210630149822202</v>
+        <v>1.899013549758842</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.693992965937964</v>
+        <v>1.976969001031632</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>5.24248445958057</v>
+        <v>7.633516388037776</v>
       </c>
       <c r="D28" t="n">
-        <v>8.781252490238257</v>
+        <v>32.75241741264466</v>
       </c>
       <c r="E28" t="n">
-        <v>15.53096247238173</v>
+        <v>14.93676038663744</v>
       </c>
       <c r="F28" t="n">
-        <v>14.16958274958884</v>
+        <v>17.00569141985788</v>
       </c>
       <c r="G28" t="n">
-        <v>15.83935493596418</v>
+        <v>16.08684800626106</v>
       </c>
       <c r="H28" t="n">
-        <v>6.317935206069306</v>
+        <v>27.7669120813636</v>
       </c>
       <c r="I28" t="n">
-        <v>32.89541977337571</v>
+        <v>6.791794678206302</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1498756686104</v>
+        <v>36.8141416259909</v>
       </c>
       <c r="K28" t="n">
-        <v>98.55821252320368</v>
+        <v>20.94659672925565</v>
       </c>
       <c r="L28" t="n">
-        <v>50.4715998406619</v>
+        <v>65.8721748768788</v>
       </c>
       <c r="M28" t="n">
-        <v>12.47430084939264</v>
+        <v>41.76444114251873</v>
       </c>
       <c r="N28" t="n">
-        <v>30.68707475304274</v>
+        <v>95.04506829474147</v>
       </c>
       <c r="O28" t="n">
-        <v>49.65088383818395</v>
+        <v>44.39751939488657</v>
       </c>
       <c r="P28" t="n">
-        <v>87.19221989377399</v>
+        <v>118.1004430866048</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.079597090145</v>
+        <v>27.20151849361242</v>
       </c>
       <c r="R28" t="n">
-        <v>98.07449847500001</v>
+        <v>103.1720387460102</v>
       </c>
       <c r="S28" t="n">
-        <v>48.25114551442116</v>
+        <v>55.05105655606208</v>
       </c>
       <c r="T28" t="n">
-        <v>96.36197582287615</v>
+        <v>36.74465908417219</v>
       </c>
       <c r="U28" t="n">
-        <v>48.86630561222069</v>
+        <v>107.9408671702284</v>
       </c>
       <c r="V28" t="n">
-        <v>153.9828487064975</v>
+        <v>86.49112503546787</v>
       </c>
       <c r="W28" t="n">
-        <v>168.4535078397076</v>
+        <v>72.11501129469234</v>
       </c>
       <c r="X28" t="n">
-        <v>55.62488608073807</v>
+        <v>56.15476945896065</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.78094814838756</v>
+        <v>43.17663180423538</v>
       </c>
       <c r="Z28" t="n">
-        <v>102.4323774350281</v>
+        <v>86.04669681716379</v>
       </c>
       <c r="AA28" t="n">
-        <v>57.52422237637498</v>
+        <v>70.56087321541308</v>
       </c>
       <c r="AB28" t="n">
-        <v>43.83203554329366</v>
+        <v>51.20388777393368</v>
       </c>
       <c r="AC28" t="n">
-        <v>79.13722160023366</v>
+        <v>73.91039832441798</v>
       </c>
       <c r="AD28" t="n">
-        <v>86.11648459169085</v>
+        <v>80.40715415000699</v>
       </c>
       <c r="AE28" t="n">
-        <v>76.18367163435353</v>
+        <v>58.24532161508612</v>
       </c>
       <c r="AF28" t="n">
-        <v>50.90527800823908</v>
+        <v>54.27792545322506</v>
       </c>
       <c r="AG28" t="n">
-        <v>121.2612772099953</v>
+        <v>133.5076227815008</v>
       </c>
       <c r="AH28" t="n">
-        <v>116.2624274659456</v>
+        <v>32.86582748108531</v>
       </c>
       <c r="AI28" t="n">
-        <v>27.76956155010512</v>
+        <v>19.93856932467721</v>
       </c>
       <c r="AJ28" t="n">
-        <v>105.9589019693834</v>
+        <v>35.8023764368826</v>
       </c>
       <c r="AK28" t="n">
-        <v>14.60567503139979</v>
+        <v>43.88670176134122</v>
       </c>
       <c r="AL28" t="n">
-        <v>25.17513862639682</v>
+        <v>20.1292020334036</v>
       </c>
       <c r="AM28" t="n">
-        <v>61.17288857832195</v>
+        <v>37.42542730312132</v>
       </c>
       <c r="AN28" t="n">
-        <v>12.99981575232233</v>
+        <v>39.69787940515252</v>
       </c>
       <c r="AO28" t="n">
-        <v>13.77706523992847</v>
+        <v>10.34863540056833</v>
       </c>
       <c r="AP28" t="n">
-        <v>10.85300578985618</v>
+        <v>14.46401913772906</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19.03497464573783</v>
+        <v>16.90373561467056</v>
       </c>
       <c r="AR28" t="n">
-        <v>14.05149249671367</v>
+        <v>18.54441643456189</v>
       </c>
       <c r="AS28" t="n">
-        <v>16.56217481586004</v>
+        <v>9.206198832312335</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.7054212704353</v>
+        <v>16.80609652549703</v>
       </c>
       <c r="AU28" t="n">
-        <v>4.726802791418972</v>
+        <v>10.37197568727242</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.49263753503903</v>
+        <v>13.5999695410434</v>
       </c>
       <c r="AW28" t="n">
-        <v>12.34676602109582</v>
+        <v>22.32051131064311</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.680817533393853</v>
+        <v>21.17103788435602</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>14.78062212592492</v>
+        <v>6.507454850200912</v>
       </c>
       <c r="D29" t="n">
-        <v>14.22076989856367</v>
+        <v>136.1373934702947</v>
       </c>
       <c r="E29" t="n">
-        <v>20.55091971358258</v>
+        <v>4.80740675465595</v>
       </c>
       <c r="F29" t="n">
-        <v>8.133878382166518</v>
+        <v>126.2629173774727</v>
       </c>
       <c r="G29" t="n">
-        <v>18.81624669358896</v>
+        <v>20.03553447364249</v>
       </c>
       <c r="H29" t="n">
-        <v>41.91340203813859</v>
+        <v>11.62593032498444</v>
       </c>
       <c r="I29" t="n">
-        <v>18.09908996731014</v>
+        <v>18.61742969913173</v>
       </c>
       <c r="J29" t="n">
-        <v>20.5264906540526</v>
+        <v>22.78769585778575</v>
       </c>
       <c r="K29" t="n">
-        <v>18.00987488469325</v>
+        <v>45.39170871485143</v>
       </c>
       <c r="L29" t="n">
-        <v>78.14235467790004</v>
+        <v>8.128716936332484</v>
       </c>
       <c r="M29" t="n">
-        <v>40.6958661586764</v>
+        <v>63.8721741921284</v>
       </c>
       <c r="N29" t="n">
-        <v>56.30931710223481</v>
+        <v>62.98153721272885</v>
       </c>
       <c r="O29" t="n">
-        <v>9.130463598225495</v>
+        <v>117.6327662865673</v>
       </c>
       <c r="P29" t="n">
-        <v>18.62737386519449</v>
+        <v>127.5606365459134</v>
       </c>
       <c r="Q29" t="n">
-        <v>27.00933639659409</v>
+        <v>75.84075474018968</v>
       </c>
       <c r="R29" t="n">
-        <v>52.65733863624248</v>
+        <v>72.97045916066428</v>
       </c>
       <c r="S29" t="n">
-        <v>25.82140328788407</v>
+        <v>91.23814808673576</v>
       </c>
       <c r="T29" t="n">
-        <v>46.58633058442337</v>
+        <v>31.38622127707158</v>
       </c>
       <c r="U29" t="n">
-        <v>93.62974968121007</v>
+        <v>35.98479037333416</v>
       </c>
       <c r="V29" t="n">
-        <v>42.81653318498184</v>
+        <v>103.267916257392</v>
       </c>
       <c r="W29" t="n">
-        <v>18.82368869339785</v>
+        <v>9.39256326419815</v>
       </c>
       <c r="X29" t="n">
-        <v>50.59211407480664</v>
+        <v>69.57595977385746</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.42875498551574</v>
+        <v>34.78012457664035</v>
       </c>
       <c r="Z29" t="n">
-        <v>25.34077836735726</v>
+        <v>52.65741682497557</v>
       </c>
       <c r="AA29" t="n">
-        <v>68.64025282182841</v>
+        <v>27.3952323504376</v>
       </c>
       <c r="AB29" t="n">
-        <v>50.61824238978009</v>
+        <v>55.54406545294217</v>
       </c>
       <c r="AC29" t="n">
-        <v>42.48846823346293</v>
+        <v>69.38703764202401</v>
       </c>
       <c r="AD29" t="n">
-        <v>30.39063999031343</v>
+        <v>58.84950972204403</v>
       </c>
       <c r="AE29" t="n">
-        <v>3.881716947096951</v>
+        <v>15.53565076484779</v>
       </c>
       <c r="AF29" t="n">
-        <v>31.17787376480987</v>
+        <v>32.8594862279549</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.48075087692014</v>
+        <v>3.744802094103622</v>
       </c>
       <c r="AH29" t="n">
-        <v>57.85395692763817</v>
+        <v>24.39674101371019</v>
       </c>
       <c r="AI29" t="n">
-        <v>33.98820623311118</v>
+        <v>9.972788362341237</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.512738711405736</v>
+        <v>24.2001535743922</v>
       </c>
       <c r="AK29" t="n">
-        <v>22.09737945436895</v>
+        <v>14.17479547599869</v>
       </c>
       <c r="AL29" t="n">
-        <v>6.118899567639391</v>
+        <v>7.294191259177119</v>
       </c>
       <c r="AM29" t="n">
-        <v>51.54303343564156</v>
+        <v>52.92882307665528</v>
       </c>
       <c r="AN29" t="n">
-        <v>29.81328908184361</v>
+        <v>84.9101706216084</v>
       </c>
       <c r="AO29" t="n">
-        <v>35.68442524825797</v>
+        <v>15.058275437517</v>
       </c>
       <c r="AP29" t="n">
-        <v>30.51332841169548</v>
+        <v>16.52393552708914</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21.13797607280515</v>
+        <v>27.05717348245398</v>
       </c>
       <c r="AR29" t="n">
-        <v>28.18229672772529</v>
+        <v>10.01178789345838</v>
       </c>
       <c r="AS29" t="n">
-        <v>24.29485566671087</v>
+        <v>12.37935887425933</v>
       </c>
       <c r="AT29" t="n">
-        <v>42.26212490646358</v>
+        <v>13.7737928605345</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.78631290103426</v>
+        <v>21.16573605458077</v>
       </c>
       <c r="AV29" t="n">
-        <v>21.99024669692058</v>
+        <v>81.91480633943645</v>
       </c>
       <c r="AW29" t="n">
-        <v>10.37663908904677</v>
+        <v>26.37687599605635</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>45.15932536558246</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.692889029696916</v>
+        <v>3.292733058391287</v>
       </c>
       <c r="D30" t="n">
-        <v>4.726792092920956</v>
+        <v>5.461532281448369</v>
       </c>
       <c r="E30" t="n">
-        <v>19.97670871031493</v>
+        <v>2.807738508018464</v>
       </c>
       <c r="F30" t="n">
-        <v>1.893588158823162</v>
+        <v>2.847995266889834</v>
       </c>
       <c r="G30" t="n">
-        <v>56.56078839886536</v>
+        <v>6.008915431685321</v>
       </c>
       <c r="H30" t="n">
-        <v>10.75617172717107</v>
+        <v>12.03755777797982</v>
       </c>
       <c r="I30" t="n">
-        <v>13.85126474566167</v>
+        <v>1.583064182240832</v>
       </c>
       <c r="J30" t="n">
-        <v>19.5199789828312</v>
+        <v>45.52949667443711</v>
       </c>
       <c r="K30" t="n">
-        <v>22.68493661132864</v>
+        <v>29.51316464325459</v>
       </c>
       <c r="L30" t="n">
-        <v>8.452124999999999</v>
+        <v>29.38471307333829</v>
       </c>
       <c r="M30" t="n">
-        <v>9.295579158063266</v>
+        <v>44.34216922470331</v>
       </c>
       <c r="N30" t="n">
-        <v>5.471047220786851</v>
+        <v>21.8505591144463</v>
       </c>
       <c r="O30" t="n">
-        <v>15.70853361973599</v>
+        <v>14.80774377258273</v>
       </c>
       <c r="P30" t="n">
-        <v>77.34546788287111</v>
+        <v>9.640341337059317</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.24700381469347</v>
+        <v>45.67259472421463</v>
       </c>
       <c r="R30" t="n">
-        <v>26.49375</v>
+        <v>43.79196235760944</v>
       </c>
       <c r="S30" t="n">
-        <v>56.632178849939</v>
+        <v>13.82549006896218</v>
       </c>
       <c r="T30" t="n">
-        <v>30.0223889868489</v>
+        <v>36.70475673147506</v>
       </c>
       <c r="U30" t="n">
-        <v>11.40932880552927</v>
+        <v>20.16688213181014</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4216003134395</v>
+        <v>20.35329011778111</v>
       </c>
       <c r="W30" t="n">
-        <v>23.3327645398834</v>
+        <v>15.53526654597587</v>
       </c>
       <c r="X30" t="n">
-        <v>90.84401877484888</v>
+        <v>10.55295212042391</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.48242903592962</v>
+        <v>10.22394788279763</v>
       </c>
       <c r="Z30" t="n">
-        <v>27.43647571955113</v>
+        <v>13.13929412258576</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.51440464834774</v>
+        <v>15.14826748003676</v>
       </c>
       <c r="AB30" t="n">
-        <v>25.975</v>
+        <v>21.38554777111587</v>
       </c>
       <c r="AC30" t="n">
-        <v>20.17201726159252</v>
+        <v>10.36164501177615</v>
       </c>
       <c r="AD30" t="n">
-        <v>49.87712399306888</v>
+        <v>17.67757070556473</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.41092571428571</v>
+        <v>14.46743818022194</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.752055</v>
+        <v>18.41027004561344</v>
       </c>
       <c r="AG30" t="n">
-        <v>23.42234810603558</v>
+        <v>13.11183576798701</v>
       </c>
       <c r="AH30" t="n">
-        <v>11.76008985890885</v>
+        <v>14.11496581491432</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.096402495960922</v>
+        <v>6.439260117734725</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.3696561402882</v>
+        <v>10.23963472899831</v>
       </c>
       <c r="AK30" t="n">
-        <v>14.93252472124966</v>
+        <v>11.08189979792449</v>
       </c>
       <c r="AL30" t="n">
-        <v>24.3716160416801</v>
+        <v>4.882622189382621</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.060832038010012</v>
+        <v>6.086457073466566</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.259469082230147</v>
+        <v>4.156036278750872</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.85478409811211</v>
+        <v>4.517282505752632</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.800321993066573</v>
+        <v>0.7945468917877604</v>
       </c>
       <c r="AQ30" t="n">
-        <v>9.167142857142855</v>
+        <v>1.641020416623785</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.557539300539235</v>
+        <v>10.58620131742447</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.7759679458661769</v>
+        <v>10.8278261652174</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.908308265292157</v>
+        <v>2.135720445899407</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.800838758442445</v>
+        <v>2.246959978439348</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.337674032615411</v>
+        <v>10.40183715060521</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.370066219990751</v>
+        <v>2.196117436359751</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.108835947620231</v>
+        <v>4.102265219616887</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>29.66</v>
+        <v>45.55820290064181</v>
       </c>
       <c r="D31" t="n">
-        <v>34.46</v>
+        <v>2.930357475181899</v>
       </c>
       <c r="E31" t="n">
-        <v>5.63</v>
+        <v>14.81470645328967</v>
       </c>
       <c r="F31" t="n">
-        <v>21.38</v>
+        <v>2.442832840806741</v>
       </c>
       <c r="G31" t="n">
-        <v>8.65</v>
+        <v>23.08447921323158</v>
       </c>
       <c r="H31" t="n">
-        <v>1.77</v>
+        <v>19.91340933186709</v>
       </c>
       <c r="I31" t="n">
-        <v>2.48</v>
+        <v>2.085185513770307</v>
       </c>
       <c r="J31" t="n">
-        <v>14.97</v>
+        <v>135.9424340730349</v>
       </c>
       <c r="K31" t="n">
-        <v>12.47</v>
+        <v>40.11063466414507</v>
       </c>
       <c r="L31" t="n">
-        <v>33.7</v>
+        <v>8.689197271564174</v>
       </c>
       <c r="M31" t="n">
-        <v>29.07</v>
+        <v>27.75144727453068</v>
       </c>
       <c r="N31" t="n">
-        <v>97.33</v>
+        <v>8.378834639413288</v>
       </c>
       <c r="O31" t="n">
-        <v>30.73</v>
+        <v>104.1215000039341</v>
       </c>
       <c r="P31" t="n">
-        <v>94.81</v>
+        <v>52.2253585348675</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.65</v>
+        <v>15.48749492931856</v>
       </c>
       <c r="R31" t="n">
-        <v>2.712317753001716</v>
+        <v>16.03051321415178</v>
       </c>
       <c r="S31" t="n">
-        <v>1.58</v>
+        <v>6.203546076506524</v>
       </c>
       <c r="T31" t="n">
-        <v>27.61</v>
+        <v>37.73564147255811</v>
       </c>
       <c r="U31" t="n">
-        <v>19.87678424999999</v>
+        <v>3.648325675793366</v>
       </c>
       <c r="V31" t="n">
-        <v>32.13</v>
+        <v>15.03228177551501</v>
       </c>
       <c r="W31" t="n">
-        <v>21.37</v>
+        <v>26.77931080989834</v>
       </c>
       <c r="X31" t="n">
-        <v>2.42</v>
+        <v>20.86636557441692</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.87</v>
+        <v>139.5045790007415</v>
       </c>
       <c r="Z31" t="n">
-        <v>4.27</v>
+        <v>7.418681177764143</v>
       </c>
       <c r="AA31" t="n">
-        <v>10.26</v>
+        <v>7.289352873369078</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.61</v>
+        <v>43.88143577217584</v>
       </c>
       <c r="AC31" t="n">
-        <v>5.55</v>
+        <v>15.17772344042779</v>
       </c>
       <c r="AD31" t="n">
-        <v>9.630000000000001</v>
+        <v>13.71969531836124</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.79</v>
+        <v>5.802385514030771</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.37</v>
+        <v>2.399333119647772</v>
       </c>
       <c r="AG31" t="n">
-        <v>3.790083827999999</v>
+        <v>1.237652845457097</v>
       </c>
       <c r="AH31" t="n">
-        <v>16.16</v>
+        <v>4.325552386514511</v>
       </c>
       <c r="AI31" t="n">
-        <v>1</v>
+        <v>5.002979367287341</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.14</v>
+        <v>14.36915799164014</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.16</v>
+        <v>20.42192863303578</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>1.513618170271774</v>
       </c>
       <c r="AM31" t="n">
-        <v>20.48</v>
+        <v>15.33245520892035</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.74</v>
+        <v>2.32615920085923</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.12</v>
+        <v>15.52752238180033</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.94</v>
+        <v>22.23299468297343</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26.31</v>
+        <v>27.82470758701178</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.39</v>
+        <v>6.685221007442347</v>
       </c>
       <c r="AS31" t="n">
-        <v>11.84</v>
+        <v>5.506787648775171</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.94</v>
+        <v>4.475647436470676</v>
       </c>
       <c r="AU31" t="n">
-        <v>10.96</v>
+        <v>12.22361315483199</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.93</v>
+        <v>12.06103439777029</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.37</v>
+        <v>28.42534248480661</v>
       </c>
       <c r="AX31" t="n">
-        <v>12.2375</v>
+        <v>1.305856923425154</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_005.xlsx
+++ b/escenarios_montecarlo/escenario_005.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17.89197700683481</v>
+        <v>33.20861127805412</v>
       </c>
       <c r="D2" t="n">
-        <v>39.01018911715853</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35.80142851116183</v>
+        <v>19.13393688437997</v>
       </c>
       <c r="F2" t="n">
-        <v>8.446448214214115</v>
+        <v>26.3137892342525</v>
       </c>
       <c r="G2" t="n">
-        <v>8.946273705391706</v>
+        <v>120.5349168766573</v>
       </c>
       <c r="H2" t="n">
-        <v>37.34727393135613</v>
+        <v>7.945371735564986</v>
       </c>
       <c r="I2" t="n">
-        <v>11.22261193582653</v>
+        <v>181.6313563076333</v>
       </c>
       <c r="J2" t="n">
-        <v>9.430926999840453</v>
+        <v>16.82423162515212</v>
       </c>
       <c r="K2" t="n">
-        <v>34.40607680033444</v>
+        <v>8.752620407865832</v>
       </c>
       <c r="L2" t="n">
-        <v>99.69291679274831</v>
+        <v>16.23866038424742</v>
       </c>
       <c r="M2" t="n">
-        <v>125.6488322762916</v>
+        <v>34.85977285428546</v>
       </c>
       <c r="N2" t="n">
-        <v>95.97341358088153</v>
+        <v>74.74438694576583</v>
       </c>
       <c r="O2" t="n">
-        <v>109.5311526254191</v>
+        <v>143.1510526647797</v>
       </c>
       <c r="P2" t="n">
-        <v>60.61182127625931</v>
+        <v>140.5426414330195</v>
       </c>
       <c r="Q2" t="n">
-        <v>37.18498904122456</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.32818815888506</v>
+        <v>71.0121615800807</v>
       </c>
       <c r="S2" t="n">
-        <v>56.835371625459</v>
+        <v>44.16234598668809</v>
       </c>
       <c r="T2" t="n">
-        <v>45.95208226091905</v>
+        <v>49.78190221019432</v>
       </c>
       <c r="U2" t="n">
-        <v>42.90526300894519</v>
+        <v>36.52409086218083</v>
       </c>
       <c r="V2" t="n">
-        <v>41.88223166352368</v>
+        <v>32.21327473893247</v>
       </c>
       <c r="W2" t="n">
-        <v>34.12640642263182</v>
+        <v>97.48691488816146</v>
       </c>
       <c r="X2" t="n">
-        <v>45.31805644844845</v>
+        <v>73.17171606715034</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.94577321180252</v>
+        <v>76.07693692673895</v>
       </c>
       <c r="Z2" t="n">
-        <v>134.0052605564067</v>
+        <v>109.0861660986673</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.48263727387649</v>
+        <v>76.33938820850025</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.517654719043</v>
+        <v>54.64219743741366</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.80125446178123</v>
+        <v>127.0201645815222</v>
       </c>
       <c r="AD2" t="n">
-        <v>162.0541611539364</v>
+        <v>116.4403734689223</v>
       </c>
       <c r="AE2" t="n">
-        <v>141.5146271347596</v>
+        <v>150.888594463484</v>
       </c>
       <c r="AF2" t="n">
-        <v>101.6653400690372</v>
+        <v>163.9293952831025</v>
       </c>
       <c r="AG2" t="n">
-        <v>78.32544822907009</v>
+        <v>119.2851730131302</v>
       </c>
       <c r="AH2" t="n">
-        <v>58.94374460509091</v>
+        <v>139.9811930783908</v>
       </c>
       <c r="AI2" t="n">
-        <v>144.3604583257532</v>
+        <v>125.0007668146804</v>
       </c>
       <c r="AJ2" t="n">
-        <v>111.6022088533283</v>
+        <v>53.65196784211813</v>
       </c>
       <c r="AK2" t="n">
-        <v>30.65957087791584</v>
+        <v>84.89593114559665</v>
       </c>
       <c r="AL2" t="n">
-        <v>47.49695097925279</v>
+        <v>132.1258618411329</v>
       </c>
       <c r="AM2" t="n">
-        <v>64.564453993181</v>
+        <v>48.0809119370149</v>
       </c>
       <c r="AN2" t="n">
-        <v>36.55173233730166</v>
+        <v>46.3693537216368</v>
       </c>
       <c r="AO2" t="n">
-        <v>21.02002052363684</v>
+        <v>56.46961405417583</v>
       </c>
       <c r="AP2" t="n">
-        <v>36.30937691441479</v>
+        <v>24.71088878214998</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21.75104542893165</v>
+        <v>13.6280230025785</v>
       </c>
       <c r="AR2" t="n">
-        <v>12.30702991846829</v>
+        <v>20.03248776740602</v>
       </c>
       <c r="AS2" t="n">
-        <v>18.58510697493691</v>
+        <v>22.46928914894039</v>
       </c>
       <c r="AT2" t="n">
-        <v>21.58737350397779</v>
+        <v>25.6061847570331</v>
       </c>
       <c r="AU2" t="n">
-        <v>12.18984024263126</v>
+        <v>22.11499488488204</v>
       </c>
       <c r="AV2" t="n">
-        <v>35.65473799336907</v>
+        <v>17.88760967080625</v>
       </c>
       <c r="AW2" t="n">
-        <v>17.4013468252338</v>
+        <v>25.30221023513619</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.672859414062545</v>
+        <v>23.53848084876589</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.235046920383982</v>
+        <v>4.778770579241622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4834385984497226</v>
+        <v>1.932509135389429</v>
       </c>
       <c r="E3" t="n">
-        <v>7.768413490034914</v>
+        <v>1.096008416962162</v>
       </c>
       <c r="F3" t="n">
-        <v>2.336421267942645</v>
+        <v>2.671990873351463</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2301970598226821</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.239973946708357</v>
+        <v>0.7364146656898376</v>
       </c>
       <c r="I3" t="n">
-        <v>8.321221134920199</v>
+        <v>3.100458381698378</v>
       </c>
       <c r="J3" t="n">
-        <v>2.271388994476538</v>
+        <v>10.91710112351894</v>
       </c>
       <c r="K3" t="n">
-        <v>0.771056990491683</v>
+        <v>6.016974200394267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6684636338512818</v>
+        <v>3.885946771491268</v>
       </c>
       <c r="M3" t="n">
-        <v>3.026009922199914</v>
+        <v>7.23151612613341</v>
       </c>
       <c r="N3" t="n">
-        <v>6.097156404527567</v>
+        <v>4.803887786545882</v>
       </c>
       <c r="O3" t="n">
-        <v>4.664032108464609</v>
+        <v>3.826723157850092</v>
       </c>
       <c r="P3" t="n">
-        <v>7.51819018795844</v>
+        <v>6.821338496807152</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.082353600081092</v>
+        <v>2.675187504890228</v>
       </c>
       <c r="R3" t="n">
-        <v>2.403913919544029</v>
+        <v>1.722389128322549</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38072894901235</v>
+        <v>0.7229217009332134</v>
       </c>
       <c r="T3" t="n">
-        <v>8.137486637634115</v>
+        <v>10.32606469020968</v>
       </c>
       <c r="U3" t="n">
-        <v>15.89673203150269</v>
+        <v>4.883758775023927</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73624907632117</v>
+        <v>5.013176573333222</v>
       </c>
       <c r="W3" t="n">
-        <v>1.49361881180808</v>
+        <v>2.612754704121725</v>
       </c>
       <c r="X3" t="n">
-        <v>3.367707145913764</v>
+        <v>4.843258767832198</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.679414340982497</v>
+        <v>2.515025714163095</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.108702640752024</v>
+        <v>4.210843665296252</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.60321838582992</v>
+        <v>4.153678143538707</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.207397784865769</v>
+        <v>5.434419540273291</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.166136044449628</v>
+        <v>7.759220677391566</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.658612179058396</v>
+        <v>3.101761534420877</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.358279358635739</v>
+        <v>8.66698692634108</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.1991757812955</v>
+        <v>4.74881676923244</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.977139209153446</v>
+        <v>5.357853517643529</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.864154941648674</v>
+        <v>5.808608720139138</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.591265954654637</v>
+        <v>12.32213243573621</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.924688294290477</v>
+        <v>6.979132254858104</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.391384875274841</v>
+        <v>6.297812528561161</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.994962317217615</v>
+        <v>4.785759129198639</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.675402440025302</v>
+        <v>2.866285533017219</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.030021534415559</v>
+        <v>3.049673623198633</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.069094175738288</v>
+        <v>3.179168992190598</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.329594070539339</v>
+        <v>2.483543143748586</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.056250730377443</v>
+        <v>0.6960125170927611</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.220788088120506</v>
+        <v>3.734766862754067</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.483184003280287</v>
+        <v>3.816497120346087</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.920538034303035</v>
+        <v>2.419955686486512</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.041878434322836</v>
+        <v>0.767563351497867</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.536302438180964</v>
+        <v>4.115115177585967</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.027446540850105</v>
+        <v>4.225223881495264</v>
       </c>
       <c r="AX3" t="n">
-        <v>13.95215713500719</v>
+        <v>3.268236111728154</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.60253712203114</v>
+        <v>8.969078669795701</v>
       </c>
       <c r="D4" t="n">
-        <v>21.55464079696694</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.203319586809013</v>
+        <v>11.91800520332642</v>
       </c>
       <c r="F4" t="n">
-        <v>2.323206751588915</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.004814428139088</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.28277802489428</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.7592746819737</v>
+        <v>133.9315977862266</v>
       </c>
       <c r="J4" t="n">
-        <v>40.8898732687428</v>
+        <v>138.5960284860233</v>
       </c>
       <c r="K4" t="n">
-        <v>127.5424136707144</v>
+        <v>8.45984991954554</v>
       </c>
       <c r="L4" t="n">
-        <v>51.15312631205357</v>
+        <v>63.11276551167558</v>
       </c>
       <c r="M4" t="n">
-        <v>55.48804889334245</v>
+        <v>108.7687164486593</v>
       </c>
       <c r="N4" t="n">
-        <v>184.1215319939828</v>
+        <v>41.89700221420841</v>
       </c>
       <c r="O4" t="n">
-        <v>104.7432856995074</v>
+        <v>37.17719817893713</v>
       </c>
       <c r="P4" t="n">
-        <v>107.6180593227976</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.70435626291938</v>
+        <v>79.48338775739531</v>
       </c>
       <c r="R4" t="n">
-        <v>55.1497302212427</v>
+        <v>99.22109866235866</v>
       </c>
       <c r="S4" t="n">
-        <v>53.2095534299286</v>
+        <v>63.6486024589824</v>
       </c>
       <c r="T4" t="n">
-        <v>125.1860354518706</v>
+        <v>165.3550614537666</v>
       </c>
       <c r="U4" t="n">
-        <v>72.38571088238066</v>
+        <v>9.435843715293341</v>
       </c>
       <c r="V4" t="n">
-        <v>75.03640810521026</v>
+        <v>64.3424767543365</v>
       </c>
       <c r="W4" t="n">
-        <v>65.13269051794789</v>
+        <v>83.41810554214558</v>
       </c>
       <c r="X4" t="n">
-        <v>47.55224123309434</v>
+        <v>55.40995184867532</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74914287598881</v>
+        <v>28.00680493297333</v>
       </c>
       <c r="Z4" t="n">
-        <v>71.78109063225294</v>
+        <v>91.04157276431246</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.87631193474156</v>
+        <v>49.36705951465475</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.51899455185716</v>
+        <v>82.61139857030346</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.76405892033975</v>
+        <v>82.13692161459267</v>
       </c>
       <c r="AD4" t="n">
-        <v>93.05343151261837</v>
+        <v>87.39438180791258</v>
       </c>
       <c r="AE4" t="n">
-        <v>51.0389359386096</v>
+        <v>59.01327954678085</v>
       </c>
       <c r="AF4" t="n">
-        <v>98.57119061432955</v>
+        <v>61.0085027220934</v>
       </c>
       <c r="AG4" t="n">
-        <v>61.90694911825324</v>
+        <v>18.12792019835087</v>
       </c>
       <c r="AH4" t="n">
-        <v>57.39242827452674</v>
+        <v>81.61871628024774</v>
       </c>
       <c r="AI4" t="n">
-        <v>40.56857076316818</v>
+        <v>69.65314953339038</v>
       </c>
       <c r="AJ4" t="n">
-        <v>71.31019736530271</v>
+        <v>38.89033986067909</v>
       </c>
       <c r="AK4" t="n">
-        <v>27.95622413341133</v>
+        <v>12.15957383991705</v>
       </c>
       <c r="AL4" t="n">
-        <v>23.04911704949946</v>
+        <v>68.63681535976511</v>
       </c>
       <c r="AM4" t="n">
-        <v>27.5345967272178</v>
+        <v>33.75166341473555</v>
       </c>
       <c r="AN4" t="n">
-        <v>37.03829281385231</v>
+        <v>19.47209668963854</v>
       </c>
       <c r="AO4" t="n">
-        <v>30.60633239191793</v>
+        <v>26.72437230688168</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.9556706932957</v>
+        <v>12.75993715177913</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11.01906895905283</v>
+        <v>6.787520557542372</v>
       </c>
       <c r="AR4" t="n">
-        <v>13.22518307716473</v>
+        <v>20.70674149783513</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.828064653052049</v>
+        <v>18.67356849815794</v>
       </c>
       <c r="AT4" t="n">
-        <v>13.30750815588224</v>
+        <v>9.088570266480071</v>
       </c>
       <c r="AU4" t="n">
-        <v>15.47903538408714</v>
+        <v>6.158960186712907</v>
       </c>
       <c r="AV4" t="n">
-        <v>15.71153221413197</v>
+        <v>13.94550858667666</v>
       </c>
       <c r="AW4" t="n">
-        <v>14.3556172289715</v>
+        <v>13.90485462482654</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.47718782510276</v>
+        <v>10.22676432731723</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>13.06544370348992</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.50566753883412</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.0690509807652</v>
+        <v>12.49717277252227</v>
       </c>
       <c r="F5" t="n">
-        <v>89.89195153311823</v>
+        <v>23.45018927371245</v>
       </c>
       <c r="G5" t="n">
-        <v>8.589233426935307</v>
+        <v>16.65297705363964</v>
       </c>
       <c r="H5" t="n">
-        <v>4.175775561413137</v>
+        <v>5.276411192065057</v>
       </c>
       <c r="I5" t="n">
-        <v>83.50682334408593</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.08946833979394</v>
+        <v>9.890919475833872</v>
       </c>
       <c r="K5" t="n">
-        <v>92.55898435504463</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>21.476603806347</v>
+        <v>103.328597323173</v>
       </c>
       <c r="M5" t="n">
-        <v>75.43458704088265</v>
+        <v>39.14881661183063</v>
       </c>
       <c r="N5" t="n">
-        <v>7.256473763852036</v>
+        <v>33.22016498657123</v>
       </c>
       <c r="O5" t="n">
-        <v>16.9978530468068</v>
+        <v>41.02079223814489</v>
       </c>
       <c r="P5" t="n">
-        <v>51.0318832340088</v>
+        <v>0.8365959628153341</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.5203799255313</v>
+        <v>27.12176784938402</v>
       </c>
       <c r="R5" t="n">
-        <v>114.2682691299316</v>
+        <v>158.1284693636929</v>
       </c>
       <c r="S5" t="n">
-        <v>66.10320408226269</v>
+        <v>6.88980683490229</v>
       </c>
       <c r="T5" t="n">
-        <v>82.19622753160957</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>135.2007884708894</v>
+        <v>58.39301242572641</v>
       </c>
       <c r="V5" t="n">
-        <v>57.94015557491151</v>
+        <v>55.91495781420773</v>
       </c>
       <c r="W5" t="n">
-        <v>30.41443586016167</v>
+        <v>36.66871403002085</v>
       </c>
       <c r="X5" t="n">
-        <v>32.8952802468466</v>
+        <v>20.88530245004894</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.14859872109626</v>
+        <v>60.90613433193826</v>
       </c>
       <c r="Z5" t="n">
-        <v>62.26564976904242</v>
+        <v>65.96293669858368</v>
       </c>
       <c r="AA5" t="n">
-        <v>30.91503198357761</v>
+        <v>21.95651328396075</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.16849729339297</v>
+        <v>12.95526314904837</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.002524492861266</v>
+        <v>22.98456839023345</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.20699963311726</v>
+        <v>26.86601762484471</v>
       </c>
       <c r="AE5" t="n">
-        <v>10.00776453940715</v>
+        <v>43.92888881471593</v>
       </c>
       <c r="AF5" t="n">
-        <v>31.39469849856926</v>
+        <v>31.02718243472235</v>
       </c>
       <c r="AG5" t="n">
-        <v>31.07875008938414</v>
+        <v>70.83024720968065</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.045883912413872</v>
+        <v>38.5325280397012</v>
       </c>
       <c r="AI5" t="n">
-        <v>12.81427118755238</v>
+        <v>45.90351169540984</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.72322876881966</v>
+        <v>48.20119813202739</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.248391612813506</v>
+        <v>75.80627891319067</v>
       </c>
       <c r="AL5" t="n">
-        <v>25.99792558937945</v>
+        <v>17.12119827534919</v>
       </c>
       <c r="AM5" t="n">
-        <v>29.27477914075525</v>
+        <v>36.97062956620147</v>
       </c>
       <c r="AN5" t="n">
-        <v>51.73488744229583</v>
+        <v>24.76554691891605</v>
       </c>
       <c r="AO5" t="n">
-        <v>17.37855049582911</v>
+        <v>14.91014423773293</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.771542248706625</v>
+        <v>51.5188496565235</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16.2022301747895</v>
+        <v>23.74563957939464</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.16309997216385</v>
+        <v>5.553112131665882</v>
       </c>
       <c r="AS5" t="n">
-        <v>25.55497955580197</v>
+        <v>18.71204407097546</v>
       </c>
       <c r="AT5" t="n">
-        <v>22.01207307126879</v>
+        <v>26.08668520031653</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.614312772922386</v>
+        <v>25.20707113226853</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.349995313799186</v>
+        <v>13.16399119089713</v>
       </c>
       <c r="AW5" t="n">
-        <v>13.885203471636</v>
+        <v>2.989483041905145</v>
       </c>
       <c r="AX5" t="n">
-        <v>25.64051899518035</v>
+        <v>15.59701314544925</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.471160905759548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9.221006335291479</v>
+        <v>1.786310315075212</v>
       </c>
       <c r="E6" t="n">
-        <v>2.121439758219211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.665277943012179</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.39254429668055</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.046446974443523</v>
+        <v>11.32895139492638</v>
       </c>
       <c r="I6" t="n">
-        <v>2.842491349494839</v>
+        <v>2.472786163952374</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5411345985219</v>
+        <v>3.766867423527492</v>
       </c>
       <c r="K6" t="n">
-        <v>25.09441911386675</v>
+        <v>14.17512251409811</v>
       </c>
       <c r="L6" t="n">
-        <v>5.528200537584842</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>130.0976934485904</v>
+        <v>66.938636302825</v>
       </c>
       <c r="N6" t="n">
-        <v>29.29044936083596</v>
+        <v>41.74951003905728</v>
       </c>
       <c r="O6" t="n">
-        <v>18.17732403035063</v>
+        <v>7.544683419986239</v>
       </c>
       <c r="P6" t="n">
-        <v>22.26239504515822</v>
+        <v>85.35519572968053</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.09945941629201</v>
+        <v>19.62983213601681</v>
       </c>
       <c r="R6" t="n">
-        <v>24.98891395775657</v>
+        <v>72.81411291485361</v>
       </c>
       <c r="S6" t="n">
-        <v>27.96548643675846</v>
+        <v>20.88079821773248</v>
       </c>
       <c r="T6" t="n">
-        <v>13.2865947774548</v>
+        <v>17.68722264846652</v>
       </c>
       <c r="U6" t="n">
-        <v>21.088036966108</v>
+        <v>17.53908164635244</v>
       </c>
       <c r="V6" t="n">
-        <v>30.19042851088034</v>
+        <v>4.505685534033312</v>
       </c>
       <c r="W6" t="n">
-        <v>19.18071988505229</v>
+        <v>33.40633046003717</v>
       </c>
       <c r="X6" t="n">
-        <v>8.757931202784537</v>
+        <v>25.41904645623766</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.22935657021202</v>
+        <v>29.277714373379</v>
       </c>
       <c r="Z6" t="n">
-        <v>43.23558018190183</v>
+        <v>9.524054654506642</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.09156099376279</v>
+        <v>17.30812188351699</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.49136265962947</v>
+        <v>16.37116277282263</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.32789799971791</v>
+        <v>10.33772403239199</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.87793039405323</v>
+        <v>14.39159206373959</v>
       </c>
       <c r="AE6" t="n">
-        <v>30.45233078161463</v>
+        <v>13.65778876699836</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.11898413005333</v>
+        <v>13.89367559362913</v>
       </c>
       <c r="AG6" t="n">
-        <v>18.15827594890308</v>
+        <v>17.00154647127909</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.361560338971152</v>
+        <v>7.453860038372881</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.93781318170434</v>
+        <v>11.45351971792916</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.86156421089966</v>
+        <v>10.77195280928657</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.764258371418717</v>
+        <v>4.124072931071789</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.016812910618847</v>
+        <v>12.11278290541702</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.121399833291181</v>
+        <v>8.041761659205076</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.021969802877145</v>
+        <v>4.128700423160385</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.58751338274669</v>
+        <v>4.124962239524592</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.534262592994261</v>
+        <v>2.581452824417751</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.565988091013815</v>
+        <v>5.22328324710519</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.479892566617977</v>
+        <v>1.869634339206977</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.196565084768308</v>
+        <v>2.34569940749898</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.735685173713607</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>20.76306831869736</v>
+        <v>3.485099752921031</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.2064809457565169</v>
+        <v>0.5684426740955049</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.943459773126288</v>
+        <v>2.412054049583591</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.626746989456564</v>
+        <v>1.51826032613456</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.53705147734423</v>
+        <v>3.282386239357253</v>
       </c>
       <c r="D7" t="n">
-        <v>18.02544039958661</v>
+        <v>7.656802239760836</v>
       </c>
       <c r="E7" t="n">
-        <v>3.491926330626437</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.06156064061786</v>
+        <v>22.16609936714359</v>
       </c>
       <c r="G7" t="n">
-        <v>7.979894674427163</v>
+        <v>11.99960115926282</v>
       </c>
       <c r="H7" t="n">
-        <v>15.9295369927425</v>
+        <v>18.79028523375891</v>
       </c>
       <c r="I7" t="n">
-        <v>8.536533551661966</v>
+        <v>31.36846832954975</v>
       </c>
       <c r="J7" t="n">
-        <v>4.870162357657532</v>
+        <v>26.22227197016294</v>
       </c>
       <c r="K7" t="n">
-        <v>106.89800561084</v>
+        <v>40.4871570941658</v>
       </c>
       <c r="L7" t="n">
-        <v>13.42723091589098</v>
+        <v>49.30007407642428</v>
       </c>
       <c r="M7" t="n">
-        <v>71.3827383162244</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>87.51551333011724</v>
+        <v>102.0905811330621</v>
       </c>
       <c r="O7" t="n">
-        <v>54.31574121202043</v>
+        <v>13.36544433537773</v>
       </c>
       <c r="P7" t="n">
-        <v>6.056613906806502</v>
+        <v>26.73947430918389</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.68157138118099</v>
+        <v>39.20534954316553</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35576128072273</v>
+        <v>52.99206657040318</v>
       </c>
       <c r="S7" t="n">
-        <v>23.53146935924982</v>
+        <v>10.82297342673785</v>
       </c>
       <c r="T7" t="n">
-        <v>12.20178331255443</v>
+        <v>29.62964376622839</v>
       </c>
       <c r="U7" t="n">
-        <v>24.99422798690265</v>
+        <v>33.58564997224104</v>
       </c>
       <c r="V7" t="n">
-        <v>44.3562039952064</v>
+        <v>22.98482081192784</v>
       </c>
       <c r="W7" t="n">
-        <v>4.905492444080649</v>
+        <v>0.6903514180489961</v>
       </c>
       <c r="X7" t="n">
-        <v>18.9438660684521</v>
+        <v>9.792633203311059</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.44207547077279</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>55.14827287945815</v>
+        <v>33.33796575414986</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.439230819706249</v>
+        <v>2.327835315955842</v>
       </c>
       <c r="AB7" t="n">
-        <v>28.15272170546232</v>
+        <v>64.78802148973215</v>
       </c>
       <c r="AC7" t="n">
-        <v>21.41002148834092</v>
+        <v>14.5526448482136</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.677881926853339</v>
+        <v>9.376415014362394</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.68804777737822</v>
+        <v>9.112024378039424</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.9413613304343508</v>
+        <v>6.298047540791915</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.2742004793251</v>
+        <v>16.66986917873932</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.46980636234449</v>
+        <v>4.133635535761038</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.32831991989086</v>
+        <v>7.815788567581489</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.303732438380175</v>
+        <v>0.5607315830904858</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6849578362563019</v>
+        <v>23.54963155169181</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.583886711807661</v>
+        <v>10.761054361075</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.739283765405375</v>
+        <v>24.22677455082713</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.467344942999246</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.896847208373448</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.043061701899576</v>
+        <v>5.646480268072644</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.427733995616265</v>
+        <v>13.59142355601086</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.285369526983773</v>
+        <v>9.163316778671099</v>
       </c>
       <c r="AS7" t="n">
-        <v>39.49005785161675</v>
+        <v>13.90400438335704</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.83020259777972</v>
+        <v>1.533851994300563</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.949548152805034</v>
+        <v>13.13184023560899</v>
       </c>
       <c r="AV7" t="n">
-        <v>9.050494086339684</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.169391540640808</v>
+        <v>1.76917684064457</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.268932671210798</v>
+        <v>13.41255538349215</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44778346461674</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>21.58862206992626</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>27.48065530403124</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27.27434303154805</v>
+        <v>76.62242879022139</v>
       </c>
       <c r="G8" t="n">
-        <v>14.46443027661964</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>52.48993394840461</v>
+        <v>31.08340056883473</v>
       </c>
       <c r="I8" t="n">
-        <v>81.06845477671118</v>
+        <v>173.1380564393833</v>
       </c>
       <c r="J8" t="n">
-        <v>40.64607464484082</v>
+        <v>26.90074462283856</v>
       </c>
       <c r="K8" t="n">
-        <v>175.2976327106974</v>
+        <v>43.19846887871073</v>
       </c>
       <c r="L8" t="n">
-        <v>82.05206639372328</v>
+        <v>51.63196860257117</v>
       </c>
       <c r="M8" t="n">
-        <v>76.18032352468295</v>
+        <v>77.57589375944214</v>
       </c>
       <c r="N8" t="n">
-        <v>40.21686389439309</v>
+        <v>224.5012375427012</v>
       </c>
       <c r="O8" t="n">
-        <v>79.15253672083138</v>
+        <v>69.81379564918912</v>
       </c>
       <c r="P8" t="n">
-        <v>72.04986774205207</v>
+        <v>44.16840747597124</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.42369103018557</v>
+        <v>4.350221765072972</v>
       </c>
       <c r="R8" t="n">
-        <v>102.5683073972598</v>
+        <v>118.7866617683834</v>
       </c>
       <c r="S8" t="n">
-        <v>40.50952642374179</v>
+        <v>28.97983953580551</v>
       </c>
       <c r="T8" t="n">
-        <v>79.70662066014275</v>
+        <v>80.82755950355771</v>
       </c>
       <c r="U8" t="n">
-        <v>34.11389298385022</v>
+        <v>37.01168140905167</v>
       </c>
       <c r="V8" t="n">
-        <v>82.39608611585855</v>
+        <v>50.10476643179829</v>
       </c>
       <c r="W8" t="n">
-        <v>99.61732297596728</v>
+        <v>94.35953786893863</v>
       </c>
       <c r="X8" t="n">
-        <v>59.05205560063833</v>
+        <v>53.27250190239563</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.71274095596267</v>
+        <v>97.51374238467783</v>
       </c>
       <c r="Z8" t="n">
-        <v>64.72667620995117</v>
+        <v>29.14368142642329</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.2098698834064</v>
+        <v>46.20392805535971</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.5274355749331</v>
+        <v>129.3817361769262</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.4991950430471</v>
+        <v>169.2397750774483</v>
       </c>
       <c r="AD8" t="n">
-        <v>121.6597989630969</v>
+        <v>82.92026924626055</v>
       </c>
       <c r="AE8" t="n">
-        <v>181.2548580837207</v>
+        <v>128.4850530350519</v>
       </c>
       <c r="AF8" t="n">
-        <v>63.98488634232744</v>
+        <v>89.55482273350475</v>
       </c>
       <c r="AG8" t="n">
-        <v>98.08955941561253</v>
+        <v>5.401803305426498</v>
       </c>
       <c r="AH8" t="n">
-        <v>89.89151563039466</v>
+        <v>60.18198953768584</v>
       </c>
       <c r="AI8" t="n">
-        <v>76.97362787974271</v>
+        <v>107.5020602433659</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65.19207069300401</v>
+        <v>102.7583922466651</v>
       </c>
       <c r="AK8" t="n">
-        <v>83.99843798499373</v>
+        <v>116.9666502957369</v>
       </c>
       <c r="AL8" t="n">
-        <v>42.5593756624483</v>
+        <v>146.154228451977</v>
       </c>
       <c r="AM8" t="n">
-        <v>30.13953116678075</v>
+        <v>44.79696287399243</v>
       </c>
       <c r="AN8" t="n">
-        <v>35.51752517010488</v>
+        <v>25.90720833307603</v>
       </c>
       <c r="AO8" t="n">
-        <v>24.1350593012236</v>
+        <v>38.2937728413748</v>
       </c>
       <c r="AP8" t="n">
-        <v>15.63641397453405</v>
+        <v>30.35732441740534</v>
       </c>
       <c r="AQ8" t="n">
-        <v>33.66669783472302</v>
+        <v>17.08224138857083</v>
       </c>
       <c r="AR8" t="n">
-        <v>13.62520842762718</v>
+        <v>28.63369256015631</v>
       </c>
       <c r="AS8" t="n">
-        <v>17.48989871323429</v>
+        <v>18.09150636207171</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.69472923358946</v>
+        <v>10.37594885371876</v>
       </c>
       <c r="AU8" t="n">
-        <v>13.74988441864795</v>
+        <v>14.72778091377503</v>
       </c>
       <c r="AV8" t="n">
-        <v>26.38502148227725</v>
+        <v>22.24138304715471</v>
       </c>
       <c r="AW8" t="n">
-        <v>15.66071198209887</v>
+        <v>22.46007364160741</v>
       </c>
       <c r="AX8" t="n">
-        <v>17.40458000674364</v>
+        <v>28.24780807616645</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>9.99470747206782</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.36716234826755</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.475914603147829</v>
+        <v>3.565973925450256</v>
       </c>
       <c r="F9" t="n">
-        <v>0.779587524068078</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.162319467034058</v>
+        <v>1.563617314936822</v>
       </c>
       <c r="H9" t="n">
-        <v>9.369926485571806</v>
+        <v>5.854291970867085</v>
       </c>
       <c r="I9" t="n">
-        <v>7.519274517941166</v>
+        <v>4.58623864246555</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06214973567452037</v>
+        <v>4.164133999044997</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4001844483884522</v>
+        <v>4.631005807953119</v>
       </c>
       <c r="L9" t="n">
-        <v>6.465856978511686</v>
+        <v>1.081635705410355</v>
       </c>
       <c r="M9" t="n">
-        <v>3.316394651160443</v>
+        <v>3.2208337819494</v>
       </c>
       <c r="N9" t="n">
-        <v>11.95412172922909</v>
+        <v>2.759577477319888</v>
       </c>
       <c r="O9" t="n">
-        <v>6.16462499912536</v>
+        <v>2.474855761996837</v>
       </c>
       <c r="P9" t="n">
-        <v>2.879245637529207</v>
+        <v>3.367083000031598</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.220880739516677</v>
+        <v>6.170540350729945</v>
       </c>
       <c r="R9" t="n">
-        <v>2.696343346441178</v>
+        <v>5.784220193897589</v>
       </c>
       <c r="S9" t="n">
-        <v>4.747498217841454</v>
+        <v>4.751126349194163</v>
       </c>
       <c r="T9" t="n">
-        <v>3.053725593048219</v>
+        <v>4.748659301418962</v>
       </c>
       <c r="U9" t="n">
-        <v>1.137753396343242</v>
+        <v>3.765276422362068</v>
       </c>
       <c r="V9" t="n">
-        <v>2.730489558103242</v>
+        <v>4.802693120827556</v>
       </c>
       <c r="W9" t="n">
-        <v>3.097855506553437</v>
+        <v>5.751568467513606</v>
       </c>
       <c r="X9" t="n">
-        <v>1.968049310486685</v>
+        <v>5.944091841085969</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.979324269996587</v>
+        <v>4.88943656637301</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.374496362870295</v>
+        <v>5.594701254463943</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.763950576457502</v>
+        <v>4.902685933443005</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.921558448967315</v>
+        <v>6.424815052263323</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.1725697709748</v>
+        <v>4.398162330830643</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.965653364049122</v>
+        <v>16.95415993105967</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.064338784046448</v>
+        <v>10.49450861033817</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.314069756334013</v>
+        <v>8.405890558944586</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.993655881967477</v>
+        <v>5.634963977784836</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.843322489400715</v>
+        <v>4.470820402310733</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.093443012215952</v>
+        <v>4.135755576107655</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.193351616122259</v>
+        <v>13.15819966605703</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.830613395770773</v>
+        <v>4.546079905438818</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.925601459676538</v>
+        <v>4.506615239292842</v>
       </c>
       <c r="AM9" t="n">
-        <v>21.25285739457983</v>
+        <v>1.905306470713025</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.223986217523224</v>
+        <v>6.257329478778223</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.172268697038277</v>
+        <v>4.68703994788974</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.437706647735743</v>
+        <v>4.774631234668744</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7.07622490641778</v>
+        <v>4.975551282216339</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.649862628369667</v>
+        <v>2.295039626162747</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.724863175719068</v>
+        <v>2.443842046800697</v>
       </c>
       <c r="AT9" t="n">
-        <v>9.21779398400256</v>
+        <v>0.9231213464932595</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.545955351974764</v>
+        <v>3.424835414268935</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.768739962424826</v>
+        <v>3.438108238958972</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.11114874885089</v>
+        <v>1.264041238767706</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.101127247870952</v>
+        <v>4.384816630816989</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>14.19414697508676</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.67702156830281</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.31990565645776</v>
+        <v>10.16799694854934</v>
       </c>
       <c r="F10" t="n">
-        <v>31.07661690548008</v>
+        <v>12.47572200594379</v>
       </c>
       <c r="G10" t="n">
-        <v>8.778962682914241</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.73209510175148</v>
+        <v>1.335615201821487</v>
       </c>
       <c r="I10" t="n">
-        <v>14.96000702161142</v>
+        <v>53.99284674168476</v>
       </c>
       <c r="J10" t="n">
-        <v>31.85054479561934</v>
+        <v>1.179029352572638</v>
       </c>
       <c r="K10" t="n">
-        <v>70.29011325272977</v>
+        <v>69.42914417290353</v>
       </c>
       <c r="L10" t="n">
-        <v>36.86836583216876</v>
+        <v>66.51848281653417</v>
       </c>
       <c r="M10" t="n">
-        <v>84.74725715333889</v>
+        <v>38.36560293467568</v>
       </c>
       <c r="N10" t="n">
-        <v>95.28847344370207</v>
+        <v>75.36662940322391</v>
       </c>
       <c r="O10" t="n">
-        <v>64.85149469965327</v>
+        <v>53.27186862396556</v>
       </c>
       <c r="P10" t="n">
-        <v>146.52514894374</v>
+        <v>83.58401412939357</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.9426927713912</v>
+        <v>23.20893727740369</v>
       </c>
       <c r="R10" t="n">
-        <v>24.29058990933926</v>
+        <v>57.40189701134273</v>
       </c>
       <c r="S10" t="n">
-        <v>19.75827916727981</v>
+        <v>18.77231788289347</v>
       </c>
       <c r="T10" t="n">
-        <v>136.9922621704397</v>
+        <v>7.231720146220347</v>
       </c>
       <c r="U10" t="n">
-        <v>54.58049157603538</v>
+        <v>65.66795154902579</v>
       </c>
       <c r="V10" t="n">
-        <v>65.34685619438396</v>
+        <v>26.08086334375542</v>
       </c>
       <c r="W10" t="n">
-        <v>84.85410717218979</v>
+        <v>77.67334214323922</v>
       </c>
       <c r="X10" t="n">
-        <v>60.52104349792928</v>
+        <v>41.19661541586733</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.87375684101708</v>
+        <v>18.40419642996041</v>
       </c>
       <c r="Z10" t="n">
-        <v>63.80702437295744</v>
+        <v>78.4014351385929</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.68890670032376</v>
+        <v>73.29867430526416</v>
       </c>
       <c r="AB10" t="n">
-        <v>47.50575647851689</v>
+        <v>87.17019908019014</v>
       </c>
       <c r="AC10" t="n">
-        <v>38.44023632205406</v>
+        <v>84.40638007065434</v>
       </c>
       <c r="AD10" t="n">
-        <v>51.57153139645312</v>
+        <v>69.30612952262862</v>
       </c>
       <c r="AE10" t="n">
-        <v>147.7940742250456</v>
+        <v>104.1478685029036</v>
       </c>
       <c r="AF10" t="n">
-        <v>81.5055721659858</v>
+        <v>67.55264626395106</v>
       </c>
       <c r="AG10" t="n">
-        <v>82.48799807896906</v>
+        <v>58.58644594669379</v>
       </c>
       <c r="AH10" t="n">
-        <v>39.88101508398807</v>
+        <v>49.90474400864886</v>
       </c>
       <c r="AI10" t="n">
-        <v>65.34208850409576</v>
+        <v>74.35766353247124</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36.94280970982046</v>
+        <v>69.3684652848757</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.98354298400744</v>
+        <v>32.24328262522861</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.50166193528957</v>
+        <v>20.04533653398264</v>
       </c>
       <c r="AM10" t="n">
-        <v>20.02728407887347</v>
+        <v>22.14549406676564</v>
       </c>
       <c r="AN10" t="n">
-        <v>47.23190214494958</v>
+        <v>37.15341803146313</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.24917458997187</v>
+        <v>21.39556880456501</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.23881724446819</v>
+        <v>14.5203266546596</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24.61680104758732</v>
+        <v>15.15102386810138</v>
       </c>
       <c r="AR10" t="n">
-        <v>20.79883921099858</v>
+        <v>17.13489228661515</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.337056092969371</v>
+        <v>17.36336869946453</v>
       </c>
       <c r="AT10" t="n">
-        <v>19.07299471046123</v>
+        <v>11.0577776263249</v>
       </c>
       <c r="AU10" t="n">
-        <v>12.08255271837237</v>
+        <v>11.40014972493576</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.781727436604875</v>
+        <v>8.024793651900668</v>
       </c>
       <c r="AW10" t="n">
-        <v>17.96550869812031</v>
+        <v>10.16740289518162</v>
       </c>
       <c r="AX10" t="n">
-        <v>12.81487648464982</v>
+        <v>10.87974650006114</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>34.68067749318053</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.81230541524661</v>
+        <v>16.4552131428055</v>
       </c>
       <c r="E11" t="n">
-        <v>12.62509057570979</v>
+        <v>26.33031000548187</v>
       </c>
       <c r="F11" t="n">
-        <v>16.24436986030577</v>
+        <v>9.026885896343687</v>
       </c>
       <c r="G11" t="n">
-        <v>19.40952765650889</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10.83938463714343</v>
+        <v>10.16570450754705</v>
       </c>
       <c r="I11" t="n">
-        <v>32.41416790386796</v>
+        <v>0.3098590439241873</v>
       </c>
       <c r="J11" t="n">
-        <v>89.46113475776573</v>
+        <v>50.56309379235216</v>
       </c>
       <c r="K11" t="n">
-        <v>14.80164887160027</v>
+        <v>32.14386439129206</v>
       </c>
       <c r="L11" t="n">
-        <v>19.0468702408202</v>
+        <v>154.2196431408117</v>
       </c>
       <c r="M11" t="n">
-        <v>2.608043284121677</v>
+        <v>34.5243762483244</v>
       </c>
       <c r="N11" t="n">
-        <v>59.01768363794773</v>
+        <v>51.09656708660202</v>
       </c>
       <c r="O11" t="n">
-        <v>11.0936622247006</v>
+        <v>104.5043008353337</v>
       </c>
       <c r="P11" t="n">
-        <v>46.64969467515851</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.79177038910652</v>
+        <v>11.702669478019</v>
       </c>
       <c r="R11" t="n">
-        <v>257.225124656064</v>
+        <v>136.9851127795997</v>
       </c>
       <c r="S11" t="n">
-        <v>57.15643927159125</v>
+        <v>19.25947195443564</v>
       </c>
       <c r="T11" t="n">
-        <v>42.42554755596108</v>
+        <v>35.11835519763851</v>
       </c>
       <c r="U11" t="n">
-        <v>23.54625878873015</v>
+        <v>59.28761435308233</v>
       </c>
       <c r="V11" t="n">
-        <v>114.3259791729683</v>
+        <v>39.39285932652773</v>
       </c>
       <c r="W11" t="n">
-        <v>24.5753105049655</v>
+        <v>16.84295374328428</v>
       </c>
       <c r="X11" t="n">
-        <v>176.0758772613281</v>
+        <v>50.34289703437233</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.87162791106203</v>
+        <v>77.26936789459531</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.39546596420239</v>
+        <v>53.98036087197836</v>
       </c>
       <c r="AA11" t="n">
-        <v>57.66613457501027</v>
+        <v>121.8259961086226</v>
       </c>
       <c r="AB11" t="n">
-        <v>24.99710173529482</v>
+        <v>40.67043278563011</v>
       </c>
       <c r="AC11" t="n">
-        <v>25.55883916121162</v>
+        <v>54.65164659567981</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.71866880399953</v>
+        <v>24.61848829792854</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.82431722232695</v>
+        <v>23.79389960094417</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.37347643089272</v>
+        <v>48.21570939333501</v>
       </c>
       <c r="AG11" t="n">
-        <v>7.472637814713777</v>
+        <v>82.88571219537917</v>
       </c>
       <c r="AH11" t="n">
-        <v>21.93494123185143</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>24.8111343648951</v>
+        <v>21.56417579835109</v>
       </c>
       <c r="AJ11" t="n">
-        <v>39.27651425941816</v>
+        <v>35.25659822201276</v>
       </c>
       <c r="AK11" t="n">
-        <v>13.92908549260444</v>
+        <v>66.43570652513584</v>
       </c>
       <c r="AL11" t="n">
-        <v>50.06232692429484</v>
+        <v>18.79347395872868</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.893278832775689</v>
+        <v>8.279557283758477</v>
       </c>
       <c r="AN11" t="n">
-        <v>20.98796312785891</v>
+        <v>26.792458691128</v>
       </c>
       <c r="AO11" t="n">
-        <v>30.39509266594672</v>
+        <v>12.10962160298107</v>
       </c>
       <c r="AP11" t="n">
-        <v>39.97289572762481</v>
+        <v>28.44291961704513</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.792200208024946</v>
+        <v>8.601232915679532</v>
       </c>
       <c r="AR11" t="n">
-        <v>60.25153058171638</v>
+        <v>26.19059092145581</v>
       </c>
       <c r="AS11" t="n">
-        <v>8.818724467752958</v>
+        <v>13.49293086486605</v>
       </c>
       <c r="AT11" t="n">
-        <v>75.87634425571366</v>
+        <v>26.06039093572196</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.419744015160695</v>
+        <v>18.46712244308397</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.288348343457876</v>
+        <v>16.67696912324912</v>
       </c>
       <c r="AW11" t="n">
-        <v>47.15964203307917</v>
+        <v>28.6526689989918</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.819103286777136</v>
+        <v>28.26891254713839</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.418721167890279</v>
+        <v>8.949322543084087</v>
       </c>
       <c r="D12" t="n">
-        <v>4.513428410100364</v>
+        <v>0.9116401976494418</v>
       </c>
       <c r="E12" t="n">
-        <v>3.343652095821213</v>
+        <v>15.61102824806524</v>
       </c>
       <c r="F12" t="n">
-        <v>3.758991594770786</v>
+        <v>3.313315019866566</v>
       </c>
       <c r="G12" t="n">
-        <v>2.494680589858036</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>10.24135214604851</v>
+        <v>4.567758945533503</v>
       </c>
       <c r="I12" t="n">
-        <v>2.405257555078179</v>
+        <v>11.81079984800905</v>
       </c>
       <c r="J12" t="n">
-        <v>83.85602199560076</v>
+        <v>7.475757365306755</v>
       </c>
       <c r="K12" t="n">
-        <v>14.89488779263604</v>
+        <v>29.3641810314532</v>
       </c>
       <c r="L12" t="n">
-        <v>100.9557838681083</v>
+        <v>9.124587022547853</v>
       </c>
       <c r="M12" t="n">
-        <v>53.14979605216947</v>
+        <v>5.674951229178905</v>
       </c>
       <c r="N12" t="n">
-        <v>44.35687402128013</v>
+        <v>26.34622855386791</v>
       </c>
       <c r="O12" t="n">
-        <v>21.29847121965991</v>
+        <v>33.86906904638373</v>
       </c>
       <c r="P12" t="n">
-        <v>8.622835356398596</v>
+        <v>80.53515434945741</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.05294491034928</v>
+        <v>26.8806563989224</v>
       </c>
       <c r="R12" t="n">
-        <v>31.89241602791405</v>
+        <v>11.71238428577913</v>
       </c>
       <c r="S12" t="n">
-        <v>9.415622350480591</v>
+        <v>15.3876023258698</v>
       </c>
       <c r="T12" t="n">
-        <v>19.51790038603568</v>
+        <v>16.57732126647585</v>
       </c>
       <c r="U12" t="n">
-        <v>21.13235282630675</v>
+        <v>31.05667075096293</v>
       </c>
       <c r="V12" t="n">
-        <v>66.79440955249363</v>
+        <v>20.93352634020553</v>
       </c>
       <c r="W12" t="n">
-        <v>16.00527118150207</v>
+        <v>21.64704391727095</v>
       </c>
       <c r="X12" t="n">
-        <v>21.48322235236004</v>
+        <v>28.18572406392328</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.01064169322215</v>
+        <v>15.69441992282738</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.990812524901798</v>
+        <v>22.41286821978815</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.11253735694839</v>
+        <v>36.08082791183963</v>
       </c>
       <c r="AB12" t="n">
-        <v>20.04038598297358</v>
+        <v>25.35815810630499</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.721643117866387</v>
+        <v>25.26092027707914</v>
       </c>
       <c r="AD12" t="n">
-        <v>32.80071471867381</v>
+        <v>4.188448402965671</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.95726809676203</v>
+        <v>14.42912623346205</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.25932072004377</v>
+        <v>9.630556196298418</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.37157995356408</v>
+        <v>8.943279835494685</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.563134639742088</v>
+        <v>7.563570117363658</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.732425312695677</v>
+        <v>10.36406143901498</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.158372125102574</v>
+        <v>5.55392672368028</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.529050500791209</v>
+        <v>1.604158661270907</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.849788320722567</v>
+        <v>2.478167054881299</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.54278617520393</v>
+        <v>2.960430624315551</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.866383677519939</v>
+        <v>3.091678464604626</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.820290939753255</v>
+        <v>4.042614300182835</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.129156726291532</v>
+        <v>2.739029251381325</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.234278862734653</v>
+        <v>0.7484220983419267</v>
       </c>
       <c r="AR12" t="n">
-        <v>14.02027438678932</v>
+        <v>2.686156857651925</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.214207790834117</v>
+        <v>2.16383796189238</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.108114746824814</v>
+        <v>3.915793180943375</v>
       </c>
       <c r="AU12" t="n">
-        <v>11.03982874473185</v>
+        <v>2.027612230317204</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.190612039421439</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.5071588747357313</v>
+        <v>10.60108694616001</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.725146742020396</v>
+        <v>0.6546905476247953</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>79.77322494454035</v>
+        <v>5.263956887786189</v>
       </c>
       <c r="D13" t="n">
-        <v>4.494678207260701</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.34418720335216</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.38542642002088</v>
+        <v>3.933550389108352</v>
       </c>
       <c r="G13" t="n">
-        <v>25.9742450318869</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.977925350629461</v>
+        <v>33.71799414770872</v>
       </c>
       <c r="I13" t="n">
-        <v>16.10663779182807</v>
+        <v>16.23574094100878</v>
       </c>
       <c r="J13" t="n">
-        <v>38.94373286612871</v>
+        <v>23.39350841487759</v>
       </c>
       <c r="K13" t="n">
-        <v>83.185054574517</v>
+        <v>52.13531298284745</v>
       </c>
       <c r="L13" t="n">
-        <v>25.40448879278348</v>
+        <v>37.9811309404302</v>
       </c>
       <c r="M13" t="n">
-        <v>25.83263659781384</v>
+        <v>68.92539422945853</v>
       </c>
       <c r="N13" t="n">
-        <v>33.02112287492847</v>
+        <v>25.97097633329746</v>
       </c>
       <c r="O13" t="n">
-        <v>96.56387374312354</v>
+        <v>50.67899638097406</v>
       </c>
       <c r="P13" t="n">
-        <v>19.14971178129626</v>
+        <v>19.89988146937645</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.808206521301</v>
+        <v>9.254100434100913</v>
       </c>
       <c r="R13" t="n">
-        <v>3.981712586603326</v>
+        <v>18.80824289976008</v>
       </c>
       <c r="S13" t="n">
-        <v>73.45705652806926</v>
+        <v>10.8087708621025</v>
       </c>
       <c r="T13" t="n">
-        <v>41.13747938969249</v>
+        <v>9.445999888486057</v>
       </c>
       <c r="U13" t="n">
-        <v>102.4514447783326</v>
+        <v>33.29924586522534</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94273708622313</v>
+        <v>11.29786509339382</v>
       </c>
       <c r="W13" t="n">
-        <v>34.30436973543197</v>
+        <v>15.31491938203273</v>
       </c>
       <c r="X13" t="n">
-        <v>6.05049608955312</v>
+        <v>8.729925603482609</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.17818549538013</v>
+        <v>23.0930568845266</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.17026750854049</v>
+        <v>42.9310951839679</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.34062110080065</v>
+        <v>70.26810972718283</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.28720850472991</v>
+        <v>33.16836664545966</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.502311042502319</v>
+        <v>19.91482476065109</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.63922110966505</v>
+        <v>9.632027926395693</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.99752755900065</v>
+        <v>20.12763534990095</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.859460613551084</v>
+        <v>2.429584145803526</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.468340153857562</v>
+        <v>23.97982027886068</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.060358369359458</v>
+        <v>11.82736350484188</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.4618019912115</v>
+        <v>9.928870587225315</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.399523178540877</v>
+        <v>4.610918312147128</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.56027770984166</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.380767616731515</v>
+        <v>6.268681717255368</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.353905132457465</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.910298630596055</v>
+        <v>1.705906711113265</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.179275624842404</v>
+        <v>11.62893309596779</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.521235859305285</v>
+        <v>28.60543643590822</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.223677685978349</v>
+        <v>11.8438099995136</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.253070470382193</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>16.0806113119634</v>
+        <v>5.589572489182742</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.346481630596251</v>
+        <v>14.57329461025738</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.995812338550985</v>
+        <v>1.250399306899098</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.084486710312251</v>
+        <v>4.267436957791302</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.952781998868987</v>
+        <v>2.68753592398624</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.162883323754349</v>
+        <v>5.386702293898836</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>19.21099434543341</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>15.98044590144253</v>
+        <v>14.29224680222661</v>
       </c>
       <c r="E14" t="n">
-        <v>20.45961306073787</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.25578519001666</v>
+        <v>13.77133227353163</v>
       </c>
       <c r="G14" t="n">
-        <v>43.31520537447228</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17.34819481596769</v>
+        <v>10.442540654073</v>
       </c>
       <c r="I14" t="n">
-        <v>37.46782395702468</v>
+        <v>52.03437123020538</v>
       </c>
       <c r="J14" t="n">
-        <v>75.11693507116361</v>
+        <v>42.18157637263913</v>
       </c>
       <c r="K14" t="n">
-        <v>105.4989449576913</v>
+        <v>188.7160759587758</v>
       </c>
       <c r="L14" t="n">
-        <v>84.37307851519785</v>
+        <v>63.92768866658118</v>
       </c>
       <c r="M14" t="n">
-        <v>76.09850944477967</v>
+        <v>68.81873096078407</v>
       </c>
       <c r="N14" t="n">
-        <v>74.6667799778337</v>
+        <v>30.14737981302017</v>
       </c>
       <c r="O14" t="n">
-        <v>94.31489076200801</v>
+        <v>107.017564681572</v>
       </c>
       <c r="P14" t="n">
-        <v>42.62580772634597</v>
+        <v>91.16406589404104</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.857294820756</v>
+        <v>56.47698429806722</v>
       </c>
       <c r="R14" t="n">
-        <v>75.76918720011113</v>
+        <v>39.84361360793782</v>
       </c>
       <c r="S14" t="n">
-        <v>18.32145298075437</v>
+        <v>125.1669460634543</v>
       </c>
       <c r="T14" t="n">
-        <v>18.6545602934576</v>
+        <v>34.95326806166272</v>
       </c>
       <c r="U14" t="n">
-        <v>42.67000460718349</v>
+        <v>60.48443239753541</v>
       </c>
       <c r="V14" t="n">
-        <v>77.60151985859461</v>
+        <v>67.68358581108599</v>
       </c>
       <c r="W14" t="n">
-        <v>102.2931652815269</v>
+        <v>34.68401823588628</v>
       </c>
       <c r="X14" t="n">
-        <v>48.78059068122324</v>
+        <v>91.16601065070552</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.40889430390057</v>
+        <v>93.56201871770719</v>
       </c>
       <c r="Z14" t="n">
-        <v>70.63913203137011</v>
+        <v>92.89108932310982</v>
       </c>
       <c r="AA14" t="n">
-        <v>76.7510749106831</v>
+        <v>107.9513301178277</v>
       </c>
       <c r="AB14" t="n">
-        <v>133.3632148120289</v>
+        <v>87.24144718782698</v>
       </c>
       <c r="AC14" t="n">
-        <v>91.72867583116444</v>
+        <v>61.4898401835101</v>
       </c>
       <c r="AD14" t="n">
-        <v>150.9794116984191</v>
+        <v>121.4579459787658</v>
       </c>
       <c r="AE14" t="n">
-        <v>84.63740837481718</v>
+        <v>86.959452498567</v>
       </c>
       <c r="AF14" t="n">
-        <v>98.54372398325312</v>
+        <v>94.75454419672521</v>
       </c>
       <c r="AG14" t="n">
-        <v>132.8444177782919</v>
+        <v>125.9060921564926</v>
       </c>
       <c r="AH14" t="n">
-        <v>86.54481943819904</v>
+        <v>119.0383779477096</v>
       </c>
       <c r="AI14" t="n">
-        <v>57.08058797934618</v>
+        <v>92.31067045746155</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34.49768890471286</v>
+        <v>47.52805834572314</v>
       </c>
       <c r="AK14" t="n">
-        <v>34.42377034195913</v>
+        <v>99.74076656884031</v>
       </c>
       <c r="AL14" t="n">
-        <v>112.7252016384551</v>
+        <v>64.57069952973596</v>
       </c>
       <c r="AM14" t="n">
-        <v>39.67957725180951</v>
+        <v>33.70091614037609</v>
       </c>
       <c r="AN14" t="n">
-        <v>38.27225419725731</v>
+        <v>21.10741830440875</v>
       </c>
       <c r="AO14" t="n">
-        <v>44.23295954767273</v>
+        <v>17.07189956030697</v>
       </c>
       <c r="AP14" t="n">
-        <v>23.78471122242746</v>
+        <v>35.29572192168504</v>
       </c>
       <c r="AQ14" t="n">
-        <v>37.07633202038015</v>
+        <v>37.2907702851732</v>
       </c>
       <c r="AR14" t="n">
-        <v>20.05503634157542</v>
+        <v>18.66047029234426</v>
       </c>
       <c r="AS14" t="n">
-        <v>20.53677209554341</v>
+        <v>17.0241765409797</v>
       </c>
       <c r="AT14" t="n">
-        <v>20.79408548533409</v>
+        <v>17.39101453878331</v>
       </c>
       <c r="AU14" t="n">
-        <v>18.61260885158577</v>
+        <v>17.56397729379349</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.4220340275773</v>
+        <v>7.241897378383606</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.48245910638286</v>
+        <v>28.44603433007594</v>
       </c>
       <c r="AX14" t="n">
-        <v>32.25178297064972</v>
+        <v>15.84377364306373</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1.610890814914403</v>
+        <v>0.92055590108649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6298489497394593</v>
+        <v>1.919614250745848</v>
       </c>
       <c r="E15" t="n">
-        <v>2.077110232378613</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.031262869731558</v>
+        <v>2.575714881163258</v>
       </c>
       <c r="G15" t="n">
-        <v>1.558389651588157</v>
+        <v>0.9353958906281039</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6975889451048366</v>
+        <v>0.8685613370215068</v>
       </c>
       <c r="I15" t="n">
-        <v>2.590749004117399</v>
+        <v>2.632171348484888</v>
       </c>
       <c r="J15" t="n">
-        <v>9.705436642967518</v>
+        <v>3.038100286934462</v>
       </c>
       <c r="K15" t="n">
-        <v>1.874532085209079</v>
+        <v>3.468311785482295</v>
       </c>
       <c r="L15" t="n">
-        <v>2.266296143282843</v>
+        <v>6.260256062364369</v>
       </c>
       <c r="M15" t="n">
-        <v>2.545687655643774</v>
+        <v>3.793990749218764</v>
       </c>
       <c r="N15" t="n">
-        <v>2.562706349799203</v>
+        <v>4.695208127272319</v>
       </c>
       <c r="O15" t="n">
-        <v>7.720065882049114</v>
+        <v>9.978185585507203</v>
       </c>
       <c r="P15" t="n">
-        <v>3.728712424623843</v>
+        <v>3.992760393228671</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.651720739749822</v>
+        <v>5.021411374332464</v>
       </c>
       <c r="R15" t="n">
-        <v>6.168440899523402</v>
+        <v>2.160956748719185</v>
       </c>
       <c r="S15" t="n">
-        <v>5.996235556067442</v>
+        <v>8.523235328166715</v>
       </c>
       <c r="T15" t="n">
-        <v>4.545589465212188</v>
+        <v>3.308376069737071</v>
       </c>
       <c r="U15" t="n">
-        <v>2.972130117954423</v>
+        <v>3.771880197272117</v>
       </c>
       <c r="V15" t="n">
-        <v>2.828334163530705</v>
+        <v>2.993068453338871</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02834041159375</v>
+        <v>6.138120871503803</v>
       </c>
       <c r="X15" t="n">
-        <v>6.745897206124984</v>
+        <v>3.608442710435207</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.969070183864506</v>
+        <v>2.510562172671259</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.261385974163181</v>
+        <v>6.624841981991601</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.090455229240163</v>
+        <v>2.995164527173764</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.201128383509055</v>
+        <v>3.429435559065821</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.244295823360495</v>
+        <v>3.440448764145582</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.125718172227346</v>
+        <v>3.569208617332917</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.651658090626694</v>
+        <v>6.419467872309636</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.472220132219345</v>
+        <v>6.993179515361972</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.41734029928906</v>
+        <v>8.916740261613732</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.522821401309905</v>
+        <v>1.307422259482036</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.868315320409526</v>
+        <v>4.113455121175594</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4.145779998685347</v>
+        <v>10.27887828442216</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.156865438438296</v>
+        <v>6.340198011282842</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.16754884016602</v>
+        <v>3.038092704866119</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.500286765687354</v>
+        <v>6.378179884582001</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.751872425173413</v>
+        <v>3.289279728430226</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.561930000955412</v>
+        <v>6.857284753205231</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.503723102561413</v>
+        <v>4.092198706656666</v>
       </c>
       <c r="AQ15" t="n">
-        <v>31.78572353784797</v>
+        <v>3.32035270797131</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.002409088770006</v>
+        <v>6.244862026182313</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33979197130144</v>
+        <v>3.729911948811385</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.003460564998135</v>
+        <v>2.313175501922606</v>
       </c>
       <c r="AU15" t="n">
-        <v>40.69822447638088</v>
+        <v>1.816451288598379</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.5851726150270122</v>
+        <v>4.066332647822682</v>
       </c>
       <c r="AW15" t="n">
-        <v>32.59692274596758</v>
+        <v>2.551999345988059</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.4535632239935568</v>
+        <v>3.136019151763882</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>7.324628789851474</v>
+        <v>10.55687420753469</v>
       </c>
       <c r="D16" t="n">
-        <v>34.49203880033946</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.547020229229526</v>
+        <v>35.33811849980226</v>
       </c>
       <c r="F16" t="n">
-        <v>25.82661578215936</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>58.37916520453867</v>
+        <v>4.739921636273444</v>
       </c>
       <c r="H16" t="n">
-        <v>30.21047990527045</v>
+        <v>56.99099358495347</v>
       </c>
       <c r="I16" t="n">
-        <v>9.049859658559292</v>
+        <v>40.03554780768434</v>
       </c>
       <c r="J16" t="n">
-        <v>64.52281335387445</v>
+        <v>143.819769213776</v>
       </c>
       <c r="K16" t="n">
-        <v>7.122656536697283</v>
+        <v>69.69203821359581</v>
       </c>
       <c r="L16" t="n">
-        <v>215.1860828837221</v>
+        <v>142.3147415247177</v>
       </c>
       <c r="M16" t="n">
-        <v>48.18329777226998</v>
+        <v>48.09915463987042</v>
       </c>
       <c r="N16" t="n">
-        <v>58.62300754993284</v>
+        <v>56.30001371709927</v>
       </c>
       <c r="O16" t="n">
-        <v>52.4963963118831</v>
+        <v>17.22352854858436</v>
       </c>
       <c r="P16" t="n">
-        <v>83.63036970981082</v>
+        <v>171.3908423269242</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.45527242927663</v>
+        <v>62.45013195860378</v>
       </c>
       <c r="R16" t="n">
-        <v>115.8489976656782</v>
+        <v>29.74836924042628</v>
       </c>
       <c r="S16" t="n">
-        <v>42.32390238537754</v>
+        <v>104.0246859974536</v>
       </c>
       <c r="T16" t="n">
-        <v>48.57669510115808</v>
+        <v>82.90368875187507</v>
       </c>
       <c r="U16" t="n">
-        <v>26.97929745903562</v>
+        <v>151.3679325440583</v>
       </c>
       <c r="V16" t="n">
-        <v>51.08913558844566</v>
+        <v>347.022007967572</v>
       </c>
       <c r="W16" t="n">
-        <v>77.21356837705649</v>
+        <v>67.66930821640447</v>
       </c>
       <c r="X16" t="n">
-        <v>111.988243674495</v>
+        <v>61.88383729912721</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.06025064531158</v>
+        <v>57.19756855967673</v>
       </c>
       <c r="Z16" t="n">
-        <v>63.14859146111122</v>
+        <v>62.78421669747829</v>
       </c>
       <c r="AA16" t="n">
-        <v>63.23069345998089</v>
+        <v>81.56141669792913</v>
       </c>
       <c r="AB16" t="n">
-        <v>71.84987263598227</v>
+        <v>62.03922157261523</v>
       </c>
       <c r="AC16" t="n">
-        <v>46.85256572740651</v>
+        <v>66.23042140637061</v>
       </c>
       <c r="AD16" t="n">
-        <v>50.30675643082127</v>
+        <v>105.7993275478437</v>
       </c>
       <c r="AE16" t="n">
-        <v>74.03271219997383</v>
+        <v>90.16339771222272</v>
       </c>
       <c r="AF16" t="n">
-        <v>31.97619369089067</v>
+        <v>45.88844633725905</v>
       </c>
       <c r="AG16" t="n">
-        <v>38.48941057984845</v>
+        <v>74.87661099489803</v>
       </c>
       <c r="AH16" t="n">
-        <v>28.90103429070012</v>
+        <v>59.81635463713241</v>
       </c>
       <c r="AI16" t="n">
-        <v>50.53035374395625</v>
+        <v>86.94351154125174</v>
       </c>
       <c r="AJ16" t="n">
-        <v>47.70524836454728</v>
+        <v>45.60316383254884</v>
       </c>
       <c r="AK16" t="n">
-        <v>23.62335743476899</v>
+        <v>29.50313829429609</v>
       </c>
       <c r="AL16" t="n">
-        <v>27.42469100656056</v>
+        <v>67.88416820228713</v>
       </c>
       <c r="AM16" t="n">
-        <v>46.66127203625611</v>
+        <v>27.68749784197746</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.40554638976836</v>
+        <v>20.04454228884586</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.936512052996854</v>
+        <v>25.24490109569035</v>
       </c>
       <c r="AP16" t="n">
-        <v>19.29481687043507</v>
+        <v>17.34107270057678</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19.57226415761118</v>
+        <v>6.165674716845479</v>
       </c>
       <c r="AR16" t="n">
-        <v>31.69914574260995</v>
+        <v>17.45005435473128</v>
       </c>
       <c r="AS16" t="n">
-        <v>17.53893179648959</v>
+        <v>17.64450231862473</v>
       </c>
       <c r="AT16" t="n">
-        <v>7.287578986725215</v>
+        <v>10.59389299928033</v>
       </c>
       <c r="AU16" t="n">
-        <v>25.04248861783265</v>
+        <v>11.50408582256474</v>
       </c>
       <c r="AV16" t="n">
-        <v>10.47956542794403</v>
+        <v>5.151613210059476</v>
       </c>
       <c r="AW16" t="n">
-        <v>13.65522718356226</v>
+        <v>18.73013369898085</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.48478555422878</v>
+        <v>30.14946046106634</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>17.24601731908698</v>
+        <v>20.71231798993257</v>
       </c>
       <c r="D17" t="n">
-        <v>27.30668566509729</v>
+        <v>19.13166930075432</v>
       </c>
       <c r="E17" t="n">
-        <v>14.42019915779938</v>
+        <v>0.716643338755401</v>
       </c>
       <c r="F17" t="n">
-        <v>4.956278169899594</v>
+        <v>64.81942527748664</v>
       </c>
       <c r="G17" t="n">
-        <v>7.740414924147772</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>72.04280965844997</v>
+        <v>52.34393909153146</v>
       </c>
       <c r="I17" t="n">
-        <v>5.63656289875666</v>
+        <v>28.02842432344055</v>
       </c>
       <c r="J17" t="n">
-        <v>36.84791881702935</v>
+        <v>77.70822727105178</v>
       </c>
       <c r="K17" t="n">
-        <v>3.381143703122686</v>
+        <v>16.90683539687294</v>
       </c>
       <c r="L17" t="n">
-        <v>22.74566698168224</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>66.71264464119415</v>
+        <v>14.26131050971156</v>
       </c>
       <c r="N17" t="n">
-        <v>26.83298981009313</v>
+        <v>30.40739026698249</v>
       </c>
       <c r="O17" t="n">
-        <v>27.10763002372844</v>
+        <v>120.6444576387477</v>
       </c>
       <c r="P17" t="n">
-        <v>32.38433036013046</v>
+        <v>20.12522399502724</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.63620711404716</v>
+        <v>27.59986730485041</v>
       </c>
       <c r="R17" t="n">
-        <v>4.804359982794872</v>
+        <v>27.44230276645624</v>
       </c>
       <c r="S17" t="n">
-        <v>57.12798160500473</v>
+        <v>24.17044236312799</v>
       </c>
       <c r="T17" t="n">
-        <v>37.3931268720419</v>
+        <v>75.49586382387319</v>
       </c>
       <c r="U17" t="n">
-        <v>74.92298514452871</v>
+        <v>60.47135950083889</v>
       </c>
       <c r="V17" t="n">
-        <v>37.31291824703262</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>48.59406332462916</v>
+        <v>78.26844433518336</v>
       </c>
       <c r="X17" t="n">
-        <v>33.78247299237619</v>
+        <v>38.38201680196286</v>
       </c>
       <c r="Y17" t="n">
-        <v>95.9372296430699</v>
+        <v>30.86673969537723</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.82432556812947</v>
+        <v>40.04248046163207</v>
       </c>
       <c r="AA17" t="n">
-        <v>35.38761767358248</v>
+        <v>45.80099873043898</v>
       </c>
       <c r="AB17" t="n">
-        <v>81.24148688708276</v>
+        <v>84.58464486008914</v>
       </c>
       <c r="AC17" t="n">
-        <v>22.67183947605032</v>
+        <v>4.186098684292569</v>
       </c>
       <c r="AD17" t="n">
-        <v>90.54758393530683</v>
+        <v>64.01542908171288</v>
       </c>
       <c r="AE17" t="n">
-        <v>141.317193540322</v>
+        <v>42.60050355624252</v>
       </c>
       <c r="AF17" t="n">
-        <v>90.64625198180742</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.8632383605767</v>
+        <v>4.567950529070814</v>
       </c>
       <c r="AH17" t="n">
-        <v>12.85884142491054</v>
+        <v>30.34412054619877</v>
       </c>
       <c r="AI17" t="n">
-        <v>31.62421960898484</v>
+        <v>16.99012407869644</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.56293866474163</v>
+        <v>35.92344552697529</v>
       </c>
       <c r="AK17" t="n">
-        <v>28.59236187388851</v>
+        <v>87.25975155262124</v>
       </c>
       <c r="AL17" t="n">
-        <v>35.09803475684421</v>
+        <v>7.763535292096035</v>
       </c>
       <c r="AM17" t="n">
-        <v>10.8853858107509</v>
+        <v>17.68694436159772</v>
       </c>
       <c r="AN17" t="n">
-        <v>13.79175567458694</v>
+        <v>5.073332446633831</v>
       </c>
       <c r="AO17" t="n">
-        <v>23.02041842228548</v>
+        <v>15.24308965607801</v>
       </c>
       <c r="AP17" t="n">
-        <v>19.87293459598783</v>
+        <v>21.02106912044034</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16.04387668366259</v>
+        <v>1.739490323654519</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.050615838762736</v>
+        <v>2.132981887375305</v>
       </c>
       <c r="AS17" t="n">
-        <v>23.09924261826348</v>
+        <v>30.0172525891288</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.117820701790549</v>
+        <v>22.68316622204354</v>
       </c>
       <c r="AU17" t="n">
-        <v>13.8387969855188</v>
+        <v>19.38830432540446</v>
       </c>
       <c r="AV17" t="n">
-        <v>26.8872241907936</v>
+        <v>31.15388672339861</v>
       </c>
       <c r="AW17" t="n">
-        <v>28.89219150357383</v>
+        <v>13.91870826219414</v>
       </c>
       <c r="AX17" t="n">
-        <v>15.87709271333494</v>
+        <v>21.04408794121033</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>5.095553244254289</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.292703108804808</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>10.40176534795089</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.883758028607689</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>9.347433101581171</v>
+        <v>54.94850927340864</v>
       </c>
       <c r="H18" t="n">
-        <v>5.382166429498332</v>
+        <v>67.73559728089322</v>
       </c>
       <c r="I18" t="n">
-        <v>11.87092711387832</v>
+        <v>6.72956604645152</v>
       </c>
       <c r="J18" t="n">
-        <v>6.805301921520793</v>
+        <v>22.03020913296536</v>
       </c>
       <c r="K18" t="n">
-        <v>29.0780539555197</v>
+        <v>22.92286980626357</v>
       </c>
       <c r="L18" t="n">
-        <v>136.3071820720145</v>
+        <v>9.085346590827362</v>
       </c>
       <c r="M18" t="n">
-        <v>53.63767925907341</v>
+        <v>19.65859699128118</v>
       </c>
       <c r="N18" t="n">
-        <v>11.00979417856313</v>
+        <v>49.52922225804074</v>
       </c>
       <c r="O18" t="n">
-        <v>16.91954173353337</v>
+        <v>38.17786392712322</v>
       </c>
       <c r="P18" t="n">
-        <v>32.81062589676998</v>
+        <v>20.10884042081597</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.96743702904964</v>
+        <v>39.93001909582001</v>
       </c>
       <c r="R18" t="n">
-        <v>41.5276590816382</v>
+        <v>48.47316660669669</v>
       </c>
       <c r="S18" t="n">
-        <v>4.931813441731818</v>
+        <v>39.28784948890659</v>
       </c>
       <c r="T18" t="n">
-        <v>31.58777389679531</v>
+        <v>60.93226588245599</v>
       </c>
       <c r="U18" t="n">
-        <v>53.90603588896957</v>
+        <v>17.70766463792025</v>
       </c>
       <c r="V18" t="n">
-        <v>21.14969165115282</v>
+        <v>18.644319400573</v>
       </c>
       <c r="W18" t="n">
-        <v>15.48992423762204</v>
+        <v>27.29084511372516</v>
       </c>
       <c r="X18" t="n">
-        <v>34.74075360746468</v>
+        <v>4.615520426491436</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.26948359654742</v>
+        <v>34.29897863419309</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.01434490238657</v>
+        <v>23.71537026109965</v>
       </c>
       <c r="AA18" t="n">
-        <v>42.65186919090404</v>
+        <v>15.24447482104483</v>
       </c>
       <c r="AB18" t="n">
-        <v>24.84846670436296</v>
+        <v>35.3455267290983</v>
       </c>
       <c r="AC18" t="n">
-        <v>20.79772045815553</v>
+        <v>16.89856316726407</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.45253543237523</v>
+        <v>15.27280037513447</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.89790145908899</v>
+        <v>19.87088434256706</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.97337323100992</v>
+        <v>12.72900404355947</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.674797644692724</v>
+        <v>9.243467239792698</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.289594249162975</v>
+        <v>10.34304561035519</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.395599858305456</v>
+        <v>23.36853026512865</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.017719602740375</v>
+        <v>14.49056959859718</v>
       </c>
       <c r="AK18" t="n">
-        <v>6.487373085137667</v>
+        <v>7.133745062297971</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.605260626222242</v>
+        <v>5.603473357267731</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.050180443339222</v>
+        <v>3.193840543142251</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.70666926088871</v>
+        <v>4.382170279348507</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.548945650375831</v>
+        <v>4.64047896358829</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.386210785703553</v>
+        <v>3.738447230702396</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.31150797426308</v>
+        <v>2.461340975202893</v>
       </c>
       <c r="AR18" t="n">
-        <v>6.708994246108524</v>
+        <v>0.8939431025070723</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.014362577183461</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.2688634009967075</v>
+        <v>1.87487803662911</v>
       </c>
       <c r="AU18" t="n">
-        <v>4.182854149832409</v>
+        <v>4.38156270451643</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.09929952977581964</v>
+        <v>1.347862098154487</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.6028170080423474</v>
+        <v>6.339765417063744</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9920419122026292</v>
+        <v>3.910496924815388</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.64035741936521</v>
+        <v>10.79146381455982</v>
       </c>
       <c r="D19" t="n">
-        <v>26.60045868874736</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>14.74671136421316</v>
+        <v>4.4428689231775</v>
       </c>
       <c r="F19" t="n">
-        <v>14.78573567964368</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.621613978268877</v>
+        <v>8.33676285521846</v>
       </c>
       <c r="H19" t="n">
-        <v>39.39689309973249</v>
+        <v>16.24366847514138</v>
       </c>
       <c r="I19" t="n">
-        <v>24.43605767677579</v>
+        <v>64.32114050879045</v>
       </c>
       <c r="J19" t="n">
-        <v>21.78195964804685</v>
+        <v>22.76908160091426</v>
       </c>
       <c r="K19" t="n">
-        <v>13.28067748873573</v>
+        <v>18.15510592748636</v>
       </c>
       <c r="L19" t="n">
-        <v>9.690570291277838</v>
+        <v>31.68042388470732</v>
       </c>
       <c r="M19" t="n">
-        <v>10.91720425800797</v>
+        <v>56.27908834116106</v>
       </c>
       <c r="N19" t="n">
-        <v>6.222442463915014</v>
+        <v>20.20660489533327</v>
       </c>
       <c r="O19" t="n">
-        <v>5.311549465131564</v>
+        <v>22.79083560302267</v>
       </c>
       <c r="P19" t="n">
-        <v>29.89037157560445</v>
+        <v>44.54057675271522</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.90112034334219</v>
+        <v>19.65448744927835</v>
       </c>
       <c r="R19" t="n">
-        <v>25.44809508941103</v>
+        <v>116.9228074791674</v>
       </c>
       <c r="S19" t="n">
-        <v>32.70933426482612</v>
+        <v>23.35947900646207</v>
       </c>
       <c r="T19" t="n">
-        <v>22.79965368746196</v>
+        <v>6.177555248946228</v>
       </c>
       <c r="U19" t="n">
-        <v>12.47054210286353</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>74.22445712678073</v>
+        <v>37.03511799299579</v>
       </c>
       <c r="W19" t="n">
-        <v>13.65553501128223</v>
+        <v>17.15203839226201</v>
       </c>
       <c r="X19" t="n">
-        <v>24.60371376579512</v>
+        <v>28.228863196577</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.614729477504486</v>
+        <v>21.48203061255005</v>
       </c>
       <c r="Z19" t="n">
-        <v>28.21653823668038</v>
+        <v>30.35576568927027</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.49435663157782</v>
+        <v>24.22840963727718</v>
       </c>
       <c r="AB19" t="n">
-        <v>120.313688402299</v>
+        <v>5.621804214887971</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.13020691265269</v>
+        <v>48.28432303769871</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.07526021939405</v>
+        <v>35.12063595868297</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.793348102874559</v>
+        <v>17.118889776613</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.087825158447073</v>
+        <v>9.294253058276105</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.728896443680383</v>
+        <v>7.079686044539424</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.880788564435876</v>
+        <v>16.77398739813233</v>
       </c>
       <c r="AI19" t="n">
-        <v>6.705482723009059</v>
+        <v>8.940128917559365</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.885084678501276</v>
+        <v>42.6000476728172</v>
       </c>
       <c r="AK19" t="n">
-        <v>11.46172602471044</v>
+        <v>5.979820592959674</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.104600730029708</v>
+        <v>0.9684006981633382</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.590409877849238</v>
+        <v>9.367347782963355</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.821413747444574</v>
+        <v>3.851920278509442</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.514182395990134</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>19.83604453831225</v>
+        <v>4.951043593591114</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10.83436464187444</v>
+        <v>3.453416594101375</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.446953632897901</v>
+        <v>7.236853738450517</v>
       </c>
       <c r="AS19" t="n">
-        <v>11.50683071189802</v>
+        <v>2.626183445905729</v>
       </c>
       <c r="AT19" t="n">
-        <v>6.017112901483784</v>
+        <v>8.107588800918846</v>
       </c>
       <c r="AU19" t="n">
-        <v>12.06866156933885</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.533939385955322</v>
+        <v>5.121682246838612</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.521869507387145</v>
+        <v>58.41772443850932</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.789605954997242</v>
+        <v>4.60409994144079</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.04270892279966</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>12.33677229237571</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>51.71115001947873</v>
+        <v>21.32868499012159</v>
       </c>
       <c r="F20" t="n">
-        <v>27.3347940312148</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>18.54969347107419</v>
+        <v>0.198991999251902</v>
       </c>
       <c r="H20" t="n">
-        <v>4.394515939416814</v>
+        <v>22.36813725926494</v>
       </c>
       <c r="I20" t="n">
-        <v>30.66437261961997</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.44140040382489</v>
+        <v>62.07166015610665</v>
       </c>
       <c r="K20" t="n">
-        <v>29.63342277788929</v>
+        <v>41.2742990068984</v>
       </c>
       <c r="L20" t="n">
-        <v>24.8738839077785</v>
+        <v>60.35573794060164</v>
       </c>
       <c r="M20" t="n">
-        <v>60.01916730477454</v>
+        <v>75.40912685282913</v>
       </c>
       <c r="N20" t="n">
-        <v>72.10730173847969</v>
+        <v>5.467543721050994</v>
       </c>
       <c r="O20" t="n">
-        <v>19.22725011952475</v>
+        <v>9.234676236305839</v>
       </c>
       <c r="P20" t="n">
-        <v>113.4540949665579</v>
+        <v>82.06784785169977</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.66057666644076</v>
+        <v>76.00877268734214</v>
       </c>
       <c r="R20" t="n">
-        <v>29.12542116842424</v>
+        <v>45.41084708767081</v>
       </c>
       <c r="S20" t="n">
-        <v>38.40591598535297</v>
+        <v>48.68244592456664</v>
       </c>
       <c r="T20" t="n">
-        <v>38.26808303160066</v>
+        <v>59.54129894140636</v>
       </c>
       <c r="U20" t="n">
-        <v>68.62873108907124</v>
+        <v>39.17150520116725</v>
       </c>
       <c r="V20" t="n">
-        <v>30.96560399298633</v>
+        <v>103.0729150620043</v>
       </c>
       <c r="W20" t="n">
-        <v>52.93051021019556</v>
+        <v>39.40324773033197</v>
       </c>
       <c r="X20" t="n">
-        <v>62.04724444446804</v>
+        <v>35.16771613131183</v>
       </c>
       <c r="Y20" t="n">
-        <v>107.3917448516117</v>
+        <v>55.98357742766703</v>
       </c>
       <c r="Z20" t="n">
-        <v>110.8704319971249</v>
+        <v>54.29235908048048</v>
       </c>
       <c r="AA20" t="n">
-        <v>104.1666701795153</v>
+        <v>80.25953883681854</v>
       </c>
       <c r="AB20" t="n">
-        <v>115.8392126059798</v>
+        <v>101.0197718839486</v>
       </c>
       <c r="AC20" t="n">
-        <v>68.67672413311851</v>
+        <v>41.87023501622522</v>
       </c>
       <c r="AD20" t="n">
-        <v>147.4223637704876</v>
+        <v>77.81116594035451</v>
       </c>
       <c r="AE20" t="n">
-        <v>60.56735844681875</v>
+        <v>121.5938452366307</v>
       </c>
       <c r="AF20" t="n">
-        <v>80.76471735625601</v>
+        <v>132.559969310221</v>
       </c>
       <c r="AG20" t="n">
-        <v>63.29938971527621</v>
+        <v>140.4709473390294</v>
       </c>
       <c r="AH20" t="n">
-        <v>107.6348403265167</v>
+        <v>92.24343480197302</v>
       </c>
       <c r="AI20" t="n">
-        <v>123.7942351068829</v>
+        <v>99.83088668784276</v>
       </c>
       <c r="AJ20" t="n">
-        <v>231.1247868489772</v>
+        <v>59.39959415796571</v>
       </c>
       <c r="AK20" t="n">
-        <v>46.31195992640722</v>
+        <v>67.47180392047727</v>
       </c>
       <c r="AL20" t="n">
-        <v>48.2575518720886</v>
+        <v>56.99711777634646</v>
       </c>
       <c r="AM20" t="n">
-        <v>27.77712973049159</v>
+        <v>33.12719189815519</v>
       </c>
       <c r="AN20" t="n">
-        <v>50.56991814818211</v>
+        <v>41.47748477565179</v>
       </c>
       <c r="AO20" t="n">
-        <v>23.1659089749273</v>
+        <v>43.81269294657432</v>
       </c>
       <c r="AP20" t="n">
-        <v>36.00919331771803</v>
+        <v>23.9555097038659</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19.7406837545408</v>
+        <v>13.45211134782421</v>
       </c>
       <c r="AR20" t="n">
-        <v>20.95733456451815</v>
+        <v>4.944876240546255</v>
       </c>
       <c r="AS20" t="n">
-        <v>18.26108058805088</v>
+        <v>10.19939541163316</v>
       </c>
       <c r="AT20" t="n">
-        <v>32.04033856635901</v>
+        <v>23.35209297283826</v>
       </c>
       <c r="AU20" t="n">
-        <v>24.89127269913755</v>
+        <v>24.14219023531638</v>
       </c>
       <c r="AV20" t="n">
-        <v>19.31380460070058</v>
+        <v>13.03179481818599</v>
       </c>
       <c r="AW20" t="n">
-        <v>41.47176733187915</v>
+        <v>18.39865113329919</v>
       </c>
       <c r="AX20" t="n">
-        <v>35.0128178415514</v>
+        <v>30.09095604358689</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.621715820446274</v>
+        <v>1.956580340082733</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8774028751955522</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.240989417802089</v>
+        <v>2.906300571046208</v>
       </c>
       <c r="F21" t="n">
-        <v>7.797810806361743</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>5.169819791742699</v>
+        <v>2.679973266997274</v>
       </c>
       <c r="H21" t="n">
-        <v>2.284430507063316</v>
+        <v>0.1205989468249943</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4695385931947811</v>
+        <v>2.163270583895818</v>
       </c>
       <c r="J21" t="n">
-        <v>16.77196570278553</v>
+        <v>2.829032131658314</v>
       </c>
       <c r="K21" t="n">
-        <v>4.854415802540436</v>
+        <v>1.987194808790694</v>
       </c>
       <c r="L21" t="n">
-        <v>5.850891654760393</v>
+        <v>3.21883977937004</v>
       </c>
       <c r="M21" t="n">
-        <v>2.3266974461867</v>
+        <v>1.082193336024592</v>
       </c>
       <c r="N21" t="n">
-        <v>20.61529207329014</v>
+        <v>1.827956857877018</v>
       </c>
       <c r="O21" t="n">
-        <v>2.826048212305525</v>
+        <v>5.514517991464096</v>
       </c>
       <c r="P21" t="n">
-        <v>2.217676253433932</v>
+        <v>1.788862185687151</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.608833340253779</v>
+        <v>12.92762745430425</v>
       </c>
       <c r="R21" t="n">
-        <v>2.692662964661381</v>
+        <v>2.619943889585219</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7222931280490875</v>
+        <v>6.323637565642368</v>
       </c>
       <c r="T21" t="n">
-        <v>2.212637693946528</v>
+        <v>5.872354718565012</v>
       </c>
       <c r="U21" t="n">
-        <v>6.195690009662357</v>
+        <v>2.40453829942466</v>
       </c>
       <c r="V21" t="n">
-        <v>2.706007351421001</v>
+        <v>2.283738950770715</v>
       </c>
       <c r="W21" t="n">
-        <v>3.476642542261817</v>
+        <v>6.12229213668204</v>
       </c>
       <c r="X21" t="n">
-        <v>3.056508165927145</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.987171196024402</v>
+        <v>1.754934203131465</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.151525315914413</v>
+        <v>6.02240120488754</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.89217266917565</v>
+        <v>1.452608187297667</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.96399787543277</v>
+        <v>5.781470610573251</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.555853905687919</v>
+        <v>4.261128672303158</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.633782062864236</v>
+        <v>3.977231051033502</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.711620332302698</v>
+        <v>5.325476179751414</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.079463529272106</v>
+        <v>6.416619305701506</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.912366483383015</v>
+        <v>1.219235122140474</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.161031140533919</v>
+        <v>6.104048344953982</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.918071004756756</v>
+        <v>7.134165766238334</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.63242468276774</v>
+        <v>2.687631237840619</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.199361066760031</v>
+        <v>4.422877212383094</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.961893546273936</v>
+        <v>5.511638284366765</v>
       </c>
       <c r="AM21" t="n">
-        <v>6.293393952102649</v>
+        <v>4.598564645305262</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.439524814770525</v>
+        <v>4.967709560549019</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.728251355430888</v>
+        <v>2.486936994989294</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.476133026168023</v>
+        <v>3.358734970912957</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22.37301580740694</v>
+        <v>10.27423363619419</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.512013755120615</v>
+        <v>4.007013964384424</v>
       </c>
       <c r="AS21" t="n">
-        <v>4.052516742910131</v>
+        <v>1.222582518787708</v>
       </c>
       <c r="AT21" t="n">
-        <v>4.612986343906656</v>
+        <v>1.715292211543443</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.046384010949586</v>
+        <v>2.515237942616455</v>
       </c>
       <c r="AV21" t="n">
-        <v>15.86650072350434</v>
+        <v>3.797872983294096</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.504751211678416</v>
+        <v>1.075348340486641</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.5330813792225846</v>
+        <v>1.832378050975818</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>9.532583154681275</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.10185552227648</v>
+        <v>33.72780941205088</v>
       </c>
       <c r="E22" t="n">
-        <v>17.82724893812417</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.248632710375107</v>
+        <v>5.613675559495076</v>
       </c>
       <c r="G22" t="n">
-        <v>6.514354652850452</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.8771724977743</v>
+        <v>16.85549445397406</v>
       </c>
       <c r="I22" t="n">
-        <v>14.47382938382306</v>
+        <v>4.941398184433364</v>
       </c>
       <c r="J22" t="n">
-        <v>5.882360670797555</v>
+        <v>76.60176056927813</v>
       </c>
       <c r="K22" t="n">
-        <v>40.89101809093234</v>
+        <v>99.56998215502635</v>
       </c>
       <c r="L22" t="n">
-        <v>54.35018186503626</v>
+        <v>69.75479436881295</v>
       </c>
       <c r="M22" t="n">
-        <v>108.1957229129593</v>
+        <v>48.63562085836911</v>
       </c>
       <c r="N22" t="n">
-        <v>123.4239175747561</v>
+        <v>37.63102139087814</v>
       </c>
       <c r="O22" t="n">
-        <v>66.96175953084806</v>
+        <v>105.54293685623</v>
       </c>
       <c r="P22" t="n">
-        <v>141.8895435558416</v>
+        <v>100.1777510404809</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.06763679848036</v>
+        <v>46.86570761976563</v>
       </c>
       <c r="R22" t="n">
-        <v>46.25686893205296</v>
+        <v>20.12653247847628</v>
       </c>
       <c r="S22" t="n">
-        <v>41.23465028918635</v>
+        <v>24.23234145867465</v>
       </c>
       <c r="T22" t="n">
-        <v>27.74482552301836</v>
+        <v>95.50892505407273</v>
       </c>
       <c r="U22" t="n">
-        <v>45.1413386656395</v>
+        <v>73.67431746195882</v>
       </c>
       <c r="V22" t="n">
-        <v>49.07772620603888</v>
+        <v>164.3686616428593</v>
       </c>
       <c r="W22" t="n">
-        <v>61.86634483670702</v>
+        <v>19.31046376041852</v>
       </c>
       <c r="X22" t="n">
-        <v>62.12045686407882</v>
+        <v>96.92147925649634</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.6513397930221</v>
+        <v>97.41669065556736</v>
       </c>
       <c r="Z22" t="n">
-        <v>62.68855558688728</v>
+        <v>38.71338715385077</v>
       </c>
       <c r="AA22" t="n">
-        <v>33.11876342816796</v>
+        <v>51.86682479519649</v>
       </c>
       <c r="AB22" t="n">
-        <v>39.7537018141614</v>
+        <v>107.8188294892914</v>
       </c>
       <c r="AC22" t="n">
-        <v>49.52055603483441</v>
+        <v>60.85660547039997</v>
       </c>
       <c r="AD22" t="n">
-        <v>81.37196707350331</v>
+        <v>60.16956866661482</v>
       </c>
       <c r="AE22" t="n">
-        <v>63.78025436277913</v>
+        <v>91.91489103417686</v>
       </c>
       <c r="AF22" t="n">
-        <v>49.01084909270964</v>
+        <v>64.47754655219514</v>
       </c>
       <c r="AG22" t="n">
-        <v>60.0595806344615</v>
+        <v>45.034681167088</v>
       </c>
       <c r="AH22" t="n">
-        <v>44.26818516709972</v>
+        <v>69.83425333971128</v>
       </c>
       <c r="AI22" t="n">
-        <v>38.84322816805774</v>
+        <v>108.3249892458227</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27.08151504497508</v>
+        <v>20.3063725042219</v>
       </c>
       <c r="AK22" t="n">
-        <v>37.36704746880858</v>
+        <v>32.50905356294375</v>
       </c>
       <c r="AL22" t="n">
-        <v>50.11921363496359</v>
+        <v>35.56305412552699</v>
       </c>
       <c r="AM22" t="n">
-        <v>21.5382060410126</v>
+        <v>19.98322415404267</v>
       </c>
       <c r="AN22" t="n">
-        <v>12.15151861857657</v>
+        <v>12.28791995243267</v>
       </c>
       <c r="AO22" t="n">
-        <v>20.59226121791121</v>
+        <v>17.49240257196458</v>
       </c>
       <c r="AP22" t="n">
-        <v>32.77535996015259</v>
+        <v>23.53966335617649</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14.29498616860627</v>
+        <v>15.55634535848917</v>
       </c>
       <c r="AR22" t="n">
-        <v>11.41701713429039</v>
+        <v>19.11441430116624</v>
       </c>
       <c r="AS22" t="n">
-        <v>13.74095935296589</v>
+        <v>32.51752288689748</v>
       </c>
       <c r="AT22" t="n">
-        <v>27.30781064454246</v>
+        <v>14.02041204503891</v>
       </c>
       <c r="AU22" t="n">
-        <v>18.05541541229309</v>
+        <v>4.263863343783811</v>
       </c>
       <c r="AV22" t="n">
-        <v>20.72203573887952</v>
+        <v>16.70154070415583</v>
       </c>
       <c r="AW22" t="n">
-        <v>7.493118264716708</v>
+        <v>10.65442712171396</v>
       </c>
       <c r="AX22" t="n">
-        <v>15.62165760759871</v>
+        <v>9.664461763181873</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>4.351138128810767</v>
+        <v>9.323367197775973</v>
       </c>
       <c r="D23" t="n">
-        <v>31.09156037944421</v>
+        <v>5.02006496533863</v>
       </c>
       <c r="E23" t="n">
-        <v>78.43912014804886</v>
+        <v>21.80448308123792</v>
       </c>
       <c r="F23" t="n">
-        <v>2.084394831648276</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>104.9042154980622</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.131727650608536</v>
+        <v>104.6582813041328</v>
       </c>
       <c r="I23" t="n">
-        <v>28.37112618738609</v>
+        <v>16.75957517162842</v>
       </c>
       <c r="J23" t="n">
-        <v>24.23858726263138</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>24.52503565360765</v>
+        <v>17.18022085403609</v>
       </c>
       <c r="L23" t="n">
-        <v>33.06876278173115</v>
+        <v>85.72694934929785</v>
       </c>
       <c r="M23" t="n">
-        <v>53.03194872063516</v>
+        <v>26.49891735908218</v>
       </c>
       <c r="N23" t="n">
-        <v>203.0250697655352</v>
+        <v>228.0171946157888</v>
       </c>
       <c r="O23" t="n">
-        <v>88.62741805789716</v>
+        <v>14.09613923388058</v>
       </c>
       <c r="P23" t="n">
-        <v>42.64306640407087</v>
+        <v>76.99855758250959</v>
       </c>
       <c r="Q23" t="n">
-        <v>106.8910891367274</v>
+        <v>14.75495695491464</v>
       </c>
       <c r="R23" t="n">
-        <v>94.0529246100197</v>
+        <v>3.121105236030594</v>
       </c>
       <c r="S23" t="n">
-        <v>61.13645143173714</v>
+        <v>50.44573350565836</v>
       </c>
       <c r="T23" t="n">
-        <v>43.93886973523193</v>
+        <v>225.5272656342855</v>
       </c>
       <c r="U23" t="n">
-        <v>74.66806558875493</v>
+        <v>68.61882725863896</v>
       </c>
       <c r="V23" t="n">
-        <v>118.3301720949636</v>
+        <v>49.9840859026344</v>
       </c>
       <c r="W23" t="n">
-        <v>22.89570938993152</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>56.85904843660666</v>
+        <v>146.881470727465</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.47338442046515</v>
+        <v>65.52288279703437</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.61418260611912</v>
+        <v>49.40151430133952</v>
       </c>
       <c r="AA23" t="n">
-        <v>14.45434300602608</v>
+        <v>19.92167524772574</v>
       </c>
       <c r="AB23" t="n">
-        <v>21.39307562686955</v>
+        <v>25.95522387270351</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.66367293447158</v>
+        <v>41.61027802396334</v>
       </c>
       <c r="AD23" t="n">
-        <v>35.30642878637708</v>
+        <v>84.69282745930022</v>
       </c>
       <c r="AE23" t="n">
-        <v>59.73410289973678</v>
+        <v>7.233475607778248</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.265479697133581</v>
+        <v>23.20269350262618</v>
       </c>
       <c r="AG23" t="n">
-        <v>35.02921753259147</v>
+        <v>2.279468283009716</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.20912337356554</v>
+        <v>44.13119654295352</v>
       </c>
       <c r="AI23" t="n">
-        <v>45.30377288036927</v>
+        <v>30.47867845306072</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25.88948167490679</v>
+        <v>35.59229924224566</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.81773367641187</v>
+        <v>31.12093303414112</v>
       </c>
       <c r="AL23" t="n">
-        <v>12.68426281566978</v>
+        <v>13.68822645320347</v>
       </c>
       <c r="AM23" t="n">
-        <v>21.66938287515314</v>
+        <v>27.42064386776694</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.290487880347088</v>
+        <v>37.11239563899198</v>
       </c>
       <c r="AO23" t="n">
-        <v>15.43126006663282</v>
+        <v>21.21063161681601</v>
       </c>
       <c r="AP23" t="n">
-        <v>47.5077738489326</v>
+        <v>17.10493303817517</v>
       </c>
       <c r="AQ23" t="n">
-        <v>8.130819892242656</v>
+        <v>28.13814749876842</v>
       </c>
       <c r="AR23" t="n">
-        <v>49.85628525633529</v>
+        <v>26.1722720951056</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.326270801360118</v>
+        <v>29.71117663541981</v>
       </c>
       <c r="AT23" t="n">
-        <v>20.29298610852087</v>
+        <v>17.98490146039729</v>
       </c>
       <c r="AU23" t="n">
-        <v>28.23607714944562</v>
+        <v>31.21746379729251</v>
       </c>
       <c r="AV23" t="n">
-        <v>15.17545636270987</v>
+        <v>31.20741122791454</v>
       </c>
       <c r="AW23" t="n">
-        <v>36.25693261686981</v>
+        <v>30.88105410402657</v>
       </c>
       <c r="AX23" t="n">
-        <v>11.81071679048426</v>
+        <v>4.240491526658883</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>3.610460693960766</v>
+        <v>7.024587657893868</v>
       </c>
       <c r="D24" t="n">
-        <v>1.218442321422867</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.401273105854184</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22.86280474909188</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.785777913739194</v>
+        <v>3.099224373975771</v>
       </c>
       <c r="H24" t="n">
-        <v>5.657629035271371</v>
+        <v>10.80399759601635</v>
       </c>
       <c r="I24" t="n">
-        <v>1.111342714932987</v>
+        <v>0.7689246028803534</v>
       </c>
       <c r="J24" t="n">
-        <v>43.70012545867739</v>
+        <v>8.780279073647137</v>
       </c>
       <c r="K24" t="n">
-        <v>34.21519663366826</v>
+        <v>7.515207178904975</v>
       </c>
       <c r="L24" t="n">
-        <v>4.12912997619254</v>
+        <v>16.57161844449893</v>
       </c>
       <c r="M24" t="n">
-        <v>6.547891366484052</v>
+        <v>10.11765064473629</v>
       </c>
       <c r="N24" t="n">
-        <v>10.71001511193515</v>
+        <v>38.97924320538078</v>
       </c>
       <c r="O24" t="n">
-        <v>20.64542035645075</v>
+        <v>25.42111982752591</v>
       </c>
       <c r="P24" t="n">
-        <v>27.5466314291407</v>
+        <v>21.61883355407803</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.83266405406488</v>
+        <v>19.17998115769357</v>
       </c>
       <c r="R24" t="n">
-        <v>73.6508392581303</v>
+        <v>26.27245034072671</v>
       </c>
       <c r="S24" t="n">
-        <v>19.69545704165301</v>
+        <v>14.57009271856449</v>
       </c>
       <c r="T24" t="n">
-        <v>13.78344522098668</v>
+        <v>11.37906579924377</v>
       </c>
       <c r="U24" t="n">
-        <v>22.70103949562844</v>
+        <v>20.64356171813098</v>
       </c>
       <c r="V24" t="n">
-        <v>28.64692560399394</v>
+        <v>28.83734245824078</v>
       </c>
       <c r="W24" t="n">
-        <v>44.48594893055008</v>
+        <v>18.73774191583616</v>
       </c>
       <c r="X24" t="n">
-        <v>39.21006396349208</v>
+        <v>23.48799501902381</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.91885634406684</v>
+        <v>21.31651765634036</v>
       </c>
       <c r="Z24" t="n">
-        <v>26.17831620611237</v>
+        <v>56.89606627795664</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.85571393425651</v>
+        <v>19.99585311785457</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.06820465843989</v>
+        <v>24.13375638119689</v>
       </c>
       <c r="AC24" t="n">
-        <v>41.11208322157056</v>
+        <v>43.7547485653939</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.610450205003398</v>
+        <v>12.49739400915631</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.255988276548521</v>
+        <v>16.69250072235261</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.55118491496026</v>
+        <v>8.24903642029774</v>
       </c>
       <c r="AG24" t="n">
-        <v>35.42931014700825</v>
+        <v>2.432657707289466</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.462304368917087</v>
+        <v>6.832182335005658</v>
       </c>
       <c r="AI24" t="n">
-        <v>20.85985893248043</v>
+        <v>6.986666043518301</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.237217257055042</v>
+        <v>7.089585116162485</v>
       </c>
       <c r="AK24" t="n">
-        <v>10.4122046367455</v>
+        <v>7.32052461814184</v>
       </c>
       <c r="AL24" t="n">
-        <v>14.62400187521122</v>
+        <v>8.178853729579142</v>
       </c>
       <c r="AM24" t="n">
-        <v>14.62359326441647</v>
+        <v>1.416862309305161</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.745193621279327</v>
+        <v>14.12444028050099</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.901231481375796</v>
+        <v>1.091479159734284</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.300037989720372</v>
+        <v>5.125564305987179</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.099444778774917</v>
+        <v>4.99390301601383</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.077993369401111</v>
+        <v>1.214903646909586</v>
       </c>
       <c r="AS24" t="n">
-        <v>6.350675579166085</v>
+        <v>1.605437299447083</v>
       </c>
       <c r="AT24" t="n">
-        <v>14.62071329493467</v>
+        <v>1.446310100578287</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.35310700749511</v>
+        <v>1.588589298892961</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.285766333766806</v>
+        <v>3.238539529947336</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.186288587015868</v>
+        <v>1.845561822469103</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.768657212042901</v>
+        <v>3.733024079192824</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>19.57918196880228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.213459288013611</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>22.40647153667284</v>
+        <v>23.95790032443873</v>
       </c>
       <c r="F25" t="n">
-        <v>4.718080144407198</v>
+        <v>15.69466492493023</v>
       </c>
       <c r="G25" t="n">
-        <v>159.9910010137329</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.504489477555896</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.796764874195639</v>
+        <v>10.94005066179718</v>
       </c>
       <c r="J25" t="n">
-        <v>8.936628369413038</v>
+        <v>7.247054670636214</v>
       </c>
       <c r="K25" t="n">
-        <v>82.23092921034547</v>
+        <v>8.132948637307805</v>
       </c>
       <c r="L25" t="n">
-        <v>13.54939287380638</v>
+        <v>7.294205213062418</v>
       </c>
       <c r="M25" t="n">
-        <v>46.22888354233565</v>
+        <v>33.91819286798332</v>
       </c>
       <c r="N25" t="n">
-        <v>16.9042587025594</v>
+        <v>80.5873494962587</v>
       </c>
       <c r="O25" t="n">
-        <v>25.43679041201058</v>
+        <v>31.91306506722828</v>
       </c>
       <c r="P25" t="n">
-        <v>89.20186919337152</v>
+        <v>21.15743973616888</v>
       </c>
       <c r="Q25" t="n">
-        <v>159.1475892665494</v>
+        <v>2.46520713705763</v>
       </c>
       <c r="R25" t="n">
-        <v>20.08855389992127</v>
+        <v>27.98055833345019</v>
       </c>
       <c r="S25" t="n">
-        <v>40.38698394151628</v>
+        <v>32.96990236195922</v>
       </c>
       <c r="T25" t="n">
-        <v>32.93196635439929</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.363541521621903</v>
+        <v>17.33499551385814</v>
       </c>
       <c r="V25" t="n">
-        <v>26.95261478040814</v>
+        <v>21.6570652418195</v>
       </c>
       <c r="W25" t="n">
-        <v>18.97724195743399</v>
+        <v>19.82774742342639</v>
       </c>
       <c r="X25" t="n">
-        <v>33.40598748917819</v>
+        <v>34.86952413087911</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.254030151314542</v>
+        <v>8.4777220956977</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.211519806797597</v>
+        <v>2.647462359576973</v>
       </c>
       <c r="AA25" t="n">
-        <v>28.70944667136155</v>
+        <v>24.43689349322527</v>
       </c>
       <c r="AB25" t="n">
-        <v>52.66574437994343</v>
+        <v>12.91137148302505</v>
       </c>
       <c r="AC25" t="n">
-        <v>93.82722551239304</v>
+        <v>3.986892845436608</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.545363842873331</v>
+        <v>35.06361832162062</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.611220263104987</v>
+        <v>1.798025388781461</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.137885030385542</v>
+        <v>5.262627159207028</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.909022031628403</v>
+        <v>7.119105084044664</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.5997990298616157</v>
+        <v>1.841872043714038</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.516523023397892</v>
+        <v>5.590819074655391</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.274925026691645</v>
+        <v>0.05090891316751911</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.682901811146641</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>5.222492414481954</v>
+        <v>15.40204125457921</v>
       </c>
       <c r="AM25" t="n">
-        <v>23.11458648298684</v>
+        <v>4.883142763816877</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.552500479669418</v>
+        <v>5.909458460696492</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.637074429748153</v>
+        <v>23.65651945288507</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.122203618896011</v>
+        <v>21.74881162331666</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.876238393925372</v>
+        <v>1.690545170660379</v>
       </c>
       <c r="AR25" t="n">
-        <v>22.57350894391866</v>
+        <v>9.857755987234521</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.992487999644694</v>
+        <v>7.889817164806631</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.170330009823259</v>
+        <v>3.846889537360302</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.795211796935871</v>
+        <v>1.819265734771496</v>
       </c>
       <c r="AV25" t="n">
-        <v>27.85155468160479</v>
+        <v>11.59700440498499</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.7366701931157525</v>
+        <v>9.035805916513604</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.972936524808979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>23.01931549131288</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>54.34102672834889</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20.52755268327997</v>
+        <v>25.87884248279795</v>
       </c>
       <c r="F26" t="n">
-        <v>51.71372636735919</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>32.75429088158192</v>
+        <v>30.11279761652247</v>
       </c>
       <c r="H26" t="n">
-        <v>36.80088450255356</v>
+        <v>19.19742185241517</v>
       </c>
       <c r="I26" t="n">
-        <v>66.82886630416148</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>30.91967570107063</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>149.849636106439</v>
+        <v>35.15280491333289</v>
       </c>
       <c r="L26" t="n">
-        <v>172.41175223</v>
+        <v>88.6096898482961</v>
       </c>
       <c r="M26" t="n">
-        <v>42.8027160938992</v>
+        <v>26.47859563615857</v>
       </c>
       <c r="N26" t="n">
-        <v>87.04159043627978</v>
+        <v>61.93398920379009</v>
       </c>
       <c r="O26" t="n">
-        <v>81.92824220453325</v>
+        <v>84.56347816002022</v>
       </c>
       <c r="P26" t="n">
-        <v>67.13330229396067</v>
+        <v>61.03785889930559</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.47214658962121</v>
+        <v>105.5755186809829</v>
       </c>
       <c r="R26" t="n">
-        <v>32.8731420573113</v>
+        <v>70.77321586108798</v>
       </c>
       <c r="S26" t="n">
-        <v>49.01551117947012</v>
+        <v>60.50995174292642</v>
       </c>
       <c r="T26" t="n">
-        <v>82.69502263264008</v>
+        <v>77.45987570546828</v>
       </c>
       <c r="U26" t="n">
-        <v>51.09499141552707</v>
+        <v>38.40352912118826</v>
       </c>
       <c r="V26" t="n">
-        <v>66.32267610208361</v>
+        <v>92.38110021864188</v>
       </c>
       <c r="W26" t="n">
-        <v>95.17643764768154</v>
+        <v>59.04320169387414</v>
       </c>
       <c r="X26" t="n">
-        <v>64.51846843008069</v>
+        <v>87.37350065998484</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.09981175611879</v>
+        <v>61.34041770424578</v>
       </c>
       <c r="Z26" t="n">
-        <v>87.96015057279664</v>
+        <v>127.294260134406</v>
       </c>
       <c r="AA26" t="n">
-        <v>56.36076673287425</v>
+        <v>59.56081033829939</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.53312464622934</v>
+        <v>104.7181525797773</v>
       </c>
       <c r="AC26" t="n">
-        <v>168.985219261245</v>
+        <v>99.84093777173314</v>
       </c>
       <c r="AD26" t="n">
-        <v>75.23550191925531</v>
+        <v>100.4768789317423</v>
       </c>
       <c r="AE26" t="n">
-        <v>70.0405598606158</v>
+        <v>49.07410229437772</v>
       </c>
       <c r="AF26" t="n">
-        <v>105.7488479683435</v>
+        <v>137.1919121414983</v>
       </c>
       <c r="AG26" t="n">
-        <v>114.0473108028197</v>
+        <v>127.1166507650541</v>
       </c>
       <c r="AH26" t="n">
-        <v>98.84140864947975</v>
+        <v>65.90064705690122</v>
       </c>
       <c r="AI26" t="n">
-        <v>91.92416671233728</v>
+        <v>72.450423991177</v>
       </c>
       <c r="AJ26" t="n">
-        <v>50.34572218172366</v>
+        <v>94.65599270734874</v>
       </c>
       <c r="AK26" t="n">
-        <v>61.12101480633507</v>
+        <v>25.49871885162775</v>
       </c>
       <c r="AL26" t="n">
-        <v>32.57611563090664</v>
+        <v>33.92900007019428</v>
       </c>
       <c r="AM26" t="n">
-        <v>45.81019029297434</v>
+        <v>47.99311087044629</v>
       </c>
       <c r="AN26" t="n">
-        <v>48.20657734974181</v>
+        <v>39.33303485974907</v>
       </c>
       <c r="AO26" t="n">
-        <v>37.54811628488005</v>
+        <v>85.26476391558245</v>
       </c>
       <c r="AP26" t="n">
-        <v>25.97444908978228</v>
+        <v>38.27179444361814</v>
       </c>
       <c r="AQ26" t="n">
-        <v>46.87672924870709</v>
+        <v>25.46852482789195</v>
       </c>
       <c r="AR26" t="n">
-        <v>21.31249082412374</v>
+        <v>27.98799164254774</v>
       </c>
       <c r="AS26" t="n">
-        <v>27.35683095437754</v>
+        <v>24.44485782428596</v>
       </c>
       <c r="AT26" t="n">
-        <v>17.89961355697706</v>
+        <v>18.34507036769246</v>
       </c>
       <c r="AU26" t="n">
-        <v>29.26969649075278</v>
+        <v>28.85668326116165</v>
       </c>
       <c r="AV26" t="n">
-        <v>10.09273525326266</v>
+        <v>17.04301923239719</v>
       </c>
       <c r="AW26" t="n">
-        <v>16.99117281197595</v>
+        <v>23.75497910033025</v>
       </c>
       <c r="AX26" t="n">
-        <v>19.36150693078415</v>
+        <v>20.50378354787838</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>5.989814000687397</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.358849818361064</v>
+        <v>2.608488261527265</v>
       </c>
       <c r="E27" t="n">
-        <v>9.284756018469382</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.780441651836028</v>
+        <v>2.569260426361964</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2650649948744842</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1201057616052199</v>
+        <v>0.4632673294201858</v>
       </c>
       <c r="I27" t="n">
-        <v>6.355432309642261</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>21.52197521015846</v>
+        <v>2.674679450150364</v>
       </c>
       <c r="K27" t="n">
-        <v>1.086108400313193</v>
+        <v>3.444344925669792</v>
       </c>
       <c r="L27" t="n">
-        <v>3.22822660131934</v>
+        <v>5.11959836893971</v>
       </c>
       <c r="M27" t="n">
-        <v>1.305858671787308</v>
+        <v>0.8281930355028896</v>
       </c>
       <c r="N27" t="n">
-        <v>5.549768626147673</v>
+        <v>1.205081127105107</v>
       </c>
       <c r="O27" t="n">
-        <v>5.745397209796027</v>
+        <v>5.606044047246672</v>
       </c>
       <c r="P27" t="n">
-        <v>2.667176658753214</v>
+        <v>7.01348633195863</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.881179340114703</v>
+        <v>4.623640135173305</v>
       </c>
       <c r="R27" t="n">
-        <v>6.075527701909165</v>
+        <v>2.617992191563376</v>
       </c>
       <c r="S27" t="n">
-        <v>6.445413771097904</v>
+        <v>7.445674948375134</v>
       </c>
       <c r="T27" t="n">
-        <v>4.594860050424233</v>
+        <v>1.432056068027707</v>
       </c>
       <c r="U27" t="n">
-        <v>8.060874453661159</v>
+        <v>2.820679374202456</v>
       </c>
       <c r="V27" t="n">
-        <v>3.751102524903771</v>
+        <v>0.5467529559275173</v>
       </c>
       <c r="W27" t="n">
-        <v>2.341401801411905</v>
+        <v>5.884778536981203</v>
       </c>
       <c r="X27" t="n">
-        <v>3.771533968665002</v>
+        <v>10.45250545128054</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.424483186157815</v>
+        <v>5.51638050663061</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.678286393115441</v>
+        <v>6.956105493731346</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.022033239721679</v>
+        <v>7.360869926812946</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.448015970563427</v>
+        <v>2.225879693522836</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.95786191289533</v>
+        <v>3.903614782973472</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.274553666573238</v>
+        <v>9.775037465372082</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.387730844947087</v>
+        <v>4.822062047476824</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.490729929408425</v>
+        <v>5.626205337758472</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.26808350094533</v>
+        <v>6.964690347364325</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.59285513971041</v>
+        <v>3.258687955943075</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.800999889161867</v>
+        <v>3.618324518152735</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13.22767035876255</v>
+        <v>2.476512493129521</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.201740952448265</v>
+        <v>3.844073151969524</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.211452082759616</v>
+        <v>2.490570251540324</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.78724595741136</v>
+        <v>5.40349597094892</v>
       </c>
       <c r="AN27" t="n">
-        <v>11.39443250451385</v>
+        <v>7.395052395759093</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.4484910871726</v>
+        <v>3.83537688095445</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.836311633470639</v>
+        <v>3.237604956377241</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.150417630304387</v>
+        <v>5.32053045973294</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.005391428801982</v>
+        <v>3.224423077665744</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.419070165062663</v>
+        <v>2.747192151395952</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.044260951675848</v>
+        <v>3.780914621242025</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.389557626395991</v>
+        <v>2.401848658945116</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.414584292004339</v>
+        <v>2.428452947998363</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.899013549758842</v>
+        <v>0.4927940838415021</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.976969001031632</v>
+        <v>2.11699477931984</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>7.633516388037776</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>32.75241741264466</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>14.93676038663744</v>
+        <v>8.48179562451786</v>
       </c>
       <c r="F28" t="n">
-        <v>17.00569141985788</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>16.08684800626106</v>
+        <v>22.22008535074785</v>
       </c>
       <c r="H28" t="n">
-        <v>27.7669120813636</v>
+        <v>83.42182925799429</v>
       </c>
       <c r="I28" t="n">
-        <v>6.791794678206302</v>
+        <v>19.9262385313913</v>
       </c>
       <c r="J28" t="n">
-        <v>36.8141416259909</v>
+        <v>242.3483399515918</v>
       </c>
       <c r="K28" t="n">
-        <v>20.94659672925565</v>
+        <v>81.17433141426898</v>
       </c>
       <c r="L28" t="n">
-        <v>65.8721748768788</v>
+        <v>37.46013797361882</v>
       </c>
       <c r="M28" t="n">
-        <v>41.76444114251873</v>
+        <v>3.301683711387515</v>
       </c>
       <c r="N28" t="n">
-        <v>95.04506829474147</v>
+        <v>26.08770767830932</v>
       </c>
       <c r="O28" t="n">
-        <v>44.39751939488657</v>
+        <v>72.9640502729184</v>
       </c>
       <c r="P28" t="n">
-        <v>118.1004430866048</v>
+        <v>55.42656836951591</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.20151849361242</v>
+        <v>63.65536938963021</v>
       </c>
       <c r="R28" t="n">
-        <v>103.1720387460102</v>
+        <v>39.59482114216925</v>
       </c>
       <c r="S28" t="n">
-        <v>55.05105655606208</v>
+        <v>40.87415342069001</v>
       </c>
       <c r="T28" t="n">
-        <v>36.74465908417219</v>
+        <v>48.9937089870701</v>
       </c>
       <c r="U28" t="n">
-        <v>107.9408671702284</v>
+        <v>96.56414394189967</v>
       </c>
       <c r="V28" t="n">
-        <v>86.49112503546787</v>
+        <v>87.61809074805848</v>
       </c>
       <c r="W28" t="n">
-        <v>72.11501129469234</v>
+        <v>53.13909758935004</v>
       </c>
       <c r="X28" t="n">
-        <v>56.15476945896065</v>
+        <v>68.40877652467711</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.17663180423538</v>
+        <v>39.83503881803671</v>
       </c>
       <c r="Z28" t="n">
-        <v>86.04669681716379</v>
+        <v>36.95015129514252</v>
       </c>
       <c r="AA28" t="n">
-        <v>70.56087321541308</v>
+        <v>58.6144005229952</v>
       </c>
       <c r="AB28" t="n">
-        <v>51.20388777393368</v>
+        <v>67.01595936977102</v>
       </c>
       <c r="AC28" t="n">
-        <v>73.91039832441798</v>
+        <v>69.80516586685796</v>
       </c>
       <c r="AD28" t="n">
-        <v>80.40715415000699</v>
+        <v>100.5776206169135</v>
       </c>
       <c r="AE28" t="n">
-        <v>58.24532161508612</v>
+        <v>122.8391427249697</v>
       </c>
       <c r="AF28" t="n">
-        <v>54.27792545322506</v>
+        <v>75.45982473955256</v>
       </c>
       <c r="AG28" t="n">
-        <v>133.5076227815008</v>
+        <v>76.15190442611835</v>
       </c>
       <c r="AH28" t="n">
-        <v>32.86582748108531</v>
+        <v>126.6503851877951</v>
       </c>
       <c r="AI28" t="n">
-        <v>19.93856932467721</v>
+        <v>19.1934640614566</v>
       </c>
       <c r="AJ28" t="n">
-        <v>35.8023764368826</v>
+        <v>53.31600876818774</v>
       </c>
       <c r="AK28" t="n">
-        <v>43.88670176134122</v>
+        <v>79.94844577196986</v>
       </c>
       <c r="AL28" t="n">
-        <v>20.1292020334036</v>
+        <v>26.9928916033338</v>
       </c>
       <c r="AM28" t="n">
-        <v>37.42542730312132</v>
+        <v>28.97450313268309</v>
       </c>
       <c r="AN28" t="n">
-        <v>39.69787940515252</v>
+        <v>30.32915382311839</v>
       </c>
       <c r="AO28" t="n">
-        <v>10.34863540056833</v>
+        <v>19.97337410533029</v>
       </c>
       <c r="AP28" t="n">
-        <v>14.46401913772906</v>
+        <v>22.98166499634399</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16.90373561467056</v>
+        <v>10.81691746039791</v>
       </c>
       <c r="AR28" t="n">
-        <v>18.54441643456189</v>
+        <v>5.11164842873738</v>
       </c>
       <c r="AS28" t="n">
-        <v>9.206198832312335</v>
+        <v>29.96786086180104</v>
       </c>
       <c r="AT28" t="n">
-        <v>16.80609652549703</v>
+        <v>10.97327305072238</v>
       </c>
       <c r="AU28" t="n">
-        <v>10.37197568727242</v>
+        <v>23.93638686146619</v>
       </c>
       <c r="AV28" t="n">
-        <v>13.5999695410434</v>
+        <v>10.38807746665162</v>
       </c>
       <c r="AW28" t="n">
-        <v>22.32051131064311</v>
+        <v>16.2845412273039</v>
       </c>
       <c r="AX28" t="n">
-        <v>21.17103788435602</v>
+        <v>26.08549550182459</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>6.507454850200912</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>136.1373934702947</v>
+        <v>19.78854826953409</v>
       </c>
       <c r="E29" t="n">
-        <v>4.80740675465595</v>
+        <v>3.592597341270598</v>
       </c>
       <c r="F29" t="n">
-        <v>126.2629173774727</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>20.03553447364249</v>
+        <v>0.7463009648842784</v>
       </c>
       <c r="H29" t="n">
-        <v>11.62593032498444</v>
+        <v>38.00002740465925</v>
       </c>
       <c r="I29" t="n">
-        <v>18.61742969913173</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>22.78769585778575</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>45.39170871485143</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.128716936332484</v>
+        <v>140.4446986679698</v>
       </c>
       <c r="M29" t="n">
-        <v>63.8721741921284</v>
+        <v>51.69101525402503</v>
       </c>
       <c r="N29" t="n">
-        <v>62.98153721272885</v>
+        <v>27.19845404501313</v>
       </c>
       <c r="O29" t="n">
-        <v>117.6327662865673</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>127.5606365459134</v>
+        <v>68.18780773337065</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.84075474018968</v>
+        <v>5.585726267983375</v>
       </c>
       <c r="R29" t="n">
-        <v>72.97045916066428</v>
+        <v>0.7583033527167231</v>
       </c>
       <c r="S29" t="n">
-        <v>91.23814808673576</v>
+        <v>35.71141959419631</v>
       </c>
       <c r="T29" t="n">
-        <v>31.38622127707158</v>
+        <v>55.87500714060538</v>
       </c>
       <c r="U29" t="n">
-        <v>35.98479037333416</v>
+        <v>17.24588685439351</v>
       </c>
       <c r="V29" t="n">
-        <v>103.267916257392</v>
+        <v>50.41445540139032</v>
       </c>
       <c r="W29" t="n">
-        <v>9.39256326419815</v>
+        <v>22.2390533520754</v>
       </c>
       <c r="X29" t="n">
-        <v>69.57595977385746</v>
+        <v>92.82568293885961</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.78012457664035</v>
+        <v>14.30017356773271</v>
       </c>
       <c r="Z29" t="n">
-        <v>52.65741682497557</v>
+        <v>55.68127056937475</v>
       </c>
       <c r="AA29" t="n">
-        <v>27.3952323504376</v>
+        <v>33.80804918351051</v>
       </c>
       <c r="AB29" t="n">
-        <v>55.54406545294217</v>
+        <v>62.95239751644104</v>
       </c>
       <c r="AC29" t="n">
-        <v>69.38703764202401</v>
+        <v>52.03180836931506</v>
       </c>
       <c r="AD29" t="n">
-        <v>58.84950972204403</v>
+        <v>24.15524012473129</v>
       </c>
       <c r="AE29" t="n">
-        <v>15.53565076484779</v>
+        <v>43.95848789318734</v>
       </c>
       <c r="AF29" t="n">
-        <v>32.8594862279549</v>
+        <v>11.80977730797134</v>
       </c>
       <c r="AG29" t="n">
-        <v>3.744802094103622</v>
+        <v>23.75922794279518</v>
       </c>
       <c r="AH29" t="n">
-        <v>24.39674101371019</v>
+        <v>23.69311538778475</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.972788362341237</v>
+        <v>24.65262140908854</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24.2001535743922</v>
+        <v>52.06606310915797</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.17479547599869</v>
+        <v>25.13929641948544</v>
       </c>
       <c r="AL29" t="n">
-        <v>7.294191259177119</v>
+        <v>49.23463928200568</v>
       </c>
       <c r="AM29" t="n">
-        <v>52.92882307665528</v>
+        <v>34.30915859546099</v>
       </c>
       <c r="AN29" t="n">
-        <v>84.9101706216084</v>
+        <v>0.6259828356063821</v>
       </c>
       <c r="AO29" t="n">
-        <v>15.058275437517</v>
+        <v>35.17378312905208</v>
       </c>
       <c r="AP29" t="n">
-        <v>16.52393552708914</v>
+        <v>5.697863267716766</v>
       </c>
       <c r="AQ29" t="n">
-        <v>27.05717348245398</v>
+        <v>3.210830567191839</v>
       </c>
       <c r="AR29" t="n">
-        <v>10.01178789345838</v>
+        <v>27.15845927771775</v>
       </c>
       <c r="AS29" t="n">
-        <v>12.37935887425933</v>
+        <v>13.39803288920909</v>
       </c>
       <c r="AT29" t="n">
-        <v>13.7737928605345</v>
+        <v>15.96604710565321</v>
       </c>
       <c r="AU29" t="n">
-        <v>21.16573605458077</v>
+        <v>18.11446469020782</v>
       </c>
       <c r="AV29" t="n">
-        <v>81.91480633943645</v>
+        <v>1.736668979755267</v>
       </c>
       <c r="AW29" t="n">
-        <v>26.37687599605635</v>
+        <v>33.79684125412872</v>
       </c>
       <c r="AX29" t="n">
-        <v>45.15932536558246</v>
+        <v>13.66074203707189</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.292733058391287</v>
+        <v>0.856990407645825</v>
       </c>
       <c r="D30" t="n">
-        <v>5.461532281448369</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.807738508018464</v>
+        <v>5.694874860100892</v>
       </c>
       <c r="F30" t="n">
-        <v>2.847995266889834</v>
+        <v>9.05746151062873</v>
       </c>
       <c r="G30" t="n">
-        <v>6.008915431685321</v>
+        <v>16.39665838853138</v>
       </c>
       <c r="H30" t="n">
-        <v>12.03755777797982</v>
+        <v>6.000963221360437</v>
       </c>
       <c r="I30" t="n">
-        <v>1.583064182240832</v>
+        <v>164.3274303574518</v>
       </c>
       <c r="J30" t="n">
-        <v>45.52949667443711</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.51316464325459</v>
+        <v>15.7379196580129</v>
       </c>
       <c r="L30" t="n">
-        <v>29.38471307333829</v>
+        <v>14.70115065156608</v>
       </c>
       <c r="M30" t="n">
-        <v>44.34216922470331</v>
+        <v>25.42616976903111</v>
       </c>
       <c r="N30" t="n">
-        <v>21.8505591144463</v>
+        <v>20.37901751478368</v>
       </c>
       <c r="O30" t="n">
-        <v>14.80774377258273</v>
+        <v>9.589649080045147</v>
       </c>
       <c r="P30" t="n">
-        <v>9.640341337059317</v>
+        <v>12.60025889886103</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.67259472421463</v>
+        <v>19.26810240174057</v>
       </c>
       <c r="R30" t="n">
-        <v>43.79196235760944</v>
+        <v>36.76452606875765</v>
       </c>
       <c r="S30" t="n">
-        <v>13.82549006896218</v>
+        <v>17.33903463908875</v>
       </c>
       <c r="T30" t="n">
-        <v>36.70475673147506</v>
+        <v>12.83173319072829</v>
       </c>
       <c r="U30" t="n">
-        <v>20.16688213181014</v>
+        <v>21.23501726893196</v>
       </c>
       <c r="V30" t="n">
-        <v>20.35329011778111</v>
+        <v>18.24779769919803</v>
       </c>
       <c r="W30" t="n">
-        <v>15.53526654597587</v>
+        <v>13.57352385511066</v>
       </c>
       <c r="X30" t="n">
-        <v>10.55295212042391</v>
+        <v>31.10438549564881</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.22394788279763</v>
+        <v>26.669012897127</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.13929412258576</v>
+        <v>23.48048316750116</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.14826748003676</v>
+        <v>22.81006541720383</v>
       </c>
       <c r="AB30" t="n">
-        <v>21.38554777111587</v>
+        <v>16.97849728388261</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.36164501177615</v>
+        <v>8.765487357989342</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.67757070556473</v>
+        <v>14.60944526437785</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.46743818022194</v>
+        <v>31.94947605751518</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.41027004561344</v>
+        <v>18.99749031169631</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.11183576798701</v>
+        <v>16.26470439679214</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.11496581491432</v>
+        <v>7.713977131007642</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.439260117734725</v>
+        <v>6.831877476238465</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.23963472899831</v>
+        <v>10.71499413394639</v>
       </c>
       <c r="AK30" t="n">
-        <v>11.08189979792449</v>
+        <v>21.08363061254745</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.882622189382621</v>
+        <v>2.109322733130111</v>
       </c>
       <c r="AM30" t="n">
-        <v>6.086457073466566</v>
+        <v>5.162396246542287</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.156036278750872</v>
+        <v>6.931997344389141</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.517282505752632</v>
+        <v>6.868654461988987</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.7945468917877604</v>
+        <v>3.872390866461811</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.641020416623785</v>
+        <v>1.189030365827272</v>
       </c>
       <c r="AR30" t="n">
-        <v>10.58620131742447</v>
+        <v>3.434898986271943</v>
       </c>
       <c r="AS30" t="n">
-        <v>10.8278261652174</v>
+        <v>1.04928868151176</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.135720445899407</v>
+        <v>1.515948331245577</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.246959978439348</v>
+        <v>3.45936835878353</v>
       </c>
       <c r="AV30" t="n">
-        <v>10.40183715060521</v>
+        <v>4.009911782464362</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.196117436359751</v>
+        <v>3.270034804321225</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.102265219616887</v>
+        <v>0.5858245450297241</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>45.55820290064181</v>
+        <v>7.563760423451887</v>
       </c>
       <c r="D31" t="n">
-        <v>2.930357475181899</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>14.81470645328967</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.442832840806741</v>
+        <v>8.05732723379829</v>
       </c>
       <c r="G31" t="n">
-        <v>23.08447921323158</v>
+        <v>22.94309456689419</v>
       </c>
       <c r="H31" t="n">
-        <v>19.91340933186709</v>
+        <v>22.0068707879628</v>
       </c>
       <c r="I31" t="n">
-        <v>2.085185513770307</v>
+        <v>164.2435302142932</v>
       </c>
       <c r="J31" t="n">
-        <v>135.9424340730349</v>
+        <v>35.47837589213191</v>
       </c>
       <c r="K31" t="n">
-        <v>40.11063466414507</v>
+        <v>4.952135744839833</v>
       </c>
       <c r="L31" t="n">
-        <v>8.689197271564174</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>27.75144727453068</v>
+        <v>40.81494834636179</v>
       </c>
       <c r="N31" t="n">
-        <v>8.378834639413288</v>
+        <v>32.65302556864024</v>
       </c>
       <c r="O31" t="n">
-        <v>104.1215000039341</v>
+        <v>28.89762361052574</v>
       </c>
       <c r="P31" t="n">
-        <v>52.2253585348675</v>
+        <v>46.81678762977829</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.48749492931856</v>
+        <v>82.16267893373954</v>
       </c>
       <c r="R31" t="n">
-        <v>16.03051321415178</v>
+        <v>40.83885631737985</v>
       </c>
       <c r="S31" t="n">
-        <v>6.203546076506524</v>
+        <v>34.46409805897897</v>
       </c>
       <c r="T31" t="n">
-        <v>37.73564147255811</v>
+        <v>52.67503720649881</v>
       </c>
       <c r="U31" t="n">
-        <v>3.648325675793366</v>
+        <v>22.20386896596369</v>
       </c>
       <c r="V31" t="n">
-        <v>15.03228177551501</v>
+        <v>24.27797910440937</v>
       </c>
       <c r="W31" t="n">
-        <v>26.77931080989834</v>
+        <v>28.79210021561563</v>
       </c>
       <c r="X31" t="n">
-        <v>20.86636557441692</v>
+        <v>0.2873774143719903</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.5045790007415</v>
+        <v>33.1240870600353</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.418681177764143</v>
+        <v>33.06402032831047</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.289352873369078</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>43.88143577217584</v>
+        <v>16.13947173118063</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.17772344042779</v>
+        <v>10.21910687497004</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.71969531836124</v>
+        <v>9.632245955915501</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.802385514030771</v>
+        <v>31.93714291126524</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.399333119647772</v>
+        <v>6.36351447870137</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.237652845457097</v>
+        <v>24.07972400503112</v>
       </c>
       <c r="AH31" t="n">
-        <v>4.325552386514511</v>
+        <v>39.53242230284307</v>
       </c>
       <c r="AI31" t="n">
-        <v>5.002979367287341</v>
+        <v>6.217225756115081</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.36915799164014</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>20.42192863303578</v>
+        <v>1.538233801335759</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.513618170271774</v>
+        <v>12.13512290295774</v>
       </c>
       <c r="AM31" t="n">
-        <v>15.33245520892035</v>
+        <v>15.49069515129631</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.32615920085923</v>
+        <v>1.112535203244175</v>
       </c>
       <c r="AO31" t="n">
-        <v>15.52752238180033</v>
+        <v>23.49166691703503</v>
       </c>
       <c r="AP31" t="n">
-        <v>22.23299468297343</v>
+        <v>9.003126792178071</v>
       </c>
       <c r="AQ31" t="n">
-        <v>27.82470758701178</v>
+        <v>7.727083926060915</v>
       </c>
       <c r="AR31" t="n">
-        <v>6.685221007442347</v>
+        <v>11.60350460296277</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.506787648775171</v>
+        <v>4.603072686994162</v>
       </c>
       <c r="AT31" t="n">
-        <v>4.475647436470676</v>
+        <v>6.461689077468782</v>
       </c>
       <c r="AU31" t="n">
-        <v>12.22361315483199</v>
+        <v>8.049171815165636</v>
       </c>
       <c r="AV31" t="n">
-        <v>12.06103439777029</v>
+        <v>5.855673220467954</v>
       </c>
       <c r="AW31" t="n">
-        <v>28.42534248480661</v>
+        <v>7.054346251356026</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.305856923425154</v>
+        <v>7.970420432477896</v>
       </c>
     </row>
   </sheetData>
